--- a/MATLAB/FullSystemData_TEST.xlsx
+++ b/MATLAB/FullSystemData_TEST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\BEP\BEP\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\Documents\TUD-3\BEP\Code\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C95818-8E63-4F32-8CF5-9E24E433DFB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A0440D-D37F-4909-8845-6CCDE0D87D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -157,15 +157,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,19 +479,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A1BE27-50BC-469A-A422-B492F918308C}">
   <dimension ref="A1:CX29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="CD12" sqref="CD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -986,313 +986,313 @@
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H4" s="3">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="I4" s="3">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="J4" s="3">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="K4" s="3">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="L4" s="3">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="M4" s="3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="N4" s="3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="O4" s="3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="P4" s="3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="R4" s="3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="S4" s="3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="T4" s="3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="U4" s="3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="V4" s="3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="W4" s="3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="X4" s="3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="Y4" s="3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="Z4" s="3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AA4" s="3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AC4" s="3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AD4" s="3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AE4" s="3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AF4" s="3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AG4" s="3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AH4" s="3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AI4" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AJ4" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AK4" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AL4" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AM4" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AN4" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AO4" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AP4" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AQ4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BG4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BK4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BO4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BU4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="BV4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="BW4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="BX4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="BY4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="BZ4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="CA4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="CB4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="CC4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="CD4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="CE4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="CF4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="CG4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="CH4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="CI4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="CJ4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="CK4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="CL4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="CM4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="CN4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="CO4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="CP4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="CQ4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="CR4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="CS4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="CT4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="CU4" s="2">
         <v>0.5</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="CV4" s="2">
         <v>0.5</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="CW4" s="2">
         <v>0.5</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="CX4" s="2">
         <v>0.5</v>
       </c>
-      <c r="AU4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AW4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AX4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AY4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AZ4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BA4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BB4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BC4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BD4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BE4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BF4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BG4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BH4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BI4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BJ4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BK4" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BL4" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BM4" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BN4" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BO4" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BP4" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BQ4" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BR4" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BS4" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BT4" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BU4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BV4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BW4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BX4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BY4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BZ4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CA4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CB4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CC4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CD4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CE4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CF4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CG4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CH4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CI4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CJ4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CK4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CL4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CM4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CN4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CO4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CQ4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CR4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CS4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CT4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CU4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CV4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CW4" s="2">
-        <v>1</v>
-      </c>
-      <c r="CX4" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1598,7 +1598,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1763,7 +1763,7 @@
         <v>7.49999999999994E-2</v>
       </c>
       <c r="AQ6" s="2">
-        <f t="shared" ref="AQ6:CL6" si="4">AP6+0.025</f>
+        <f t="shared" ref="AQ6:CA6" si="4">AP6+0.025</f>
         <v>9.9999999999999395E-2</v>
       </c>
       <c r="AR6" s="2">
@@ -1959,40 +1959,40 @@
         <v>1</v>
       </c>
       <c r="CN6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ6" s="2">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="CR6" s="2">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="CS6" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="CT6" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="CU6" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="CV6" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="CW6" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="CX6" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -2063,7 +2063,7 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>0.95000000000000029</v>
       </c>
     </row>
-    <row r="9" spans="1:102" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:102" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="10" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
@@ -2536,35 +2536,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
   </sheetData>
@@ -2592,12 +2592,12 @@
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -2681,741 +2681,741 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
-        <v>0</v>
-      </c>
-      <c r="K2" s="11">
-        <v>0</v>
-      </c>
-      <c r="L2" s="11">
-        <v>0</v>
-      </c>
-      <c r="M2" s="11">
-        <v>0</v>
-      </c>
-      <c r="N2" s="11">
-        <v>0</v>
-      </c>
-      <c r="O2" s="11">
-        <v>0</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>0</v>
-      </c>
-      <c r="R2" s="11">
-        <v>0</v>
-      </c>
-      <c r="S2" s="11">
-        <v>0</v>
-      </c>
-      <c r="T2" s="11">
-        <v>0</v>
-      </c>
-      <c r="U2" s="11">
-        <v>0</v>
-      </c>
-      <c r="V2" s="11">
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>0</v>
+      </c>
+      <c r="R2" s="10">
+        <v>0</v>
+      </c>
+      <c r="S2" s="10">
+        <v>0</v>
+      </c>
+      <c r="T2" s="10">
+        <v>0</v>
+      </c>
+      <c r="U2" s="10">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
       <c r="B3" s="6">
         <f t="shared" ref="B3:B12" si="1">B2+1</f>
         <v>1</v>
       </c>
-      <c r="C3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="L3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="M3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="N3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="R3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="S3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="T3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="U3" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="V3" s="11">
+      <c r="C3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="S3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="T3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="U3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="V3" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
       <c r="B4" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="M4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="P4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="R4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="S4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="T4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="U4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="V4" s="11">
+      <c r="C4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="R4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="U4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="V4" s="10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
       <c r="B5" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="10">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
       <c r="B6" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="M6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="N6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="P6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="R6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="S6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="U6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="V6" s="11">
+      <c r="C6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="V6" s="10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
       <c r="B7" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="L7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="M7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="N7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="R7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="S7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="T7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="U7" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="V7" s="11">
+      <c r="C7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="S7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="T7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="U7" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="V7" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
       <c r="B8" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="L8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="N8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="R8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="S8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="T8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="U8" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="V8" s="11">
+      <c r="C8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="T8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="U8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="V8" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
       <c r="B9" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="L9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="N9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="R9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="S9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="T9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="U9" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="V9" s="11">
+      <c r="C9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="T9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="U9" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="V9" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
       <c r="B10" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="P10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="R10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="S10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="T10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="U10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="V10" s="11">
+      <c r="C10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="S10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="U10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V10" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
       <c r="B11" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="P11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="R11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="S11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="T11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="U11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="V11" s="11">
+      <c r="C11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="S11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="U11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V11" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
       <c r="B12" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="10">
         <v>2E-3</v>
       </c>
     </row>
@@ -3447,12 +3447,12 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>

--- a/MATLAB/FullSystemData_TEST.xlsx
+++ b/MATLAB/FullSystemData_TEST.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\BEP\BEP\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBB2669-95D2-4FEF-83CB-C88C25D501E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9613920-2BF1-499F-9852-58E22FC9FC4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -145,9 +146,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -158,6 +156,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A1BE27-50BC-469A-A422-B492F918308C}">
   <dimension ref="A1:CX27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +561,9 @@
     <col min="76" max="76" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="79" max="102" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="92" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="93" max="101" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="103" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -956,154 +959,154 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J2" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K2" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L2" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M2" s="3">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="N2" s="3">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="O2" s="3">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="P2" s="3">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="R2" s="3">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="S2" s="3">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="T2" s="3">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="U2" s="3">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="V2" s="3">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="W2" s="3">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="X2" s="3">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Y2" s="3">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z2" s="3">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AA2" s="3">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AB2" s="3">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AC2" s="3">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AD2" s="3">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AE2" s="3">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AF2" s="3">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AG2" s="3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AH2" s="3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AI2" s="3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AJ2" s="3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AK2" s="3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AL2" s="3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AM2" s="3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AN2" s="3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AO2" s="3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AP2" s="3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AQ2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AV2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AW2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AX2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AY2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BA2" s="2">
         <v>0.6</v>
@@ -1226,31 +1229,39 @@
         <v>0.9</v>
       </c>
       <c r="CO2" s="2">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="CP2" s="2">
-        <v>1</v>
+        <f>CO2</f>
+        <v>0.95</v>
       </c>
       <c r="CQ2" s="2">
-        <v>1</v>
+        <f t="shared" ref="CQ2:CW2" si="2">CP2</f>
+        <v>0.95</v>
       </c>
       <c r="CR2" s="2">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="CS2" s="2">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="CT2" s="2">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="CU2" s="2">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="CV2" s="2">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="CW2" s="2">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="CX2" s="2">
         <v>1</v>
@@ -1575,99 +1586,99 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:AO4" si="2">D4-0.025</f>
+        <f t="shared" ref="E4:AO4" si="3">D4-0.025</f>
         <v>0.95</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92499999999999993</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87499999999999989</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84999999999999987</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82499999999999984</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7749999999999998</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.74999999999999978</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.72499999999999976</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.69999999999999973</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67499999999999971</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64999999999999969</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.62499999999999967</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57499999999999962</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5499999999999996</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52499999999999958</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49999999999999956</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47499999999999953</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44999999999999951</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42499999999999949</v>
       </c>
       <c r="AA4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39999999999999947</v>
       </c>
       <c r="AB4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999944</v>
       </c>
       <c r="AC4" s="2">
@@ -1675,270 +1686,267 @@
         <v>0.34999999999999942</v>
       </c>
       <c r="AD4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3249999999999994</v>
       </c>
       <c r="AE4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29999999999999938</v>
       </c>
       <c r="AF4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27499999999999936</v>
       </c>
       <c r="AG4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24999999999999936</v>
-      </c>
-      <c r="AH4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.22499999999999937</v>
-      </c>
-      <c r="AI4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.19999999999999937</v>
-      </c>
-      <c r="AJ4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.17499999999999938</v>
-      </c>
-      <c r="AK4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.14999999999999938</v>
-      </c>
-      <c r="AL4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.12499999999999939</v>
-      </c>
-      <c r="AM4" s="2">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999395E-2</v>
-      </c>
-      <c r="AN4" s="2">
-        <f t="shared" si="2"/>
-        <v>7.49999999999994E-2</v>
-      </c>
-      <c r="AO4" s="2">
-        <f t="shared" si="2"/>
-        <v>4.9999999999999399E-2</v>
-      </c>
-      <c r="AP4" s="2">
-        <f>AO4+0.025</f>
-        <v>7.49999999999994E-2</v>
-      </c>
-      <c r="AQ4" s="2">
-        <f t="shared" ref="AQ4:CA4" si="3">AP4+0.025</f>
-        <v>9.9999999999999395E-2</v>
-      </c>
-      <c r="AR4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.12499999999999939</v>
-      </c>
-      <c r="AS4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.14999999999999938</v>
-      </c>
-      <c r="AT4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.17499999999999938</v>
-      </c>
-      <c r="AU4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.19999999999999937</v>
-      </c>
-      <c r="AV4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.22499999999999937</v>
-      </c>
-      <c r="AW4" s="2">
         <f t="shared" si="3"/>
         <v>0.24999999999999936</v>
       </c>
+      <c r="AH4" s="2">
+        <f>AG4</f>
+        <v>0.24999999999999936</v>
+      </c>
+      <c r="AI4" s="2">
+        <f t="shared" ref="AI4:AQ4" si="4">AH4</f>
+        <v>0.24999999999999936</v>
+      </c>
+      <c r="AJ4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24999999999999936</v>
+      </c>
+      <c r="AK4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24999999999999936</v>
+      </c>
+      <c r="AL4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24999999999999936</v>
+      </c>
+      <c r="AM4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24999999999999936</v>
+      </c>
+      <c r="AN4" s="2">
+        <f>AM4</f>
+        <v>0.24999999999999936</v>
+      </c>
+      <c r="AO4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24999999999999936</v>
+      </c>
+      <c r="AP4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24999999999999936</v>
+      </c>
+      <c r="AQ4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24999999999999936</v>
+      </c>
+      <c r="AR4" s="2">
+        <f t="shared" ref="AQ4:CA4" si="5">AQ4+0.025</f>
+        <v>0.27499999999999936</v>
+      </c>
+      <c r="AS4" s="2">
+        <f t="shared" si="5"/>
+        <v>0.29999999999999938</v>
+      </c>
+      <c r="AT4" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3249999999999994</v>
+      </c>
+      <c r="AU4" s="2">
+        <f t="shared" si="5"/>
+        <v>0.34999999999999942</v>
+      </c>
+      <c r="AV4" s="2">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999944</v>
+      </c>
+      <c r="AW4" s="2">
+        <f t="shared" si="5"/>
+        <v>0.39999999999999947</v>
+      </c>
       <c r="AX4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.27499999999999936</v>
+        <f t="shared" si="5"/>
+        <v>0.42499999999999949</v>
       </c>
       <c r="AY4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.29999999999999938</v>
+        <f t="shared" si="5"/>
+        <v>0.44999999999999951</v>
       </c>
       <c r="AZ4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.3249999999999994</v>
+        <f t="shared" si="5"/>
+        <v>0.47499999999999953</v>
       </c>
       <c r="BA4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.34999999999999942</v>
+        <f t="shared" si="5"/>
+        <v>0.49999999999999956</v>
       </c>
       <c r="BB4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.37499999999999944</v>
+        <f t="shared" si="5"/>
+        <v>0.52499999999999958</v>
       </c>
       <c r="BC4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.39999999999999947</v>
+        <f t="shared" si="5"/>
+        <v>0.5499999999999996</v>
       </c>
       <c r="BD4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.42499999999999949</v>
+        <f t="shared" si="5"/>
+        <v>0.57499999999999962</v>
       </c>
       <c r="BE4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.44999999999999951</v>
+        <f t="shared" si="5"/>
+        <v>0.59999999999999964</v>
       </c>
       <c r="BF4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.47499999999999953</v>
+        <f t="shared" si="5"/>
+        <v>0.62499999999999967</v>
       </c>
       <c r="BG4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999999999999956</v>
+        <f t="shared" si="5"/>
+        <v>0.64999999999999969</v>
       </c>
       <c r="BH4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.52499999999999958</v>
+        <f t="shared" si="5"/>
+        <v>0.67499999999999971</v>
       </c>
       <c r="BI4" s="2">
         <f>BH4+0.025</f>
-        <v>0.5499999999999996</v>
+        <v>0.69999999999999973</v>
       </c>
       <c r="BJ4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.57499999999999962</v>
+        <f t="shared" si="5"/>
+        <v>0.72499999999999976</v>
       </c>
       <c r="BK4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.59999999999999964</v>
+        <f t="shared" si="5"/>
+        <v>0.74999999999999978</v>
       </c>
       <c r="BL4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.62499999999999967</v>
+        <f t="shared" si="5"/>
+        <v>0.7749999999999998</v>
       </c>
       <c r="BM4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.64999999999999969</v>
+        <f t="shared" si="5"/>
+        <v>0.79999999999999982</v>
       </c>
       <c r="BN4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.67499999999999971</v>
+        <f t="shared" si="5"/>
+        <v>0.82499999999999984</v>
       </c>
       <c r="BO4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.69999999999999973</v>
+        <f t="shared" si="5"/>
+        <v>0.84999999999999987</v>
       </c>
       <c r="BP4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.72499999999999976</v>
+        <f t="shared" si="5"/>
+        <v>0.87499999999999989</v>
       </c>
       <c r="BQ4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.74999999999999978</v>
+        <f t="shared" si="5"/>
+        <v>0.89999999999999991</v>
       </c>
       <c r="BR4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.7749999999999998</v>
+        <f t="shared" si="5"/>
+        <v>0.92499999999999993</v>
       </c>
       <c r="BS4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.79999999999999982</v>
+        <f t="shared" si="5"/>
+        <v>0.95</v>
       </c>
       <c r="BT4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.82499999999999984</v>
+        <f t="shared" si="5"/>
+        <v>0.97499999999999998</v>
       </c>
       <c r="BU4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.84999999999999987</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="BV4" s="2">
-        <f>BU4+0.025</f>
-        <v>0.87499999999999989</v>
+        <f>BU4</f>
+        <v>1</v>
       </c>
       <c r="BW4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" ref="BW4:CJ4" si="6">BV4</f>
+        <v>1</v>
       </c>
       <c r="BX4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.92499999999999993</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="BY4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.95</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="BZ4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.97499999999999998</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="CA4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="CB4" s="2">
-        <f>CA4</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="CC4" s="2">
-        <f t="shared" ref="CC4:CM4" si="4">CB4</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="CD4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="CE4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="CF4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="CG4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="CH4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="CI4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="CJ4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="CK4" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="CL4" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="CM4" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="CN4" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CO4" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CP4" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="CQ4" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="CR4" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="CS4" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="CT4" s="2">
         <v>0</v>
@@ -2314,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF10647C-DAB1-411C-94FE-86D8B5544BDA}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView zoomScale="135" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:V2"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,7 +2333,7 @@
     <col min="3" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -2333,152 +2341,89 @@
         <v>0</v>
       </c>
       <c r="D1" s="4">
-        <f t="shared" ref="D1:V1" si="0">C1+0.5</f>
-        <v>0.5</v>
+        <f>C1+0.75</f>
+        <v>0.75</v>
       </c>
       <c r="E1" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="E1:M1" si="0">D1+0.75</f>
+        <v>1.5</v>
       </c>
       <c r="F1" s="4">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="G1" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="4">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="I1" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J1" s="4">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="K1" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L1" s="4">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>6.75</v>
       </c>
       <c r="M1" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N1" s="4">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="O1" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="P1" s="4">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="Q1" s="4">
-        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="4">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="S1" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="T1" s="4">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="U1" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="V1" s="4">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0</v>
-      </c>
-      <c r="O2" s="8">
-        <v>0</v>
-      </c>
-      <c r="P2" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
-        <v>0</v>
-      </c>
-      <c r="S2" s="8">
-        <v>0</v>
-      </c>
-      <c r="T2" s="8">
-        <v>0</v>
-      </c>
-      <c r="U2" s="8">
-        <v>0</v>
-      </c>
-      <c r="V2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B12" si="1">B2+1</f>
         <v>1</v>
@@ -2516,36 +2461,9 @@
       <c r="M3" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N3" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O3" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P3" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="R3" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="S3" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="T3" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="U3" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="V3" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -2583,36 +2501,9 @@
       <c r="M4" s="8">
         <v>0.01</v>
       </c>
-      <c r="N4" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="S4" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="T4" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="U4" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="V4" s="8">
-        <v>0.01</v>
-      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
       <c r="B5" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2650,36 +2541,9 @@
       <c r="M5" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="N5" s="8">
-        <v>1.2E-2</v>
-      </c>
-      <c r="O5" s="8">
-        <v>1.2E-2</v>
-      </c>
-      <c r="P5" s="8">
-        <v>1.2E-2</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>1.2E-2</v>
-      </c>
-      <c r="R5" s="8">
-        <v>1.2E-2</v>
-      </c>
-      <c r="S5" s="8">
-        <v>1.2E-2</v>
-      </c>
-      <c r="T5" s="8">
-        <v>1.2E-2</v>
-      </c>
-      <c r="U5" s="8">
-        <v>1.2E-2</v>
-      </c>
-      <c r="V5" s="8">
-        <v>1.2E-2</v>
-      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="B6" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2717,36 +2581,9 @@
       <c r="M6" s="8">
         <v>0.01</v>
       </c>
-      <c r="N6" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="R6" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="S6" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="U6" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="V6" s="8">
-        <v>0.01</v>
-      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="B7" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2784,36 +2621,9 @@
       <c r="M7" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N7" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O7" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P7" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="R7" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="S7" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="T7" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="U7" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="V7" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2851,36 +2661,9 @@
       <c r="M8" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="N8" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O8" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P8" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="R8" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="S8" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="T8" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="U8" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="V8" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
       <c r="B9" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2918,36 +2701,9 @@
       <c r="M9" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="N9" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O9" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P9" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="R9" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="S9" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="T9" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="U9" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="V9" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
       <c r="B10" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2985,36 +2741,9 @@
       <c r="M10" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N10" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O10" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="P10" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="R10" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="S10" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="T10" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="U10" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="V10" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
       <c r="B11" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3052,36 +2781,9 @@
       <c r="M11" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N11" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O11" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="P11" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="R11" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="S11" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="T11" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="U11" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="V11" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3117,33 +2819,6 @@
         <v>2E-3</v>
       </c>
       <c r="M12" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="N12" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="O12" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="P12" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="R12" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="S12" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="T12" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="U12" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="V12" s="8">
         <v>2E-3</v>
       </c>
     </row>
@@ -3151,7 +2826,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:A12"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:V12">
+  <conditionalFormatting sqref="C2:M12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3169,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F689F22-4493-472A-B47A-B05CC6B7B0FB}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3185,383 +2860,291 @@
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <f>B1+0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="D1" s="10">
-        <f t="shared" ref="D1:V1" si="0">C1+0.05</f>
+      <c r="B1" s="9">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <f>B1+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="E1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="F1" s="10">
-        <f t="shared" si="0"/>
+      <c r="D1" s="9">
+        <f t="shared" ref="D1:L1" si="0">C1+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="G1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="H1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="I1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="J1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="K1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="L1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="M1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="N1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="O1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.65</v>
-      </c>
-      <c r="P1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="Q1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.75000000000000011</v>
-      </c>
-      <c r="R1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="S1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.8500000000000002</v>
-      </c>
-      <c r="T1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.90000000000000024</v>
-      </c>
-      <c r="U1" s="10">
-        <f t="shared" si="0"/>
-        <v>0.95000000000000029</v>
-      </c>
-      <c r="V1" s="10"/>
+      <c r="E1" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F1" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G1" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H1" s="9">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="I1" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="J1" s="9">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="K1" s="9">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L1" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>0.04</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>0.04</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>0.04</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>0.04</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>0.04</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>0.04</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>0.04</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>0.04</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>3.9E-2</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>3.9E-2</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="9">
         <v>3.9E-2</v>
       </c>
-      <c r="M2" s="10">
-        <v>3.9E-2</v>
-      </c>
-      <c r="N2" s="10">
-        <v>3.9E-2</v>
-      </c>
-      <c r="O2" s="10">
-        <v>3.9E-2</v>
-      </c>
-      <c r="P2" s="10">
-        <v>3.9E-2</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>3.9E-2</v>
-      </c>
-      <c r="R2" s="10">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="S2" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="U2" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="V2" s="10"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <f>B3+0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="D3" s="10">
-        <f>C3+0.05</f>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <f>B3+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="E3" s="10">
-        <f>D3+0.05</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="F3" s="10">
-        <f>E3+0.05</f>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:L3" si="1">C3+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="G3" s="10">
-        <f>F3+0.05</f>
-        <v>0.25</v>
-      </c>
-      <c r="H3" s="10">
-        <f>G3+0.05</f>
-        <v>0.3</v>
-      </c>
-      <c r="I3" s="10">
-        <f>H3+0.05</f>
-        <v>0.35</v>
-      </c>
-      <c r="J3" s="10">
-        <f>I3+0.05</f>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="K3" s="10">
-        <f>J3+0.05</f>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="L3" s="10">
-        <f>K3+0.05</f>
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="M3" s="10">
-        <f>L3+0.05</f>
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="N3" s="10">
-        <f>M3+0.05</f>
-        <v>0.6</v>
-      </c>
-      <c r="O3" s="10">
-        <f>N3+0.05</f>
-        <v>0.65</v>
-      </c>
-      <c r="P3" s="10">
-        <f>O3+0.05</f>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="Q3" s="10">
-        <f>P3+0.05</f>
-        <v>0.75000000000000011</v>
-      </c>
-      <c r="R3" s="10">
-        <f>Q3+0.05</f>
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="S3" s="10">
-        <f>R3+0.05</f>
-        <v>0.8500000000000002</v>
-      </c>
-      <c r="T3" s="10">
-        <f>S3+0.05</f>
-        <v>0.90000000000000024</v>
-      </c>
-      <c r="U3" s="10">
-        <f>T3+0.05</f>
-        <v>0.95000000000000029</v>
-      </c>
-      <c r="V3" s="10"/>
+      <c r="E3" s="9">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="9">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="K3" s="9">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L3" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11">
-        <f>B4+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="11">
-        <f>C4+0.5</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <f>D4+0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="11">
-        <f>E4+0.5</f>
-        <v>2</v>
-      </c>
-      <c r="G4" s="11">
-        <f>F4+0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="H4" s="11">
-        <f>G4+0.5</f>
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <f>H4+0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="J4" s="11">
-        <f>I4+0.5</f>
-        <v>4</v>
-      </c>
-      <c r="K4" s="11">
-        <f>J4+0.5</f>
-        <v>4.5</v>
-      </c>
-      <c r="L4" s="11">
-        <f>K4+0.5</f>
-        <v>5</v>
-      </c>
-      <c r="M4" s="11">
-        <f>L4+0.5</f>
-        <v>5.5</v>
-      </c>
-      <c r="N4" s="11">
-        <f>M4+0.5</f>
-        <v>6</v>
-      </c>
-      <c r="O4" s="11">
-        <f>N4+0.5</f>
-        <v>6.5</v>
-      </c>
-      <c r="P4" s="11">
-        <f>O4+0.5</f>
-        <v>7</v>
-      </c>
-      <c r="Q4" s="11">
-        <f>P4+0.5</f>
-        <v>7.5</v>
-      </c>
-      <c r="R4" s="11">
-        <f>Q4+0.5</f>
-        <v>8</v>
-      </c>
-      <c r="S4" s="11">
-        <f>R4+0.5</f>
-        <v>8.5</v>
-      </c>
-      <c r="T4" s="11">
-        <f>S4+0.5</f>
-        <v>9</v>
-      </c>
-      <c r="U4" s="11">
-        <f>T4+0.5</f>
-        <v>9.5</v>
-      </c>
-      <c r="V4" s="12"/>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.84889999999999999</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2.93</v>
+      </c>
+      <c r="H4" s="10">
+        <v>4.2910000000000004</v>
+      </c>
+      <c r="I4" s="10">
+        <v>5.0129999999999999</v>
+      </c>
+      <c r="J4" s="10">
+        <v>5.2350000000000003</v>
+      </c>
+      <c r="K4" s="10">
+        <v>5.3490000000000002</v>
+      </c>
+      <c r="L4" s="10">
+        <v>6.6369999999999996</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="11"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <f>Sheet2!B2</f>
         <v>0</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <f>Sheet2!B3</f>
         <v>1</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <f>Sheet2!B4</f>
         <v>2</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <f>Sheet2!B5</f>
         <v>3</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <f>Sheet2!B6</f>
         <v>4</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <f>Sheet2!B7</f>
         <v>5</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <f>Sheet2!B8</f>
         <v>6</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <f>Sheet2!B9</f>
         <v>7</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <f>Sheet2!B10</f>
         <v>8</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <f>Sheet2!B11</f>
         <v>9</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <f>Sheet2!B12</f>
         <v>10</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194C0B8A-F926-4B51-849C-7D12B01D7D24}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MATLAB/FullSystemData_TEST.xlsx
+++ b/MATLAB/FullSystemData_TEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\BEP\BEP\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9613920-2BF1-499F-9852-58E22FC9FC4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF5DFD6-9C0C-429F-AA13-57A83C7762E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
+    <workbookView xWindow="-23148" yWindow="6936" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>n</t>
   </si>
@@ -62,13 +62,25 @@
     <t>Lambda</t>
   </si>
   <si>
-    <t>r_solar_data</t>
+    <t>r_PS</t>
   </si>
   <si>
-    <t>I_SP_data</t>
+    <t>V_oc</t>
   </si>
   <si>
-    <t>r_PS</t>
+    <t>I_sc</t>
+  </si>
+  <si>
+    <t>V_mp</t>
+  </si>
+  <si>
+    <t>I_mp</t>
+  </si>
+  <si>
+    <t>R_mp</t>
+  </si>
+  <si>
+    <t>% Fan</t>
   </si>
 </sst>
 </file>
@@ -78,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +111,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,11 +135,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,6 +189,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A1BE27-50BC-469A-A422-B492F918308C}">
   <dimension ref="A1:CX27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -1586,7 +1622,7 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:AO4" si="3">D4-0.025</f>
+        <f t="shared" ref="E4:AG4" si="3">D4-0.025</f>
         <v>0.95</v>
       </c>
       <c r="F4" s="2">
@@ -1742,7 +1778,7 @@
         <v>0.24999999999999936</v>
       </c>
       <c r="AR4" s="2">
-        <f t="shared" ref="AQ4:CA4" si="5">AQ4+0.025</f>
+        <f t="shared" ref="AR4:BU4" si="5">AQ4+0.025</f>
         <v>0.27499999999999936</v>
       </c>
       <c r="AS4" s="2">
@@ -1967,7 +2003,7 @@
     <row r="5" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -2844,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F689F22-4493-472A-B47A-B05CC6B7B0FB}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2857,8 +2893,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>8</v>
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="9">
         <v>0</v>
@@ -2916,98 +2952,99 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="J2" s="9">
-        <v>3.9E-2</v>
-      </c>
-      <c r="K2" s="9">
-        <v>3.9E-2</v>
-      </c>
-      <c r="L2" s="9">
-        <v>3.9E-2</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.84889999999999999</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2.93</v>
+      </c>
+      <c r="H2" s="10">
+        <v>4.2910000000000004</v>
+      </c>
+      <c r="I2" s="10">
+        <v>5.0129999999999999</v>
+      </c>
+      <c r="J2" s="10">
+        <v>5.2350000000000003</v>
+      </c>
+      <c r="K2" s="10">
+        <v>5.3490000000000002</v>
+      </c>
+      <c r="L2" s="10">
+        <v>6.6369999999999996</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="11"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12">
+        <f>Sheet2!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <f>Sheet2!B3</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <f>Sheet2!B4</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="12">
+        <f>Sheet2!B5</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="12">
+        <f>Sheet2!B6</f>
         <v>4</v>
       </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <f>B3+0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="9">
-        <f t="shared" ref="D3:L3" si="1">C3+0.1</f>
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="9">
-        <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F3" s="9">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="G3" s="9">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="9">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="I3" s="9">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="J3" s="9">
-        <f t="shared" si="1"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="K3" s="9">
-        <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="L3" s="9">
-        <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
+      <c r="G3" s="12">
+        <f>Sheet2!B7</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="12">
+        <f>Sheet2!B8</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="12">
+        <f>Sheet2!B9</f>
+        <v>7</v>
+      </c>
+      <c r="J3" s="12">
+        <f>Sheet2!B10</f>
+        <v>8</v>
+      </c>
+      <c r="K3" s="12">
+        <f>Sheet2!B11</f>
+        <v>9</v>
+      </c>
+      <c r="L3" s="12">
+        <f>Sheet2!B12</f>
+        <v>10</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -3020,115 +3057,8 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.125</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.84889999999999999</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1.8109999999999999</v>
-      </c>
-      <c r="G4" s="10">
-        <v>2.93</v>
-      </c>
-      <c r="H4" s="10">
-        <v>4.2910000000000004</v>
-      </c>
-      <c r="I4" s="10">
-        <v>5.0129999999999999</v>
-      </c>
-      <c r="J4" s="10">
-        <v>5.2350000000000003</v>
-      </c>
-      <c r="K4" s="10">
-        <v>5.3490000000000002</v>
-      </c>
-      <c r="L4" s="10">
-        <v>6.6369999999999996</v>
-      </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="11"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="12">
-        <f>Sheet2!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="12">
-        <f>Sheet2!B3</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
-        <f>Sheet2!B4</f>
-        <v>2</v>
-      </c>
-      <c r="E5" s="12">
-        <f>Sheet2!B5</f>
-        <v>3</v>
-      </c>
-      <c r="F5" s="12">
-        <f>Sheet2!B6</f>
-        <v>4</v>
-      </c>
-      <c r="G5" s="12">
-        <f>Sheet2!B7</f>
-        <v>5</v>
-      </c>
-      <c r="H5" s="12">
-        <f>Sheet2!B8</f>
-        <v>6</v>
-      </c>
-      <c r="I5" s="12">
-        <f>Sheet2!B9</f>
-        <v>7</v>
-      </c>
-      <c r="J5" s="12">
-        <f>Sheet2!B10</f>
-        <v>8</v>
-      </c>
-      <c r="K5" s="12">
-        <f>Sheet2!B11</f>
-        <v>9</v>
-      </c>
-      <c r="L5" s="12">
-        <f>Sheet2!B12</f>
-        <v>10</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D12" s="9"/>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3137,14 +3067,118 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194C0B8A-F926-4B51-849C-7D12B01D7D24}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>11.76</v>
+      </c>
+      <c r="C2" s="14">
+        <v>2.07E-2</v>
+      </c>
+      <c r="D2" s="14">
+        <v>10.4</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="F2" s="14">
+        <v>538.8601036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="B3" s="14">
+        <v>11.08</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="D3" s="14">
+        <v>9.6</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F3" s="14">
+        <v>786.88524589999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="B4" s="15">
+        <v>9.9</v>
+      </c>
+      <c r="C4" s="14">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D4" s="14">
+        <v>8</v>
+      </c>
+      <c r="E4" s="14">
+        <v>5.1500000000000001E-3</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1553.398058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MATLAB/FullSystemData_TEST.xlsx
+++ b/MATLAB/FullSystemData_TEST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\BEP\BEP\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\Documents\TUD-3\BEP\Code\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF5DFD6-9C0C-429F-AA13-57A83C7762E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FA0980-2602-416C-9034-38D1128B24FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="6936" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,18 +188,18 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -511,99 +511,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A1BE27-50BC-469A-A422-B492F918308C}">
-  <dimension ref="A1:CX27"/>
+  <dimension ref="A1:NC27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="79" max="92" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="92" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="93" max="101" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="103" max="16384" width="9.140625" style="2"/>
+    <col min="102" max="102" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="103" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:367" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -989,40 +989,40 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:367" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E2" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H2" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I2" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J2" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K2" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L2" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M2" s="3">
         <v>0.9</v>
@@ -1034,582 +1034,2164 @@
         <v>0.9</v>
       </c>
       <c r="P2" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="CB2" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="CC2" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="CD2" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="CE2" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="CF2" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="CG2" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="CH2" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="CI2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="CJ2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="CK2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="CL2" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="CM2" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="CN2" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="CO2" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="CP2" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="CQ2" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="CR2" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="CS2" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="CT2" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="CU2" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="CV2" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="CW2" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="CX2" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="CY2" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="CZ2" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="DA2" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="DB2" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="DC2" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="DD2" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="DE2" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="DF2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="DG2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="DH2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="DI2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="DJ2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="DK2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="DL2" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="DM2" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="DN2" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="DO2" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="DP2" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="DQ2" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="DR2" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="DS2" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="DT2" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="DU2" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="DV2" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="DW2" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="DX2" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="DY2" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="DZ2" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="EA2" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="EB2" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="EC2" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="ED2" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="EE2" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="EF2" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="EG2" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="EH2" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="EI2" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="EJ2" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="EK2" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="EL2" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="EM2" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="EN2" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="EO2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="EP2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="EQ2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="ER2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="ES2" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="ET2" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="EU2" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="EV2" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="EW2" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="EX2" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="EY2" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="EZ2" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="FA2" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="FB2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="FC2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="FD2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="FE2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="FF2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="FG2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="FH2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="FI2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="FJ2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="FK2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="FL2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="FM2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="FN2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="FO2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="FP2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="FQ2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="FR2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="FS2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="FT2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="FU2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="FV2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="FW2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="FX2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="FY2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="FZ2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GA2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GB2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GC2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GD2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GE2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GF2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GG2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GH2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GI2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GJ2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GK2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GL2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GM2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GN2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GO2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="GP2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="GQ2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="GR2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="GS2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="GT2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="GU2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="GV2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="GW2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="GX2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="GY2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="GZ2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="HA2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="HB2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="HC2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="HD2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="HE2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="HF2" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="HG2" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="HH2" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="HI2" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="HJ2" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="HK2" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="HL2" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="HM2" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="HN2" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="HO2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="HP2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="HQ2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="HR2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="HS2" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="HT2" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="HU2" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="HV2" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="HW2" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="HX2" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="HY2" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="HZ2" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="IA2" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="IB2" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="IC2" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="ID2" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="IE2" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="IF2" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="IG2" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="IH2" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="II2" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="IJ2" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="IK2" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="IL2" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="IM2" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="IN2" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="IO2" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="IP2" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="IQ2" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="IR2" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="IS2" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="IT2" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="IU2" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="IV2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="IW2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="IX2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="IY2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="IZ2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="JA2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="JB2" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="JC2" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="JD2" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="JE2" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="JF2" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="JG2" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="JH2" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="JI2" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="JJ2" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="JK2" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="JL2" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="JM2" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="JN2" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="JO2" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="JP2" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="JQ2" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="JR2" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="JS2" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="JT2" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="JU2" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="JV2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="JW2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="JX2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="JY2" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="JZ2" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="KA2" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="KB2" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="KC2" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="KD2" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="KE2" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="KF2" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="KG2" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="KH2" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="KI2" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="KJ2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="KK2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="KL2" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="KM2" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="KN2" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="KO2" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="KP2" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="KQ2" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="KR2" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="KS2" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="KT2" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="KU2" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="KV2" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="KW2" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="KX2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="KY2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="KZ2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="LA2" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="LB2" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="LC2" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="LD2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="LE2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="LF2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="LG2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="LH2" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="LI2" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="LJ2" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="LK2" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="LL2" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="LM2" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="LN2" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="LO2" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="LP2" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="LQ2" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="LR2" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="LS2" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="LT2" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="LU2" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="LV2" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="LW2" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="LX2" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="LY2" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="LZ2" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="MA2" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="MB2" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="MC2" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="MD2" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="ME2" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="MF2" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="MG2" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="MH2" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="MI2" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="MJ2" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="MK2" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="ML2" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="MM2" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="MN2" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="MO2" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="MP2" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="MQ2" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="MR2" s="2">
         <v>0.9</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="MS2" s="2">
         <v>0.9</v>
       </c>
-      <c r="R2" s="3">
+      <c r="MT2" s="2">
         <v>0.9</v>
       </c>
-      <c r="S2" s="3">
+      <c r="MU2" s="2">
         <v>0.9</v>
       </c>
-      <c r="T2" s="3">
+      <c r="MV2" s="2">
         <v>0.9</v>
       </c>
-      <c r="U2" s="3">
+      <c r="MW2" s="2">
         <v>0.9</v>
       </c>
-      <c r="V2" s="3">
+      <c r="MX2" s="2">
         <v>0.9</v>
       </c>
-      <c r="W2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="X2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="AQ2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="AR2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="AS2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="AU2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="AW2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="AX2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="AY2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="AZ2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BA2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BB2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BC2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BD2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BE2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BF2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BG2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BH2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BI2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BJ2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BK2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BL2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BM2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BN2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BO2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BP2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BQ2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BR2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BS2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BT2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BU2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BV2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BW2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BX2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BY2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BZ2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CA2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CB2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CC2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CD2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CE2" s="2">
+      <c r="MY2" s="2">
         <v>0.9</v>
       </c>
-      <c r="CF2" s="2">
+      <c r="MZ2" s="2">
         <v>0.9</v>
       </c>
-      <c r="CG2" s="2">
+      <c r="NA2" s="2">
         <v>0.9</v>
       </c>
-      <c r="CH2" s="2">
+      <c r="NB2" s="2">
         <v>0.9</v>
       </c>
-      <c r="CI2" s="2">
+      <c r="NC2" s="2">
         <v>0.9</v>
       </c>
-      <c r="CJ2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CK2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CL2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CM2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CN2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CO2" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="CP2" s="2">
-        <f>CO2</f>
-        <v>0.95</v>
-      </c>
-      <c r="CQ2" s="2">
-        <f t="shared" ref="CQ2:CW2" si="2">CP2</f>
-        <v>0.95</v>
-      </c>
-      <c r="CR2" s="2">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="CS2" s="2">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="CT2" s="2">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="CU2" s="2">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="CV2" s="2">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="CW2" s="2">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="CX2" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:367" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="BR3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="BT3" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="BZ3" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="CA3" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="CB3" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="CC3" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="CD3" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="CE3" s="2">
         <v>0.5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="CF3" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="CG3" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="CH3" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="CI3" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="CJ3" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="CK3" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="CL3" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="CM3" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="CN3" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="CO3" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="CP3" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="CQ3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="CR3" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="CS3" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="CT3" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="CU3" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="CV3" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="CW3" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="CX3" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="CY3" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="CZ3" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="DA3" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="DB3" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="DC3" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="DD3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="DE3" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="DF3" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="DG3" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="DH3" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="DI3" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="DJ3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="DK3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="DL3" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="DM3" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="DN3" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="DO3" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="DP3" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="DQ3" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="DR3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="DS3" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="DT3" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="DU3" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="DV3" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="DW3" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="DX3" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="DY3" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="DZ3" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="EA3" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="EB3" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="EC3" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="ED3" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="EE3" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="EF3" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="EG3" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="EH3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="EI3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="EJ3" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="EK3" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="EL3" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="EM3" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="EN3" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="EO3" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="EP3" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="EQ3" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="ER3" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="ES3" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="ET3" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="EU3" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="EV3" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="EW3" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="EX3" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="EY3" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="EZ3" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="FA3" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="FB3" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="FC3" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="FD3" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="FE3" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="FF3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="FG3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="FH3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="FI3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="FJ3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="FK3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="FL3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="FM3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FN3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FO3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FP3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FQ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FR3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FS3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FT3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FU3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FV3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FX3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FY3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FZ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GC3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="GD3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="GE3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="GF3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="GG3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="GH3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="GI3" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="GJ3" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="GK3" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="GL3" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="GM3" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="GN3" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="GO3" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="GP3" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="GQ3" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="GR3" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="GS3" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="GT3" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="GU3" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="GV3" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="GW3" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="GX3" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="GY3" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="GZ3" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="HA3" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="HB3" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="HC3" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="HD3" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="HE3" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="HF3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="HG3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="HH3" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="HI3" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="HJ3" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="HK3" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="HL3" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="HM3" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="HN3" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="HO3" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="HP3" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="HQ3" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="HR3" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="HS3" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="HT3" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="HU3" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="HV3" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="HW3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="HX3" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="HY3" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="HZ3" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="IA3" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="IB3" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="IC3" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="ID3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="IE3" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="IF3" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="IG3" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="IH3" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="II3" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="IJ3" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="IK3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="IL3" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="IM3" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="IN3" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="IO3" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="IP3" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="IQ3" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="IR3" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="IS3" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="IT3" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="IU3" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="IV3" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="IW3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="IX3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="IY3" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="IZ3" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="JA3" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="JB3" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="JC3" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="JD3" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="JE3" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="JF3" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="JG3" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="JH3" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="JI3" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="JJ3" s="2">
         <v>0.5</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="V3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="W3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="X3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AP3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AQ3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="AR3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="AS3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="AT3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="AU3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="AV3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="AW3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="AX3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="AY3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="AZ3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BA3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BB3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BC3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BD3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BE3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BF3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BG3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BH3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BI3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BJ3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="BK3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BL3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BM3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BN3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BO3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BP3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BQ3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BR3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BS3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BT3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BU3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BV3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BW3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BX3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BY3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BZ3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CA3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CB3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CC3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CD3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CE3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CF3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CG3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CH3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CI3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CJ3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CK3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CL3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CM3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CN3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CO3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CP3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CQ3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CR3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CS3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CT3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CU3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CV3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CW3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CX3" s="2">
-        <v>0.9</v>
+      <c r="JK3" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="JL3" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="JM3" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="JN3" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="JO3" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="JP3" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="JQ3" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="JR3" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="JS3" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="JT3" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="JU3" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="JV3" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="JW3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="JX3" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="JY3" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="JZ3" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="KA3" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="KB3" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="KC3" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="KD3" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="KE3" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="KF3" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="KG3" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="KH3" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="KI3" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="KJ3" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="KK3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="KL3" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="KM3" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="KN3" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="KO3" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="KP3" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="KQ3" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="KR3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="KS3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="KT3" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="KU3" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="KV3" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="KW3" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="KX3" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="KY3" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="KZ3" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="LA3" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="LB3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="LC3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="LD3" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="LE3" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="LF3" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="LG3" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="LH3" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="LI3" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="LJ3" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="LK3" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="LL3" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="LM3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="LN3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="LO3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="LP3" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="LQ3" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="LR3" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="LS3" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="LT3" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="LU3" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="LV3" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="LW3" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="LX3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="LY3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="LZ3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="MA3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="MB3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="MC3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="MD3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="ME3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="MF3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="MG3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="MH3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="MI3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="MJ3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="MK3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="ML3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="MM3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="MN3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="MO3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="MP3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="MQ3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="MR3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="MS3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="MT3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="MU3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="MV3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="MW3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="MX3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="MY3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="MZ3" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="NA3" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="NB3" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="NC3" s="2">
+        <v>0.13</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:367" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1618,389 +3200,1099 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <f>C4-0.025</f>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:AG4" si="3">D4-0.025</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="AB4" s="2">
         <v>0.95</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.92499999999999993</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.87499999999999989</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.84999999999999987</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.82499999999999984</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.7749999999999998</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.74999999999999978</v>
-      </c>
-      <c r="N4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.72499999999999976</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.69999999999999973</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.67499999999999971</v>
-      </c>
-      <c r="Q4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.64999999999999969</v>
-      </c>
-      <c r="R4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.62499999999999967</v>
-      </c>
-      <c r="S4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="T4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.57499999999999962</v>
-      </c>
-      <c r="U4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.5499999999999996</v>
-      </c>
-      <c r="V4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.52499999999999958</v>
-      </c>
-      <c r="W4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999999999999956</v>
-      </c>
-      <c r="X4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.47499999999999953</v>
-      </c>
-      <c r="Y4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.44999999999999951</v>
-      </c>
-      <c r="Z4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.42499999999999949</v>
-      </c>
-      <c r="AA4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.39999999999999947</v>
-      </c>
-      <c r="AB4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.37499999999999944</v>
-      </c>
       <c r="AC4" s="2">
-        <f>AB4-0.025</f>
-        <v>0.34999999999999942</v>
+        <v>0.95</v>
       </c>
       <c r="AD4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.3249999999999994</v>
+        <v>0.95</v>
       </c>
       <c r="AE4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.29999999999999938</v>
+        <v>0.94</v>
       </c>
       <c r="AF4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.27499999999999936</v>
+        <v>0.94</v>
       </c>
       <c r="AG4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.24999999999999936</v>
+        <v>0.94</v>
       </c>
       <c r="AH4" s="2">
-        <f>AG4</f>
-        <v>0.24999999999999936</v>
+        <v>0.93</v>
       </c>
       <c r="AI4" s="2">
-        <f t="shared" ref="AI4:AQ4" si="4">AH4</f>
-        <v>0.24999999999999936</v>
+        <v>0.93</v>
       </c>
       <c r="AJ4" s="2">
-        <f t="shared" si="4"/>
-        <v>0.24999999999999936</v>
+        <v>0.92</v>
       </c>
       <c r="AK4" s="2">
-        <f t="shared" si="4"/>
-        <v>0.24999999999999936</v>
+        <v>0.92</v>
       </c>
       <c r="AL4" s="2">
-        <f t="shared" si="4"/>
-        <v>0.24999999999999936</v>
+        <v>0.91</v>
       </c>
       <c r="AM4" s="2">
-        <f t="shared" si="4"/>
-        <v>0.24999999999999936</v>
+        <v>0.91</v>
       </c>
       <c r="AN4" s="2">
-        <f>AM4</f>
-        <v>0.24999999999999936</v>
+        <v>0.9</v>
       </c>
       <c r="AO4" s="2">
-        <f t="shared" si="4"/>
-        <v>0.24999999999999936</v>
+        <v>0.9</v>
       </c>
       <c r="AP4" s="2">
-        <f t="shared" si="4"/>
-        <v>0.24999999999999936</v>
+        <v>0.89</v>
       </c>
       <c r="AQ4" s="2">
-        <f t="shared" si="4"/>
-        <v>0.24999999999999936</v>
+        <v>0.89</v>
       </c>
       <c r="AR4" s="2">
-        <f t="shared" ref="AR4:BU4" si="5">AQ4+0.025</f>
-        <v>0.27499999999999936</v>
+        <v>0.88</v>
       </c>
       <c r="AS4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.29999999999999938</v>
+        <v>0.88</v>
       </c>
       <c r="AT4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.3249999999999994</v>
+        <v>0.87</v>
       </c>
       <c r="AU4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.34999999999999942</v>
+        <v>0.86</v>
       </c>
       <c r="AV4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.37499999999999944</v>
+        <v>0.86</v>
       </c>
       <c r="AW4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.39999999999999947</v>
+        <v>0.85</v>
       </c>
       <c r="AX4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.42499999999999949</v>
+        <v>0.85</v>
       </c>
       <c r="AY4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.44999999999999951</v>
+        <v>0.84</v>
       </c>
       <c r="AZ4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.47499999999999953</v>
+        <v>0.83</v>
       </c>
       <c r="BA4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.49999999999999956</v>
+        <v>0.83</v>
       </c>
       <c r="BB4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.52499999999999958</v>
+        <v>0.82</v>
       </c>
       <c r="BC4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.5499999999999996</v>
+        <v>0.81</v>
       </c>
       <c r="BD4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.57499999999999962</v>
+        <v>0.81</v>
       </c>
       <c r="BE4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.59999999999999964</v>
+        <v>0.8</v>
       </c>
       <c r="BF4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.62499999999999967</v>
+        <v>0.79</v>
       </c>
       <c r="BG4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.64999999999999969</v>
+        <v>0.79</v>
       </c>
       <c r="BH4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.67499999999999971</v>
+        <v>0.78</v>
       </c>
       <c r="BI4" s="2">
-        <f>BH4+0.025</f>
-        <v>0.69999999999999973</v>
+        <v>0.77</v>
       </c>
       <c r="BJ4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.72499999999999976</v>
+        <v>0.76</v>
       </c>
       <c r="BK4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.74999999999999978</v>
+        <v>0.76</v>
       </c>
       <c r="BL4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.7749999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="BM4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.79999999999999982</v>
+        <v>0.74</v>
       </c>
       <c r="BN4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.82499999999999984</v>
+        <v>0.74</v>
       </c>
       <c r="BO4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.84999999999999987</v>
+        <v>0.73</v>
       </c>
       <c r="BP4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.87499999999999989</v>
+        <v>0.72</v>
       </c>
       <c r="BQ4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.89999999999999991</v>
+        <v>0.71</v>
       </c>
       <c r="BR4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.92499999999999993</v>
+        <v>0.7</v>
       </c>
       <c r="BS4" s="2">
-        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="BT4" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="BU4" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="BV4" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="BW4" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="BX4" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="BY4" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="BZ4" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="CA4" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="CB4" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="CC4" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="CD4" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="CE4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="CF4" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="CG4" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="CH4" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="CI4" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="CJ4" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="CK4" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="CL4" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="CM4" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="CN4" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="CO4" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="CP4" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="CQ4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="CR4" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="CS4" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="CT4" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="CU4" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="CV4" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="CW4" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="CX4" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="CY4" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="CZ4" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="DA4" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="DB4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="DC4" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="DD4" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="DE4" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="DF4" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="DG4" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="DH4" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="DI4" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="DJ4" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="DK4" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="DL4" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="DM4" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="DN4" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="DO4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="DP4" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="DQ4" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="DR4" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="DS4" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="DT4" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="DU4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="DV4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="DW4" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="DX4" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="DY4" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="DZ4" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="EA4" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="EB4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="EC4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="ED4" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="EE4" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="EF4" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="EG4" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="EH4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="EI4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="EJ4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="EK4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="EL4" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="EM4" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="EN4" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="EO4" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="EP4" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="EQ4" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="ER4" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="ES4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="ET4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="EU4" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="EV4" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="EW4" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="EX4" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="EY4" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="EZ4" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="FA4" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="FB4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="FC4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="FD4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="FE4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="FF4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="FG4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="FH4" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="FI4" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="FJ4" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="FK4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="FL4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="FM4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="FN4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="FO4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="FP4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="FQ4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="FR4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="FS4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="FT4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="FU4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="FV4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="FW4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="FX4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="FY4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="FZ4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="GA4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="GB4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="GC4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="GD4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="GE4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="GF4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="GG4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="GH4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="GI4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="GJ4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="GK4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="GL4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="GM4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="GN4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="GO4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="GP4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="GQ4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="GR4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="GS4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="GT4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="GU4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="GV4" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="GW4" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="GX4" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="GY4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="GZ4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="HA4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="HB4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="HC4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="HD4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="HE4" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="HF4" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="HG4" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="HH4" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="HI4" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="HJ4" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="HK4" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="HL4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="HM4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="HN4" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="HO4" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="HP4" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="HQ4" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="HR4" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="HS4" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="HT4" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="HU4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="HV4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="HW4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="HX4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="HY4" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="HZ4" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="IA4" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="IB4" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="IC4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="ID4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="IE4" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="IF4" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="IG4" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="IH4" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="II4" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="IJ4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="IK4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="IL4" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="IM4" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="IN4" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="IO4" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="IP4" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="IQ4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="IR4" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="IS4" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="IT4" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="IU4" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="IV4" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="IW4" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="IX4" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="IY4" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="IZ4" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="JA4" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="JB4" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="JC4" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="JD4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="JE4" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="JF4" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="JG4" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="JH4" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="JI4" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="JJ4" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="JK4" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="JL4" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="JM4" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="JN4" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="JO4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="JP4" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="JQ4" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="JR4" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="JS4" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="JT4" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="JU4" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="JV4" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="JW4" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="JX4" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="JY4" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="JZ4" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="KA4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="KB4" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="KC4" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="KD4" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="KE4" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="KF4" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="KG4" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="KH4" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="KI4" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="KJ4" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="KK4" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="KL4" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="KM4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="KN4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="KO4" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="KP4" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="KQ4" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="KR4" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="KS4" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="KT4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="KU4" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="KV4" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="KW4" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="KX4" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="KY4" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="KZ4" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="LA4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="LB4" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="LC4" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="LD4" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="LE4" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="LF4" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="LG4" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="LH4" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="LI4" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="LJ4" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="LK4" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="LL4" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="LM4" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="LN4" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="LO4" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="LP4" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="LQ4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="LR4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="LS4" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="LT4" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="LU4" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="LV4" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="LW4" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="LX4" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="LY4" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="LZ4" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="MA4" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="MB4" s="2">
         <v>0.95</v>
       </c>
-      <c r="BT4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="BU4" s="2">
-        <f t="shared" si="5"/>
+      <c r="MC4" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="MD4" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="ME4" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="MF4" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="MG4" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="MH4" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="MI4" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="MJ4" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="MK4" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="ML4" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="MM4" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="MN4" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="MO4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="MP4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="MQ4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="MR4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="MS4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="MT4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="MU4" s="2">
         <v>1</v>
       </c>
-      <c r="BV4" s="2">
-        <f>BU4</f>
+      <c r="MV4" s="2">
         <v>1</v>
       </c>
-      <c r="BW4" s="2">
-        <f t="shared" ref="BW4:CJ4" si="6">BV4</f>
+      <c r="MW4" s="2">
         <v>1</v>
       </c>
-      <c r="BX4" s="2">
-        <f t="shared" si="6"/>
+      <c r="MX4" s="2">
         <v>1</v>
       </c>
-      <c r="BY4" s="2">
-        <f t="shared" si="6"/>
+      <c r="MY4" s="2">
         <v>1</v>
       </c>
-      <c r="BZ4" s="2">
-        <f t="shared" si="6"/>
+      <c r="MZ4" s="2">
         <v>1</v>
       </c>
-      <c r="CA4" s="2">
-        <f t="shared" si="6"/>
+      <c r="NA4" s="2">
         <v>1</v>
       </c>
-      <c r="CB4" s="2">
-        <f t="shared" si="6"/>
+      <c r="NB4" s="2">
         <v>1</v>
       </c>
-      <c r="CC4" s="2">
-        <f t="shared" si="6"/>
+      <c r="NC4" s="2">
         <v>1</v>
       </c>
-      <c r="CD4" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CE4" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CF4" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CG4" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CH4" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CI4" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CK4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CL4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="CM4" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="CN4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CO4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CP4" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="CQ4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="CR4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="CS4" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CT4" s="2">
-        <v>0</v>
-      </c>
-      <c r="CU4" s="2">
-        <v>0</v>
-      </c>
-      <c r="CV4" s="2">
-        <v>0</v>
-      </c>
-      <c r="CW4" s="2">
-        <v>0</v>
-      </c>
-      <c r="CX4" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:367" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
@@ -2305,42 +4597,1947 @@
       <c r="CX5" s="4">
         <v>0</v>
       </c>
+      <c r="CY5" s="4">
+        <v>0</v>
+      </c>
+      <c r="CZ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DL5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DO5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DQ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DR5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DS5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DT5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DU5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DV5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DW5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DX5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DY5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DZ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="ED5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EL5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EO5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EQ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="ER5" s="4">
+        <v>0</v>
+      </c>
+      <c r="ES5" s="4">
+        <v>0</v>
+      </c>
+      <c r="ET5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EU5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EV5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EW5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EX5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EY5" s="4">
+        <v>0</v>
+      </c>
+      <c r="EZ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FL5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FO5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FQ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FR5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FS5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FT5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FU5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FV5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FW5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FX5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FY5" s="4">
+        <v>0</v>
+      </c>
+      <c r="FZ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GL5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GO5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GQ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GR5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GS5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GT5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GU5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GV5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GW5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GX5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GY5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GZ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HL5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HO5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HQ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HR5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HS5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HT5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HU5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HV5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HW5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HX5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HY5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HZ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="ID5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="II5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IL5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IO5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IQ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IR5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IS5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IT5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IU5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IV5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IW5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IX5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IY5" s="4">
+        <v>0</v>
+      </c>
+      <c r="IZ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JL5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JO5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JQ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JR5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JS5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JT5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JU5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JV5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JW5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JX5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JY5" s="4">
+        <v>0</v>
+      </c>
+      <c r="JZ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KL5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KO5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KQ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KR5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KS5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KT5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KU5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KV5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KW5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KX5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KY5" s="4">
+        <v>0</v>
+      </c>
+      <c r="KZ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LL5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LO5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LQ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LR5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LS5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LT5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LU5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LV5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LW5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LX5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LY5" s="4">
+        <v>0</v>
+      </c>
+      <c r="LZ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="ME5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="ML5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MO5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MQ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MR5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MS5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MT5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MU5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MV5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MW5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MX5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MY5" s="4">
+        <v>0</v>
+      </c>
+      <c r="MZ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="NA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="NB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="NC5" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:102" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:102" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:102" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:102" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:102" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:102" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:102" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:102" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:102" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:102" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:367" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
+      <c r="BL8" s="2"/>
+      <c r="BM8" s="2"/>
+      <c r="BN8" s="2"/>
+      <c r="BO8" s="2"/>
+      <c r="BP8" s="2"/>
+      <c r="BQ8" s="2"/>
+      <c r="BR8" s="2"/>
+      <c r="BS8" s="2"/>
+      <c r="BT8" s="2"/>
+      <c r="BU8" s="2"/>
+      <c r="BV8" s="2"/>
+      <c r="BW8" s="2"/>
+      <c r="BX8" s="2"/>
+      <c r="BY8" s="2"/>
+      <c r="BZ8" s="2"/>
+      <c r="CA8" s="2"/>
+      <c r="CB8" s="2"/>
+      <c r="CC8" s="2"/>
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="2"/>
+      <c r="CF8" s="2"/>
+      <c r="CG8" s="2"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8" s="2"/>
+      <c r="CJ8" s="2"/>
+      <c r="CK8" s="2"/>
+      <c r="CL8" s="2"/>
+      <c r="CM8" s="2"/>
+      <c r="CN8" s="2"/>
+      <c r="CO8" s="2"/>
+      <c r="CP8" s="2"/>
+      <c r="CQ8" s="2"/>
+      <c r="CR8" s="2"/>
+      <c r="CS8" s="2"/>
+      <c r="CT8" s="2"/>
+      <c r="CU8" s="2"/>
+      <c r="CV8" s="2"/>
+      <c r="CW8" s="2"/>
+      <c r="CX8" s="2"/>
+      <c r="CY8" s="2"/>
+      <c r="CZ8" s="2"/>
+      <c r="DA8" s="2"/>
+      <c r="DB8" s="2"/>
+      <c r="DC8" s="2"/>
+      <c r="DD8" s="2"/>
+      <c r="DE8" s="2"/>
+      <c r="DF8" s="2"/>
+      <c r="DG8" s="2"/>
+      <c r="DH8" s="2"/>
+      <c r="DI8" s="2"/>
+      <c r="DJ8" s="2"/>
+      <c r="DK8" s="2"/>
+      <c r="DL8" s="2"/>
+      <c r="DM8" s="2"/>
+      <c r="DN8" s="2"/>
+      <c r="DO8" s="2"/>
+      <c r="DP8" s="2"/>
+      <c r="DQ8" s="2"/>
+      <c r="DR8" s="2"/>
+      <c r="DS8" s="2"/>
+      <c r="DT8" s="2"/>
+      <c r="DU8" s="2"/>
+      <c r="DV8" s="2"/>
+      <c r="DW8" s="2"/>
+      <c r="DX8" s="2"/>
+      <c r="DY8" s="2"/>
+      <c r="DZ8" s="2"/>
+      <c r="EA8" s="2"/>
+      <c r="EB8" s="2"/>
+      <c r="EC8" s="2"/>
+      <c r="ED8" s="2"/>
+      <c r="EE8" s="2"/>
+      <c r="EF8" s="2"/>
+      <c r="EG8" s="2"/>
+      <c r="EH8" s="2"/>
+      <c r="EI8" s="2"/>
+      <c r="EJ8" s="2"/>
+      <c r="EK8" s="2"/>
+      <c r="EL8" s="2"/>
+      <c r="EM8" s="2"/>
+      <c r="EN8" s="2"/>
+      <c r="EO8" s="2"/>
+      <c r="EP8" s="2"/>
+      <c r="EQ8" s="2"/>
+      <c r="ER8" s="2"/>
+      <c r="ES8" s="2"/>
+      <c r="ET8" s="2"/>
+      <c r="EU8" s="2"/>
+      <c r="EV8" s="2"/>
+      <c r="EW8" s="2"/>
+      <c r="EX8" s="2"/>
+      <c r="EY8" s="2"/>
+      <c r="EZ8" s="2"/>
+      <c r="FA8" s="2"/>
+      <c r="FB8" s="2"/>
+      <c r="FC8" s="2"/>
+      <c r="FD8" s="2"/>
+      <c r="FE8" s="2"/>
+      <c r="FF8" s="2"/>
+      <c r="FG8" s="2"/>
+      <c r="FH8" s="2"/>
+      <c r="FI8" s="2"/>
+      <c r="FJ8" s="2"/>
+      <c r="FK8" s="2"/>
+      <c r="FL8" s="2"/>
+      <c r="FM8" s="2"/>
+      <c r="FN8" s="2"/>
+      <c r="FO8" s="2"/>
+      <c r="FP8" s="2"/>
+      <c r="FQ8" s="2"/>
+      <c r="FR8" s="2"/>
+      <c r="FS8" s="2"/>
+      <c r="FT8" s="2"/>
+      <c r="FU8" s="2"/>
+      <c r="FV8" s="2"/>
+      <c r="FW8" s="2"/>
+      <c r="FX8" s="2"/>
+      <c r="FY8" s="2"/>
+      <c r="FZ8" s="2"/>
+      <c r="GA8" s="2"/>
+      <c r="GB8" s="2"/>
+      <c r="GC8" s="2"/>
+      <c r="GD8" s="2"/>
+      <c r="GE8" s="2"/>
+      <c r="GF8" s="2"/>
+      <c r="GG8" s="2"/>
+      <c r="GH8" s="2"/>
+      <c r="GI8" s="2"/>
+      <c r="GJ8" s="2"/>
+      <c r="GK8" s="2"/>
+      <c r="GL8" s="2"/>
+      <c r="GM8" s="2"/>
+      <c r="GN8" s="2"/>
+      <c r="GO8" s="2"/>
+      <c r="GP8" s="2"/>
+      <c r="GQ8" s="2"/>
+      <c r="GR8" s="2"/>
+      <c r="GS8" s="2"/>
+      <c r="GT8" s="2"/>
+      <c r="GU8" s="2"/>
+      <c r="GV8" s="2"/>
+      <c r="GW8" s="2"/>
+      <c r="GX8" s="2"/>
+      <c r="GY8" s="2"/>
+      <c r="GZ8" s="2"/>
+      <c r="HA8" s="2"/>
+      <c r="HB8" s="2"/>
+      <c r="HC8" s="2"/>
+      <c r="HD8" s="2"/>
+      <c r="HE8" s="2"/>
+      <c r="HF8" s="2"/>
+      <c r="HG8" s="2"/>
+      <c r="HH8" s="2"/>
+      <c r="HI8" s="2"/>
+      <c r="HJ8" s="2"/>
+      <c r="HK8" s="2"/>
+      <c r="HL8" s="2"/>
+      <c r="HM8" s="2"/>
+      <c r="HN8" s="2"/>
+      <c r="HO8" s="2"/>
+      <c r="HP8" s="2"/>
+      <c r="HQ8" s="2"/>
+      <c r="HR8" s="2"/>
+      <c r="HS8" s="2"/>
+      <c r="HT8" s="2"/>
+      <c r="HU8" s="2"/>
+      <c r="HV8" s="2"/>
+      <c r="HW8" s="2"/>
+      <c r="HX8" s="2"/>
+      <c r="HY8" s="2"/>
+      <c r="HZ8" s="2"/>
+      <c r="IA8" s="2"/>
+      <c r="IB8" s="2"/>
+      <c r="IC8" s="2"/>
+      <c r="ID8" s="2"/>
+      <c r="IE8" s="2"/>
+      <c r="IF8" s="2"/>
+      <c r="IG8" s="2"/>
+      <c r="IH8" s="2"/>
+      <c r="II8" s="2"/>
+      <c r="IJ8" s="2"/>
+      <c r="IK8" s="2"/>
+      <c r="IL8" s="2"/>
+      <c r="IM8" s="2"/>
+      <c r="IN8" s="2"/>
+      <c r="IO8" s="2"/>
+      <c r="IP8" s="2"/>
+      <c r="IQ8" s="2"/>
+      <c r="IR8" s="2"/>
+      <c r="IS8" s="2"/>
+      <c r="IT8" s="2"/>
+      <c r="IU8" s="2"/>
+      <c r="IV8" s="2"/>
+      <c r="IW8" s="2"/>
+      <c r="IX8" s="2"/>
+      <c r="IY8" s="2"/>
+      <c r="IZ8" s="2"/>
+      <c r="JA8" s="2"/>
+      <c r="JB8" s="2"/>
+      <c r="JC8" s="2"/>
+      <c r="JD8" s="2"/>
+      <c r="JE8" s="2"/>
+      <c r="JF8" s="2"/>
+      <c r="JG8" s="2"/>
+      <c r="JH8" s="2"/>
+      <c r="JI8" s="2"/>
+      <c r="JJ8" s="2"/>
+      <c r="JK8" s="2"/>
+      <c r="JL8" s="2"/>
+      <c r="JM8" s="2"/>
+      <c r="JN8" s="2"/>
+      <c r="JO8" s="2"/>
+      <c r="JP8" s="2"/>
+      <c r="JQ8" s="2"/>
+      <c r="JR8" s="2"/>
+      <c r="JS8" s="2"/>
+      <c r="JT8" s="2"/>
+      <c r="JU8" s="2"/>
+      <c r="JV8" s="2"/>
+      <c r="JW8" s="2"/>
+      <c r="JX8" s="2"/>
+      <c r="JY8" s="2"/>
+      <c r="JZ8" s="2"/>
+      <c r="KA8" s="2"/>
+      <c r="KB8" s="2"/>
+      <c r="KC8" s="2"/>
+      <c r="KD8" s="2"/>
+      <c r="KE8" s="2"/>
+      <c r="KF8" s="2"/>
+      <c r="KG8" s="2"/>
+      <c r="KH8" s="2"/>
+      <c r="KI8" s="2"/>
+      <c r="KJ8" s="2"/>
+      <c r="KK8" s="2"/>
+      <c r="KL8" s="2"/>
+      <c r="KM8" s="2"/>
+      <c r="KN8" s="2"/>
+      <c r="KO8" s="2"/>
+      <c r="KP8" s="2"/>
+      <c r="KQ8" s="2"/>
+      <c r="KR8" s="2"/>
+      <c r="KS8" s="2"/>
+      <c r="KT8" s="2"/>
+      <c r="KU8" s="2"/>
+      <c r="KV8" s="2"/>
+      <c r="KW8" s="2"/>
+      <c r="KX8" s="2"/>
+      <c r="KY8" s="2"/>
+      <c r="KZ8" s="2"/>
+      <c r="LA8" s="2"/>
+      <c r="LB8" s="2"/>
+      <c r="LC8" s="2"/>
+      <c r="LD8" s="2"/>
+      <c r="LE8" s="2"/>
+      <c r="LF8" s="2"/>
+      <c r="LG8" s="2"/>
+      <c r="LH8" s="2"/>
+      <c r="LI8" s="2"/>
+      <c r="LJ8" s="2"/>
+      <c r="LK8" s="2"/>
+      <c r="LL8" s="2"/>
+      <c r="LM8" s="2"/>
+      <c r="LN8" s="2"/>
+      <c r="LO8" s="2"/>
+      <c r="LP8" s="2"/>
+      <c r="LQ8" s="2"/>
+      <c r="LR8" s="2"/>
+      <c r="LS8" s="2"/>
+      <c r="LT8" s="2"/>
+      <c r="LU8" s="2"/>
+      <c r="LV8" s="2"/>
+      <c r="LW8" s="2"/>
+      <c r="LX8" s="2"/>
+      <c r="LY8" s="2"/>
+      <c r="LZ8" s="2"/>
+      <c r="MA8" s="2"/>
+      <c r="MB8" s="2"/>
+      <c r="MC8" s="2"/>
+      <c r="MD8" s="2"/>
+      <c r="ME8" s="2"/>
+      <c r="MF8" s="2"/>
+      <c r="MG8" s="2"/>
+      <c r="MH8" s="2"/>
+      <c r="MI8" s="2"/>
+      <c r="MJ8" s="2"/>
+      <c r="MK8" s="2"/>
+      <c r="ML8" s="2"/>
+      <c r="MM8" s="2"/>
+      <c r="MN8" s="2"/>
+      <c r="MO8" s="2"/>
+      <c r="MP8" s="2"/>
+      <c r="MQ8" s="2"/>
+      <c r="MR8" s="2"/>
+      <c r="MS8" s="2"/>
+      <c r="MT8" s="2"/>
+      <c r="MU8" s="2"/>
+      <c r="MV8" s="2"/>
+      <c r="MW8" s="2"/>
+      <c r="MX8" s="2"/>
+      <c r="MY8" s="2"/>
+      <c r="MZ8" s="2"/>
+      <c r="NA8" s="2"/>
+      <c r="NB8" s="2"/>
+      <c r="NC8" s="2"/>
+    </row>
+    <row r="9" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="2"/>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="2"/>
+      <c r="BU9" s="2"/>
+      <c r="BV9" s="2"/>
+      <c r="BW9" s="2"/>
+      <c r="BX9" s="2"/>
+      <c r="BY9" s="2"/>
+      <c r="BZ9" s="2"/>
+      <c r="CA9" s="2"/>
+      <c r="CB9" s="2"/>
+      <c r="CC9" s="2"/>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="2"/>
+      <c r="CF9" s="2"/>
+      <c r="CG9" s="2"/>
+      <c r="CH9" s="2"/>
+      <c r="CI9" s="2"/>
+      <c r="CJ9" s="2"/>
+      <c r="CK9" s="2"/>
+      <c r="CL9" s="2"/>
+      <c r="CM9" s="2"/>
+      <c r="CN9" s="2"/>
+      <c r="CO9" s="2"/>
+      <c r="CP9" s="2"/>
+      <c r="CQ9" s="2"/>
+      <c r="CR9" s="2"/>
+      <c r="CS9" s="2"/>
+      <c r="CT9" s="2"/>
+      <c r="CU9" s="2"/>
+      <c r="CV9" s="2"/>
+      <c r="CW9" s="2"/>
+      <c r="CX9" s="2"/>
+      <c r="CY9" s="2"/>
+      <c r="CZ9" s="2"/>
+      <c r="DA9" s="2"/>
+      <c r="DB9" s="2"/>
+      <c r="DC9" s="2"/>
+      <c r="DD9" s="2"/>
+      <c r="DE9" s="2"/>
+      <c r="DF9" s="2"/>
+      <c r="DG9" s="2"/>
+      <c r="DH9" s="2"/>
+      <c r="DI9" s="2"/>
+      <c r="DJ9" s="2"/>
+      <c r="DK9" s="2"/>
+      <c r="DL9" s="2"/>
+      <c r="DM9" s="2"/>
+      <c r="DN9" s="2"/>
+      <c r="DO9" s="2"/>
+      <c r="DP9" s="2"/>
+      <c r="DQ9" s="2"/>
+      <c r="DR9" s="2"/>
+      <c r="DS9" s="2"/>
+      <c r="DT9" s="2"/>
+      <c r="DU9" s="2"/>
+      <c r="DV9" s="2"/>
+      <c r="DW9" s="2"/>
+      <c r="DX9" s="2"/>
+      <c r="DY9" s="2"/>
+      <c r="DZ9" s="2"/>
+      <c r="EA9" s="2"/>
+      <c r="EB9" s="2"/>
+      <c r="EC9" s="2"/>
+      <c r="ED9" s="2"/>
+      <c r="EE9" s="2"/>
+      <c r="EF9" s="2"/>
+      <c r="EG9" s="2"/>
+      <c r="EH9" s="2"/>
+      <c r="EI9" s="2"/>
+      <c r="EJ9" s="2"/>
+      <c r="EK9" s="2"/>
+      <c r="EL9" s="2"/>
+      <c r="EM9" s="2"/>
+      <c r="EN9" s="2"/>
+      <c r="EO9" s="2"/>
+      <c r="EP9" s="2"/>
+      <c r="EQ9" s="2"/>
+      <c r="ER9" s="2"/>
+      <c r="ES9" s="2"/>
+      <c r="ET9" s="2"/>
+      <c r="EU9" s="2"/>
+      <c r="EV9" s="2"/>
+      <c r="EW9" s="2"/>
+      <c r="EX9" s="2"/>
+      <c r="EY9" s="2"/>
+      <c r="EZ9" s="2"/>
+      <c r="FA9" s="2"/>
+      <c r="FB9" s="2"/>
+      <c r="FC9" s="2"/>
+      <c r="FD9" s="2"/>
+      <c r="FE9" s="2"/>
+      <c r="FF9" s="2"/>
+      <c r="FG9" s="2"/>
+      <c r="FH9" s="2"/>
+      <c r="FI9" s="2"/>
+      <c r="FJ9" s="2"/>
+      <c r="FK9" s="2"/>
+      <c r="FL9" s="2"/>
+      <c r="FM9" s="2"/>
+      <c r="FN9" s="2"/>
+      <c r="FO9" s="2"/>
+      <c r="FP9" s="2"/>
+      <c r="FQ9" s="2"/>
+      <c r="FR9" s="2"/>
+      <c r="FS9" s="2"/>
+      <c r="FT9" s="2"/>
+      <c r="FU9" s="2"/>
+      <c r="FV9" s="2"/>
+      <c r="FW9" s="2"/>
+      <c r="FX9" s="2"/>
+      <c r="FY9" s="2"/>
+      <c r="FZ9" s="2"/>
+      <c r="GA9" s="2"/>
+      <c r="GB9" s="2"/>
+      <c r="GC9" s="2"/>
+      <c r="GD9" s="2"/>
+      <c r="GE9" s="2"/>
+      <c r="GF9" s="2"/>
+      <c r="GG9" s="2"/>
+      <c r="GH9" s="2"/>
+      <c r="GI9" s="2"/>
+      <c r="GJ9" s="2"/>
+      <c r="GK9" s="2"/>
+      <c r="GL9" s="2"/>
+      <c r="GM9" s="2"/>
+      <c r="GN9" s="2"/>
+      <c r="GO9" s="2"/>
+      <c r="GP9" s="2"/>
+      <c r="GQ9" s="2"/>
+      <c r="GR9" s="2"/>
+      <c r="GS9" s="2"/>
+      <c r="GT9" s="2"/>
+      <c r="GU9" s="2"/>
+      <c r="GV9" s="2"/>
+      <c r="GW9" s="2"/>
+      <c r="GX9" s="2"/>
+      <c r="GY9" s="2"/>
+      <c r="GZ9" s="2"/>
+      <c r="HA9" s="2"/>
+      <c r="HB9" s="2"/>
+      <c r="HC9" s="2"/>
+      <c r="HD9" s="2"/>
+      <c r="HE9" s="2"/>
+      <c r="HF9" s="2"/>
+      <c r="HG9" s="2"/>
+      <c r="HH9" s="2"/>
+      <c r="HI9" s="2"/>
+      <c r="HJ9" s="2"/>
+      <c r="HK9" s="2"/>
+      <c r="HL9" s="2"/>
+      <c r="HM9" s="2"/>
+      <c r="HN9" s="2"/>
+      <c r="HO9" s="2"/>
+      <c r="HP9" s="2"/>
+      <c r="HQ9" s="2"/>
+      <c r="HR9" s="2"/>
+      <c r="HS9" s="2"/>
+      <c r="HT9" s="2"/>
+      <c r="HU9" s="2"/>
+      <c r="HV9" s="2"/>
+      <c r="HW9" s="2"/>
+      <c r="HX9" s="2"/>
+      <c r="HY9" s="2"/>
+      <c r="HZ9" s="2"/>
+      <c r="IA9" s="2"/>
+      <c r="IB9" s="2"/>
+      <c r="IC9" s="2"/>
+      <c r="ID9" s="2"/>
+      <c r="IE9" s="2"/>
+      <c r="IF9" s="2"/>
+      <c r="IG9" s="2"/>
+      <c r="IH9" s="2"/>
+      <c r="II9" s="2"/>
+      <c r="IJ9" s="2"/>
+      <c r="IK9" s="2"/>
+      <c r="IL9" s="2"/>
+      <c r="IM9" s="2"/>
+      <c r="IN9" s="2"/>
+      <c r="IO9" s="2"/>
+      <c r="IP9" s="2"/>
+      <c r="IQ9" s="2"/>
+      <c r="IR9" s="2"/>
+      <c r="IS9" s="2"/>
+      <c r="IT9" s="2"/>
+      <c r="IU9" s="2"/>
+      <c r="IV9" s="2"/>
+      <c r="IW9" s="2"/>
+      <c r="IX9" s="2"/>
+      <c r="IY9" s="2"/>
+      <c r="IZ9" s="2"/>
+      <c r="JA9" s="2"/>
+      <c r="JB9" s="2"/>
+      <c r="JC9" s="2"/>
+      <c r="JD9" s="2"/>
+      <c r="JE9" s="2"/>
+      <c r="JF9" s="2"/>
+      <c r="JG9" s="2"/>
+      <c r="JH9" s="2"/>
+      <c r="JI9" s="2"/>
+      <c r="JJ9" s="2"/>
+      <c r="JK9" s="2"/>
+      <c r="JL9" s="2"/>
+      <c r="JM9" s="2"/>
+      <c r="JN9" s="2"/>
+      <c r="JO9" s="2"/>
+      <c r="JP9" s="2"/>
+      <c r="JQ9" s="2"/>
+      <c r="JR9" s="2"/>
+      <c r="JS9" s="2"/>
+      <c r="JT9" s="2"/>
+      <c r="JU9" s="2"/>
+      <c r="JV9" s="2"/>
+      <c r="JW9" s="2"/>
+      <c r="JX9" s="2"/>
+      <c r="JY9" s="2"/>
+      <c r="JZ9" s="2"/>
+      <c r="KA9" s="2"/>
+      <c r="KB9" s="2"/>
+      <c r="KC9" s="2"/>
+      <c r="KD9" s="2"/>
+      <c r="KE9" s="2"/>
+      <c r="KF9" s="2"/>
+      <c r="KG9" s="2"/>
+      <c r="KH9" s="2"/>
+      <c r="KI9" s="2"/>
+      <c r="KJ9" s="2"/>
+      <c r="KK9" s="2"/>
+      <c r="KL9" s="2"/>
+      <c r="KM9" s="2"/>
+      <c r="KN9" s="2"/>
+      <c r="KO9" s="2"/>
+      <c r="KP9" s="2"/>
+      <c r="KQ9" s="2"/>
+      <c r="KR9" s="2"/>
+      <c r="KS9" s="2"/>
+      <c r="KT9" s="2"/>
+      <c r="KU9" s="2"/>
+      <c r="KV9" s="2"/>
+      <c r="KW9" s="2"/>
+      <c r="KX9" s="2"/>
+      <c r="KY9" s="2"/>
+      <c r="KZ9" s="2"/>
+      <c r="LA9" s="2"/>
+      <c r="LB9" s="2"/>
+      <c r="LC9" s="2"/>
+      <c r="LD9" s="2"/>
+      <c r="LE9" s="2"/>
+      <c r="LF9" s="2"/>
+      <c r="LG9" s="2"/>
+      <c r="LH9" s="2"/>
+      <c r="LI9" s="2"/>
+      <c r="LJ9" s="2"/>
+      <c r="LK9" s="2"/>
+      <c r="LL9" s="2"/>
+      <c r="LM9" s="2"/>
+      <c r="LN9" s="2"/>
+      <c r="LO9" s="2"/>
+      <c r="LP9" s="2"/>
+      <c r="LQ9" s="2"/>
+      <c r="LR9" s="2"/>
+      <c r="LS9" s="2"/>
+      <c r="LT9" s="2"/>
+      <c r="LU9" s="2"/>
+      <c r="LV9" s="2"/>
+      <c r="LW9" s="2"/>
+      <c r="LX9" s="2"/>
+      <c r="LY9" s="2"/>
+      <c r="LZ9" s="2"/>
+      <c r="MA9" s="2"/>
+      <c r="MB9" s="2"/>
+      <c r="MC9" s="2"/>
+      <c r="MD9" s="2"/>
+      <c r="ME9" s="2"/>
+      <c r="MF9" s="2"/>
+      <c r="MG9" s="2"/>
+      <c r="MH9" s="2"/>
+      <c r="MI9" s="2"/>
+      <c r="MJ9" s="2"/>
+      <c r="MK9" s="2"/>
+      <c r="ML9" s="2"/>
+      <c r="MM9" s="2"/>
+      <c r="MN9" s="2"/>
+      <c r="MO9" s="2"/>
+      <c r="MP9" s="2"/>
+      <c r="MQ9" s="2"/>
+      <c r="MR9" s="2"/>
+      <c r="MS9" s="2"/>
+      <c r="MT9" s="2"/>
+      <c r="MU9" s="2"/>
+      <c r="MV9" s="2"/>
+      <c r="MW9" s="2"/>
+      <c r="MX9" s="2"/>
+      <c r="MY9" s="2"/>
+      <c r="MZ9" s="2"/>
+      <c r="NA9" s="2"/>
+      <c r="NB9" s="2"/>
+      <c r="NC9" s="2"/>
+    </row>
+    <row r="10" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="2"/>
+      <c r="BQ10" s="2"/>
+      <c r="BR10" s="2"/>
+      <c r="BS10" s="2"/>
+      <c r="BT10" s="2"/>
+      <c r="BU10" s="2"/>
+      <c r="BV10" s="2"/>
+      <c r="BW10" s="2"/>
+      <c r="BX10" s="2"/>
+      <c r="BY10" s="2"/>
+      <c r="BZ10" s="2"/>
+      <c r="CA10" s="2"/>
+      <c r="CB10" s="2"/>
+      <c r="CC10" s="2"/>
+      <c r="CD10" s="2"/>
+      <c r="CE10" s="2"/>
+      <c r="CF10" s="2"/>
+      <c r="CG10" s="2"/>
+      <c r="CH10" s="2"/>
+      <c r="CI10" s="2"/>
+      <c r="CJ10" s="2"/>
+      <c r="CK10" s="2"/>
+      <c r="CL10" s="2"/>
+      <c r="CM10" s="2"/>
+      <c r="CN10" s="2"/>
+      <c r="CO10" s="2"/>
+      <c r="CP10" s="2"/>
+      <c r="CQ10" s="2"/>
+      <c r="CR10" s="2"/>
+      <c r="CS10" s="2"/>
+      <c r="CT10" s="2"/>
+      <c r="CU10" s="2"/>
+      <c r="CV10" s="2"/>
+      <c r="CW10" s="2"/>
+      <c r="CX10" s="2"/>
+      <c r="CY10" s="2"/>
+      <c r="CZ10" s="2"/>
+      <c r="DA10" s="2"/>
+      <c r="DB10" s="2"/>
+      <c r="DC10" s="2"/>
+      <c r="DD10" s="2"/>
+      <c r="DE10" s="2"/>
+      <c r="DF10" s="2"/>
+      <c r="DG10" s="2"/>
+      <c r="DH10" s="2"/>
+      <c r="DI10" s="2"/>
+      <c r="DJ10" s="2"/>
+      <c r="DK10" s="2"/>
+      <c r="DL10" s="2"/>
+      <c r="DM10" s="2"/>
+      <c r="DN10" s="2"/>
+      <c r="DO10" s="2"/>
+      <c r="DP10" s="2"/>
+      <c r="DQ10" s="2"/>
+      <c r="DR10" s="2"/>
+      <c r="DS10" s="2"/>
+      <c r="DT10" s="2"/>
+      <c r="DU10" s="2"/>
+      <c r="DV10" s="2"/>
+      <c r="DW10" s="2"/>
+      <c r="DX10" s="2"/>
+      <c r="DY10" s="2"/>
+      <c r="DZ10" s="2"/>
+      <c r="EA10" s="2"/>
+      <c r="EB10" s="2"/>
+      <c r="EC10" s="2"/>
+      <c r="ED10" s="2"/>
+      <c r="EE10" s="2"/>
+      <c r="EF10" s="2"/>
+      <c r="EG10" s="2"/>
+      <c r="EH10" s="2"/>
+      <c r="EI10" s="2"/>
+      <c r="EJ10" s="2"/>
+      <c r="EK10" s="2"/>
+      <c r="EL10" s="2"/>
+      <c r="EM10" s="2"/>
+      <c r="EN10" s="2"/>
+      <c r="EO10" s="2"/>
+      <c r="EP10" s="2"/>
+      <c r="EQ10" s="2"/>
+      <c r="ER10" s="2"/>
+      <c r="ES10" s="2"/>
+      <c r="ET10" s="2"/>
+      <c r="EU10" s="2"/>
+      <c r="EV10" s="2"/>
+      <c r="EW10" s="2"/>
+      <c r="EX10" s="2"/>
+      <c r="EY10" s="2"/>
+      <c r="EZ10" s="2"/>
+      <c r="FA10" s="2"/>
+      <c r="FB10" s="2"/>
+      <c r="FC10" s="2"/>
+      <c r="FD10" s="2"/>
+      <c r="FE10" s="2"/>
+      <c r="FF10" s="2"/>
+      <c r="FG10" s="2"/>
+      <c r="FH10" s="2"/>
+      <c r="FI10" s="2"/>
+      <c r="FJ10" s="2"/>
+      <c r="FK10" s="2"/>
+      <c r="FL10" s="2"/>
+      <c r="FM10" s="2"/>
+      <c r="FN10" s="2"/>
+      <c r="FO10" s="2"/>
+      <c r="FP10" s="2"/>
+      <c r="FQ10" s="2"/>
+      <c r="FR10" s="2"/>
+      <c r="FS10" s="2"/>
+      <c r="FT10" s="2"/>
+      <c r="FU10" s="2"/>
+      <c r="FV10" s="2"/>
+      <c r="FW10" s="2"/>
+      <c r="FX10" s="2"/>
+      <c r="FY10" s="2"/>
+      <c r="FZ10" s="2"/>
+      <c r="GA10" s="2"/>
+      <c r="GB10" s="2"/>
+      <c r="GC10" s="2"/>
+      <c r="GD10" s="2"/>
+      <c r="GE10" s="2"/>
+      <c r="GF10" s="2"/>
+      <c r="GG10" s="2"/>
+      <c r="GH10" s="2"/>
+      <c r="GI10" s="2"/>
+      <c r="GJ10" s="2"/>
+      <c r="GK10" s="2"/>
+      <c r="GL10" s="2"/>
+      <c r="GM10" s="2"/>
+      <c r="GN10" s="2"/>
+      <c r="GO10" s="2"/>
+      <c r="GP10" s="2"/>
+      <c r="GQ10" s="2"/>
+      <c r="GR10" s="2"/>
+      <c r="GS10" s="2"/>
+      <c r="GT10" s="2"/>
+      <c r="GU10" s="2"/>
+      <c r="GV10" s="2"/>
+      <c r="GW10" s="2"/>
+      <c r="GX10" s="2"/>
+      <c r="GY10" s="2"/>
+      <c r="GZ10" s="2"/>
+      <c r="HA10" s="2"/>
+      <c r="HB10" s="2"/>
+      <c r="HC10" s="2"/>
+      <c r="HD10" s="2"/>
+      <c r="HE10" s="2"/>
+      <c r="HF10" s="2"/>
+      <c r="HG10" s="2"/>
+      <c r="HH10" s="2"/>
+      <c r="HI10" s="2"/>
+      <c r="HJ10" s="2"/>
+      <c r="HK10" s="2"/>
+      <c r="HL10" s="2"/>
+      <c r="HM10" s="2"/>
+      <c r="HN10" s="2"/>
+      <c r="HO10" s="2"/>
+      <c r="HP10" s="2"/>
+      <c r="HQ10" s="2"/>
+      <c r="HR10" s="2"/>
+      <c r="HS10" s="2"/>
+      <c r="HT10" s="2"/>
+      <c r="HU10" s="2"/>
+      <c r="HV10" s="2"/>
+      <c r="HW10" s="2"/>
+      <c r="HX10" s="2"/>
+      <c r="HY10" s="2"/>
+      <c r="HZ10" s="2"/>
+      <c r="IA10" s="2"/>
+      <c r="IB10" s="2"/>
+      <c r="IC10" s="2"/>
+      <c r="ID10" s="2"/>
+      <c r="IE10" s="2"/>
+      <c r="IF10" s="2"/>
+      <c r="IG10" s="2"/>
+      <c r="IH10" s="2"/>
+      <c r="II10" s="2"/>
+      <c r="IJ10" s="2"/>
+      <c r="IK10" s="2"/>
+      <c r="IL10" s="2"/>
+      <c r="IM10" s="2"/>
+      <c r="IN10" s="2"/>
+      <c r="IO10" s="2"/>
+      <c r="IP10" s="2"/>
+      <c r="IQ10" s="2"/>
+      <c r="IR10" s="2"/>
+      <c r="IS10" s="2"/>
+      <c r="IT10" s="2"/>
+      <c r="IU10" s="2"/>
+      <c r="IV10" s="2"/>
+      <c r="IW10" s="2"/>
+      <c r="IX10" s="2"/>
+      <c r="IY10" s="2"/>
+      <c r="IZ10" s="2"/>
+      <c r="JA10" s="2"/>
+      <c r="JB10" s="2"/>
+      <c r="JC10" s="2"/>
+      <c r="JD10" s="2"/>
+      <c r="JE10" s="2"/>
+      <c r="JF10" s="2"/>
+      <c r="JG10" s="2"/>
+      <c r="JH10" s="2"/>
+      <c r="JI10" s="2"/>
+      <c r="JJ10" s="2"/>
+      <c r="JK10" s="2"/>
+      <c r="JL10" s="2"/>
+      <c r="JM10" s="2"/>
+      <c r="JN10" s="2"/>
+      <c r="JO10" s="2"/>
+      <c r="JP10" s="2"/>
+      <c r="JQ10" s="2"/>
+      <c r="JR10" s="2"/>
+      <c r="JS10" s="2"/>
+      <c r="JT10" s="2"/>
+      <c r="JU10" s="2"/>
+      <c r="JV10" s="2"/>
+      <c r="JW10" s="2"/>
+      <c r="JX10" s="2"/>
+      <c r="JY10" s="2"/>
+      <c r="JZ10" s="2"/>
+      <c r="KA10" s="2"/>
+      <c r="KB10" s="2"/>
+      <c r="KC10" s="2"/>
+      <c r="KD10" s="2"/>
+      <c r="KE10" s="2"/>
+      <c r="KF10" s="2"/>
+      <c r="KG10" s="2"/>
+      <c r="KH10" s="2"/>
+      <c r="KI10" s="2"/>
+      <c r="KJ10" s="2"/>
+      <c r="KK10" s="2"/>
+      <c r="KL10" s="2"/>
+      <c r="KM10" s="2"/>
+      <c r="KN10" s="2"/>
+      <c r="KO10" s="2"/>
+      <c r="KP10" s="2"/>
+      <c r="KQ10" s="2"/>
+      <c r="KR10" s="2"/>
+      <c r="KS10" s="2"/>
+      <c r="KT10" s="2"/>
+      <c r="KU10" s="2"/>
+      <c r="KV10" s="2"/>
+      <c r="KW10" s="2"/>
+      <c r="KX10" s="2"/>
+      <c r="KY10" s="2"/>
+      <c r="KZ10" s="2"/>
+      <c r="LA10" s="2"/>
+      <c r="LB10" s="2"/>
+      <c r="LC10" s="2"/>
+      <c r="LD10" s="2"/>
+      <c r="LE10" s="2"/>
+      <c r="LF10" s="2"/>
+      <c r="LG10" s="2"/>
+      <c r="LH10" s="2"/>
+      <c r="LI10" s="2"/>
+      <c r="LJ10" s="2"/>
+      <c r="LK10" s="2"/>
+      <c r="LL10" s="2"/>
+      <c r="LM10" s="2"/>
+      <c r="LN10" s="2"/>
+      <c r="LO10" s="2"/>
+      <c r="LP10" s="2"/>
+      <c r="LQ10" s="2"/>
+      <c r="LR10" s="2"/>
+      <c r="LS10" s="2"/>
+      <c r="LT10" s="2"/>
+      <c r="LU10" s="2"/>
+      <c r="LV10" s="2"/>
+      <c r="LW10" s="2"/>
+      <c r="LX10" s="2"/>
+      <c r="LY10" s="2"/>
+      <c r="LZ10" s="2"/>
+      <c r="MA10" s="2"/>
+      <c r="MB10" s="2"/>
+      <c r="MC10" s="2"/>
+      <c r="MD10" s="2"/>
+      <c r="ME10" s="2"/>
+      <c r="MF10" s="2"/>
+      <c r="MG10" s="2"/>
+      <c r="MH10" s="2"/>
+      <c r="MI10" s="2"/>
+      <c r="MJ10" s="2"/>
+      <c r="MK10" s="2"/>
+      <c r="ML10" s="2"/>
+      <c r="MM10" s="2"/>
+      <c r="MN10" s="2"/>
+      <c r="MO10" s="2"/>
+      <c r="MP10" s="2"/>
+      <c r="MQ10" s="2"/>
+      <c r="MR10" s="2"/>
+      <c r="MS10" s="2"/>
+      <c r="MT10" s="2"/>
+      <c r="MU10" s="2"/>
+      <c r="MV10" s="2"/>
+      <c r="MW10" s="2"/>
+      <c r="MX10" s="2"/>
+      <c r="MY10" s="2"/>
+      <c r="MZ10" s="2"/>
+      <c r="NA10" s="2"/>
+      <c r="NB10" s="2"/>
+      <c r="NC10" s="2"/>
+    </row>
+    <row r="11" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:CX4">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:CX10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2364,12 +6561,12 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -2417,8 +6614,8 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4">
@@ -2458,8 +6655,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B12" si="1">B2+1</f>
         <v>1</v>
@@ -2498,8 +6695,8 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
       <c r="B4" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -2538,8 +6735,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
       <c r="B5" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2578,8 +6775,8 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
       <c r="B6" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2618,8 +6815,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
       <c r="B7" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2658,8 +6855,8 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
       <c r="B8" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2698,8 +6895,8 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
       <c r="B9" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2738,8 +6935,8 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
       <c r="B10" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2778,8 +6975,8 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
       <c r="B11" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2818,8 +7015,8 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
       <c r="B12" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2886,13 +7083,13 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2950,7 +7147,7 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2998,7 +7195,7 @@
       <c r="U2" s="10"/>
       <c r="V2" s="11"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3057,7 +7254,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D10" s="9"/>
     </row>
   </sheetData>
@@ -3069,112 +7266,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194C0B8A-F926-4B51-849C-7D12B01D7D24}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>11.76</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>2.07E-2</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>10.4</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>538.8601036</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>0.67</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>11.08</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>9.6</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>786.88524589999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>0.33</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>9.9</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>6.3E-3</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>8</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>5.1500000000000001E-3</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>1553.398058</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
         <v>5000</v>
       </c>
     </row>

--- a/MATLAB/FullSystemData_TEST.xlsx
+++ b/MATLAB/FullSystemData_TEST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\Documents\TUD-3\BEP\Code\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\BEP\BEP\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FA0980-2602-416C-9034-38D1128B24FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4FC8F8-35D3-45DA-8C58-B51C336441E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
+    <workbookView xWindow="-23148" yWindow="6936" windowWidth="23256" windowHeight="12576" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,97 +513,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A1BE27-50BC-469A-A422-B492F918308C}">
   <dimension ref="A1:NC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="MO1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="NB12" sqref="NB12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="79" max="92" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="92" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="93" max="101" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="103" max="16384" width="9.109375" style="2"/>
+    <col min="102" max="102" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="103" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:367" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:367" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -988,8 +988,1068 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
+      <c r="CY1" s="3">
+        <f t="shared" ref="CY1" si="2">CX1+1</f>
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="3">
+        <f t="shared" ref="CZ1" si="3">CY1+1</f>
+        <v>102</v>
+      </c>
+      <c r="DA1" s="3">
+        <f t="shared" ref="DA1" si="4">CZ1+1</f>
+        <v>103</v>
+      </c>
+      <c r="DB1" s="3">
+        <f t="shared" ref="DB1" si="5">DA1+1</f>
+        <v>104</v>
+      </c>
+      <c r="DC1" s="3">
+        <f t="shared" ref="DC1" si="6">DB1+1</f>
+        <v>105</v>
+      </c>
+      <c r="DD1" s="3">
+        <f t="shared" ref="DD1" si="7">DC1+1</f>
+        <v>106</v>
+      </c>
+      <c r="DE1" s="3">
+        <f t="shared" ref="DE1" si="8">DD1+1</f>
+        <v>107</v>
+      </c>
+      <c r="DF1" s="3">
+        <f t="shared" ref="DF1" si="9">DE1+1</f>
+        <v>108</v>
+      </c>
+      <c r="DG1" s="3">
+        <f t="shared" ref="DG1" si="10">DF1+1</f>
+        <v>109</v>
+      </c>
+      <c r="DH1" s="3">
+        <f t="shared" ref="DH1" si="11">DG1+1</f>
+        <v>110</v>
+      </c>
+      <c r="DI1" s="3">
+        <f t="shared" ref="DI1" si="12">DH1+1</f>
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="3">
+        <f t="shared" ref="DJ1" si="13">DI1+1</f>
+        <v>112</v>
+      </c>
+      <c r="DK1" s="3">
+        <f t="shared" ref="DK1" si="14">DJ1+1</f>
+        <v>113</v>
+      </c>
+      <c r="DL1" s="3">
+        <f t="shared" ref="DL1" si="15">DK1+1</f>
+        <v>114</v>
+      </c>
+      <c r="DM1" s="3">
+        <f t="shared" ref="DM1" si="16">DL1+1</f>
+        <v>115</v>
+      </c>
+      <c r="DN1" s="3">
+        <f t="shared" ref="DN1" si="17">DM1+1</f>
+        <v>116</v>
+      </c>
+      <c r="DO1" s="3">
+        <f t="shared" ref="DO1" si="18">DN1+1</f>
+        <v>117</v>
+      </c>
+      <c r="DP1" s="3">
+        <f t="shared" ref="DP1" si="19">DO1+1</f>
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="3">
+        <f t="shared" ref="DQ1" si="20">DP1+1</f>
+        <v>119</v>
+      </c>
+      <c r="DR1" s="3">
+        <f t="shared" ref="DR1" si="21">DQ1+1</f>
+        <v>120</v>
+      </c>
+      <c r="DS1" s="3">
+        <f t="shared" ref="DS1" si="22">DR1+1</f>
+        <v>121</v>
+      </c>
+      <c r="DT1" s="3">
+        <f t="shared" ref="DT1" si="23">DS1+1</f>
+        <v>122</v>
+      </c>
+      <c r="DU1" s="3">
+        <f t="shared" ref="DU1" si="24">DT1+1</f>
+        <v>123</v>
+      </c>
+      <c r="DV1" s="3">
+        <f t="shared" ref="DV1" si="25">DU1+1</f>
+        <v>124</v>
+      </c>
+      <c r="DW1" s="3">
+        <f t="shared" ref="DW1" si="26">DV1+1</f>
+        <v>125</v>
+      </c>
+      <c r="DX1" s="3">
+        <f t="shared" ref="DX1" si="27">DW1+1</f>
+        <v>126</v>
+      </c>
+      <c r="DY1" s="3">
+        <f t="shared" ref="DY1" si="28">DX1+1</f>
+        <v>127</v>
+      </c>
+      <c r="DZ1" s="3">
+        <f t="shared" ref="DZ1" si="29">DY1+1</f>
+        <v>128</v>
+      </c>
+      <c r="EA1" s="3">
+        <f t="shared" ref="EA1" si="30">DZ1+1</f>
+        <v>129</v>
+      </c>
+      <c r="EB1" s="3">
+        <f t="shared" ref="EB1" si="31">EA1+1</f>
+        <v>130</v>
+      </c>
+      <c r="EC1" s="3">
+        <f t="shared" ref="EC1" si="32">EB1+1</f>
+        <v>131</v>
+      </c>
+      <c r="ED1" s="3">
+        <f t="shared" ref="ED1" si="33">EC1+1</f>
+        <v>132</v>
+      </c>
+      <c r="EE1" s="3">
+        <f t="shared" ref="EE1" si="34">ED1+1</f>
+        <v>133</v>
+      </c>
+      <c r="EF1" s="3">
+        <f t="shared" ref="EF1" si="35">EE1+1</f>
+        <v>134</v>
+      </c>
+      <c r="EG1" s="3">
+        <f t="shared" ref="EG1" si="36">EF1+1</f>
+        <v>135</v>
+      </c>
+      <c r="EH1" s="3">
+        <f t="shared" ref="EH1" si="37">EG1+1</f>
+        <v>136</v>
+      </c>
+      <c r="EI1" s="3">
+        <f t="shared" ref="EI1" si="38">EH1+1</f>
+        <v>137</v>
+      </c>
+      <c r="EJ1" s="3">
+        <f t="shared" ref="EJ1" si="39">EI1+1</f>
+        <v>138</v>
+      </c>
+      <c r="EK1" s="3">
+        <f t="shared" ref="EK1" si="40">EJ1+1</f>
+        <v>139</v>
+      </c>
+      <c r="EL1" s="3">
+        <f t="shared" ref="EL1" si="41">EK1+1</f>
+        <v>140</v>
+      </c>
+      <c r="EM1" s="3">
+        <f t="shared" ref="EM1" si="42">EL1+1</f>
+        <v>141</v>
+      </c>
+      <c r="EN1" s="3">
+        <f t="shared" ref="EN1" si="43">EM1+1</f>
+        <v>142</v>
+      </c>
+      <c r="EO1" s="3">
+        <f t="shared" ref="EO1" si="44">EN1+1</f>
+        <v>143</v>
+      </c>
+      <c r="EP1" s="3">
+        <f t="shared" ref="EP1" si="45">EO1+1</f>
+        <v>144</v>
+      </c>
+      <c r="EQ1" s="3">
+        <f t="shared" ref="EQ1" si="46">EP1+1</f>
+        <v>145</v>
+      </c>
+      <c r="ER1" s="3">
+        <f t="shared" ref="ER1" si="47">EQ1+1</f>
+        <v>146</v>
+      </c>
+      <c r="ES1" s="3">
+        <f t="shared" ref="ES1" si="48">ER1+1</f>
+        <v>147</v>
+      </c>
+      <c r="ET1" s="3">
+        <f t="shared" ref="ET1" si="49">ES1+1</f>
+        <v>148</v>
+      </c>
+      <c r="EU1" s="3">
+        <f t="shared" ref="EU1" si="50">ET1+1</f>
+        <v>149</v>
+      </c>
+      <c r="EV1" s="3">
+        <f t="shared" ref="EV1" si="51">EU1+1</f>
+        <v>150</v>
+      </c>
+      <c r="EW1" s="3">
+        <f t="shared" ref="EW1" si="52">EV1+1</f>
+        <v>151</v>
+      </c>
+      <c r="EX1" s="3">
+        <f t="shared" ref="EX1" si="53">EW1+1</f>
+        <v>152</v>
+      </c>
+      <c r="EY1" s="3">
+        <f t="shared" ref="EY1" si="54">EX1+1</f>
+        <v>153</v>
+      </c>
+      <c r="EZ1" s="3">
+        <f t="shared" ref="EZ1" si="55">EY1+1</f>
+        <v>154</v>
+      </c>
+      <c r="FA1" s="3">
+        <f t="shared" ref="FA1" si="56">EZ1+1</f>
+        <v>155</v>
+      </c>
+      <c r="FB1" s="3">
+        <f t="shared" ref="FB1" si="57">FA1+1</f>
+        <v>156</v>
+      </c>
+      <c r="FC1" s="3">
+        <f t="shared" ref="FC1" si="58">FB1+1</f>
+        <v>157</v>
+      </c>
+      <c r="FD1" s="3">
+        <f t="shared" ref="FD1" si="59">FC1+1</f>
+        <v>158</v>
+      </c>
+      <c r="FE1" s="3">
+        <f t="shared" ref="FE1" si="60">FD1+1</f>
+        <v>159</v>
+      </c>
+      <c r="FF1" s="3">
+        <f t="shared" ref="FF1" si="61">FE1+1</f>
+        <v>160</v>
+      </c>
+      <c r="FG1" s="3">
+        <f t="shared" ref="FG1" si="62">FF1+1</f>
+        <v>161</v>
+      </c>
+      <c r="FH1" s="3">
+        <f t="shared" ref="FH1" si="63">FG1+1</f>
+        <v>162</v>
+      </c>
+      <c r="FI1" s="3">
+        <f t="shared" ref="FI1" si="64">FH1+1</f>
+        <v>163</v>
+      </c>
+      <c r="FJ1" s="3">
+        <f t="shared" ref="FJ1" si="65">FI1+1</f>
+        <v>164</v>
+      </c>
+      <c r="FK1" s="3">
+        <f t="shared" ref="FK1" si="66">FJ1+1</f>
+        <v>165</v>
+      </c>
+      <c r="FL1" s="3">
+        <f t="shared" ref="FL1" si="67">FK1+1</f>
+        <v>166</v>
+      </c>
+      <c r="FM1" s="3">
+        <f t="shared" ref="FM1" si="68">FL1+1</f>
+        <v>167</v>
+      </c>
+      <c r="FN1" s="3">
+        <f t="shared" ref="FN1" si="69">FM1+1</f>
+        <v>168</v>
+      </c>
+      <c r="FO1" s="3">
+        <f t="shared" ref="FO1" si="70">FN1+1</f>
+        <v>169</v>
+      </c>
+      <c r="FP1" s="3">
+        <f t="shared" ref="FP1" si="71">FO1+1</f>
+        <v>170</v>
+      </c>
+      <c r="FQ1" s="3">
+        <f t="shared" ref="FQ1" si="72">FP1+1</f>
+        <v>171</v>
+      </c>
+      <c r="FR1" s="3">
+        <f t="shared" ref="FR1" si="73">FQ1+1</f>
+        <v>172</v>
+      </c>
+      <c r="FS1" s="3">
+        <f t="shared" ref="FS1" si="74">FR1+1</f>
+        <v>173</v>
+      </c>
+      <c r="FT1" s="3">
+        <f t="shared" ref="FT1" si="75">FS1+1</f>
+        <v>174</v>
+      </c>
+      <c r="FU1" s="3">
+        <f t="shared" ref="FU1" si="76">FT1+1</f>
+        <v>175</v>
+      </c>
+      <c r="FV1" s="3">
+        <f t="shared" ref="FV1" si="77">FU1+1</f>
+        <v>176</v>
+      </c>
+      <c r="FW1" s="3">
+        <f t="shared" ref="FW1" si="78">FV1+1</f>
+        <v>177</v>
+      </c>
+      <c r="FX1" s="3">
+        <f t="shared" ref="FX1" si="79">FW1+1</f>
+        <v>178</v>
+      </c>
+      <c r="FY1" s="3">
+        <f t="shared" ref="FY1" si="80">FX1+1</f>
+        <v>179</v>
+      </c>
+      <c r="FZ1" s="3">
+        <f t="shared" ref="FZ1" si="81">FY1+1</f>
+        <v>180</v>
+      </c>
+      <c r="GA1" s="3">
+        <f t="shared" ref="GA1" si="82">FZ1+1</f>
+        <v>181</v>
+      </c>
+      <c r="GB1" s="3">
+        <f t="shared" ref="GB1" si="83">GA1+1</f>
+        <v>182</v>
+      </c>
+      <c r="GC1" s="3">
+        <f t="shared" ref="GC1" si="84">GB1+1</f>
+        <v>183</v>
+      </c>
+      <c r="GD1" s="3">
+        <f t="shared" ref="GD1" si="85">GC1+1</f>
+        <v>184</v>
+      </c>
+      <c r="GE1" s="3">
+        <f t="shared" ref="GE1" si="86">GD1+1</f>
+        <v>185</v>
+      </c>
+      <c r="GF1" s="3">
+        <f t="shared" ref="GF1" si="87">GE1+1</f>
+        <v>186</v>
+      </c>
+      <c r="GG1" s="3">
+        <f t="shared" ref="GG1" si="88">GF1+1</f>
+        <v>187</v>
+      </c>
+      <c r="GH1" s="3">
+        <f t="shared" ref="GH1" si="89">GG1+1</f>
+        <v>188</v>
+      </c>
+      <c r="GI1" s="3">
+        <f t="shared" ref="GI1" si="90">GH1+1</f>
+        <v>189</v>
+      </c>
+      <c r="GJ1" s="3">
+        <f t="shared" ref="GJ1" si="91">GI1+1</f>
+        <v>190</v>
+      </c>
+      <c r="GK1" s="3">
+        <f t="shared" ref="GK1" si="92">GJ1+1</f>
+        <v>191</v>
+      </c>
+      <c r="GL1" s="3">
+        <f t="shared" ref="GL1" si="93">GK1+1</f>
+        <v>192</v>
+      </c>
+      <c r="GM1" s="3">
+        <f t="shared" ref="GM1" si="94">GL1+1</f>
+        <v>193</v>
+      </c>
+      <c r="GN1" s="3">
+        <f t="shared" ref="GN1" si="95">GM1+1</f>
+        <v>194</v>
+      </c>
+      <c r="GO1" s="3">
+        <f t="shared" ref="GO1" si="96">GN1+1</f>
+        <v>195</v>
+      </c>
+      <c r="GP1" s="3">
+        <f t="shared" ref="GP1" si="97">GO1+1</f>
+        <v>196</v>
+      </c>
+      <c r="GQ1" s="3">
+        <f t="shared" ref="GQ1" si="98">GP1+1</f>
+        <v>197</v>
+      </c>
+      <c r="GR1" s="3">
+        <f t="shared" ref="GR1" si="99">GQ1+1</f>
+        <v>198</v>
+      </c>
+      <c r="GS1" s="3">
+        <f t="shared" ref="GS1" si="100">GR1+1</f>
+        <v>199</v>
+      </c>
+      <c r="GT1" s="3">
+        <f t="shared" ref="GT1" si="101">GS1+1</f>
+        <v>200</v>
+      </c>
+      <c r="GU1" s="3">
+        <f t="shared" ref="GU1" si="102">GT1+1</f>
+        <v>201</v>
+      </c>
+      <c r="GV1" s="3">
+        <f t="shared" ref="GV1" si="103">GU1+1</f>
+        <v>202</v>
+      </c>
+      <c r="GW1" s="3">
+        <f t="shared" ref="GW1" si="104">GV1+1</f>
+        <v>203</v>
+      </c>
+      <c r="GX1" s="3">
+        <f t="shared" ref="GX1" si="105">GW1+1</f>
+        <v>204</v>
+      </c>
+      <c r="GY1" s="3">
+        <f t="shared" ref="GY1" si="106">GX1+1</f>
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="3">
+        <f t="shared" ref="GZ1" si="107">GY1+1</f>
+        <v>206</v>
+      </c>
+      <c r="HA1" s="3">
+        <f t="shared" ref="HA1" si="108">GZ1+1</f>
+        <v>207</v>
+      </c>
+      <c r="HB1" s="3">
+        <f t="shared" ref="HB1" si="109">HA1+1</f>
+        <v>208</v>
+      </c>
+      <c r="HC1" s="3">
+        <f t="shared" ref="HC1" si="110">HB1+1</f>
+        <v>209</v>
+      </c>
+      <c r="HD1" s="3">
+        <f t="shared" ref="HD1" si="111">HC1+1</f>
+        <v>210</v>
+      </c>
+      <c r="HE1" s="3">
+        <f t="shared" ref="HE1" si="112">HD1+1</f>
+        <v>211</v>
+      </c>
+      <c r="HF1" s="3">
+        <f t="shared" ref="HF1" si="113">HE1+1</f>
+        <v>212</v>
+      </c>
+      <c r="HG1" s="3">
+        <f t="shared" ref="HG1" si="114">HF1+1</f>
+        <v>213</v>
+      </c>
+      <c r="HH1" s="3">
+        <f t="shared" ref="HH1" si="115">HG1+1</f>
+        <v>214</v>
+      </c>
+      <c r="HI1" s="3">
+        <f t="shared" ref="HI1" si="116">HH1+1</f>
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="3">
+        <f t="shared" ref="HJ1" si="117">HI1+1</f>
+        <v>216</v>
+      </c>
+      <c r="HK1" s="3">
+        <f t="shared" ref="HK1" si="118">HJ1+1</f>
+        <v>217</v>
+      </c>
+      <c r="HL1" s="3">
+        <f t="shared" ref="HL1" si="119">HK1+1</f>
+        <v>218</v>
+      </c>
+      <c r="HM1" s="3">
+        <f t="shared" ref="HM1" si="120">HL1+1</f>
+        <v>219</v>
+      </c>
+      <c r="HN1" s="3">
+        <f t="shared" ref="HN1" si="121">HM1+1</f>
+        <v>220</v>
+      </c>
+      <c r="HO1" s="3">
+        <f t="shared" ref="HO1" si="122">HN1+1</f>
+        <v>221</v>
+      </c>
+      <c r="HP1" s="3">
+        <f t="shared" ref="HP1" si="123">HO1+1</f>
+        <v>222</v>
+      </c>
+      <c r="HQ1" s="3">
+        <f t="shared" ref="HQ1" si="124">HP1+1</f>
+        <v>223</v>
+      </c>
+      <c r="HR1" s="3">
+        <f t="shared" ref="HR1" si="125">HQ1+1</f>
+        <v>224</v>
+      </c>
+      <c r="HS1" s="3">
+        <f t="shared" ref="HS1" si="126">HR1+1</f>
+        <v>225</v>
+      </c>
+      <c r="HT1" s="3">
+        <f t="shared" ref="HT1" si="127">HS1+1</f>
+        <v>226</v>
+      </c>
+      <c r="HU1" s="3">
+        <f t="shared" ref="HU1" si="128">HT1+1</f>
+        <v>227</v>
+      </c>
+      <c r="HV1" s="3">
+        <f t="shared" ref="HV1" si="129">HU1+1</f>
+        <v>228</v>
+      </c>
+      <c r="HW1" s="3">
+        <f t="shared" ref="HW1" si="130">HV1+1</f>
+        <v>229</v>
+      </c>
+      <c r="HX1" s="3">
+        <f t="shared" ref="HX1" si="131">HW1+1</f>
+        <v>230</v>
+      </c>
+      <c r="HY1" s="3">
+        <f t="shared" ref="HY1" si="132">HX1+1</f>
+        <v>231</v>
+      </c>
+      <c r="HZ1" s="3">
+        <f t="shared" ref="HZ1" si="133">HY1+1</f>
+        <v>232</v>
+      </c>
+      <c r="IA1" s="3">
+        <f t="shared" ref="IA1" si="134">HZ1+1</f>
+        <v>233</v>
+      </c>
+      <c r="IB1" s="3">
+        <f t="shared" ref="IB1" si="135">IA1+1</f>
+        <v>234</v>
+      </c>
+      <c r="IC1" s="3">
+        <f t="shared" ref="IC1" si="136">IB1+1</f>
+        <v>235</v>
+      </c>
+      <c r="ID1" s="3">
+        <f t="shared" ref="ID1" si="137">IC1+1</f>
+        <v>236</v>
+      </c>
+      <c r="IE1" s="3">
+        <f t="shared" ref="IE1" si="138">ID1+1</f>
+        <v>237</v>
+      </c>
+      <c r="IF1" s="3">
+        <f t="shared" ref="IF1" si="139">IE1+1</f>
+        <v>238</v>
+      </c>
+      <c r="IG1" s="3">
+        <f t="shared" ref="IG1" si="140">IF1+1</f>
+        <v>239</v>
+      </c>
+      <c r="IH1" s="3">
+        <f t="shared" ref="IH1" si="141">IG1+1</f>
+        <v>240</v>
+      </c>
+      <c r="II1" s="3">
+        <f t="shared" ref="II1" si="142">IH1+1</f>
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="3">
+        <f t="shared" ref="IJ1" si="143">II1+1</f>
+        <v>242</v>
+      </c>
+      <c r="IK1" s="3">
+        <f t="shared" ref="IK1" si="144">IJ1+1</f>
+        <v>243</v>
+      </c>
+      <c r="IL1" s="3">
+        <f t="shared" ref="IL1" si="145">IK1+1</f>
+        <v>244</v>
+      </c>
+      <c r="IM1" s="3">
+        <f t="shared" ref="IM1" si="146">IL1+1</f>
+        <v>245</v>
+      </c>
+      <c r="IN1" s="3">
+        <f t="shared" ref="IN1" si="147">IM1+1</f>
+        <v>246</v>
+      </c>
+      <c r="IO1" s="3">
+        <f t="shared" ref="IO1" si="148">IN1+1</f>
+        <v>247</v>
+      </c>
+      <c r="IP1" s="3">
+        <f t="shared" ref="IP1" si="149">IO1+1</f>
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="3">
+        <f t="shared" ref="IQ1" si="150">IP1+1</f>
+        <v>249</v>
+      </c>
+      <c r="IR1" s="3">
+        <f t="shared" ref="IR1" si="151">IQ1+1</f>
+        <v>250</v>
+      </c>
+      <c r="IS1" s="3">
+        <f t="shared" ref="IS1" si="152">IR1+1</f>
+        <v>251</v>
+      </c>
+      <c r="IT1" s="3">
+        <f t="shared" ref="IT1" si="153">IS1+1</f>
+        <v>252</v>
+      </c>
+      <c r="IU1" s="3">
+        <f t="shared" ref="IU1" si="154">IT1+1</f>
+        <v>253</v>
+      </c>
+      <c r="IV1" s="3">
+        <f t="shared" ref="IV1" si="155">IU1+1</f>
+        <v>254</v>
+      </c>
+      <c r="IW1" s="3">
+        <f t="shared" ref="IW1" si="156">IV1+1</f>
+        <v>255</v>
+      </c>
+      <c r="IX1" s="3">
+        <f t="shared" ref="IX1" si="157">IW1+1</f>
+        <v>256</v>
+      </c>
+      <c r="IY1" s="3">
+        <f t="shared" ref="IY1" si="158">IX1+1</f>
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="3">
+        <f t="shared" ref="IZ1" si="159">IY1+1</f>
+        <v>258</v>
+      </c>
+      <c r="JA1" s="3">
+        <f t="shared" ref="JA1" si="160">IZ1+1</f>
+        <v>259</v>
+      </c>
+      <c r="JB1" s="3">
+        <f t="shared" ref="JB1" si="161">JA1+1</f>
+        <v>260</v>
+      </c>
+      <c r="JC1" s="3">
+        <f t="shared" ref="JC1" si="162">JB1+1</f>
+        <v>261</v>
+      </c>
+      <c r="JD1" s="3">
+        <f t="shared" ref="JD1" si="163">JC1+1</f>
+        <v>262</v>
+      </c>
+      <c r="JE1" s="3">
+        <f t="shared" ref="JE1" si="164">JD1+1</f>
+        <v>263</v>
+      </c>
+      <c r="JF1" s="3">
+        <f t="shared" ref="JF1" si="165">JE1+1</f>
+        <v>264</v>
+      </c>
+      <c r="JG1" s="3">
+        <f t="shared" ref="JG1" si="166">JF1+1</f>
+        <v>265</v>
+      </c>
+      <c r="JH1" s="3">
+        <f t="shared" ref="JH1" si="167">JG1+1</f>
+        <v>266</v>
+      </c>
+      <c r="JI1" s="3">
+        <f t="shared" ref="JI1" si="168">JH1+1</f>
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="3">
+        <f t="shared" ref="JJ1" si="169">JI1+1</f>
+        <v>268</v>
+      </c>
+      <c r="JK1" s="3">
+        <f t="shared" ref="JK1" si="170">JJ1+1</f>
+        <v>269</v>
+      </c>
+      <c r="JL1" s="3">
+        <f t="shared" ref="JL1" si="171">JK1+1</f>
+        <v>270</v>
+      </c>
+      <c r="JM1" s="3">
+        <f t="shared" ref="JM1" si="172">JL1+1</f>
+        <v>271</v>
+      </c>
+      <c r="JN1" s="3">
+        <f t="shared" ref="JN1" si="173">JM1+1</f>
+        <v>272</v>
+      </c>
+      <c r="JO1" s="3">
+        <f t="shared" ref="JO1" si="174">JN1+1</f>
+        <v>273</v>
+      </c>
+      <c r="JP1" s="3">
+        <f t="shared" ref="JP1" si="175">JO1+1</f>
+        <v>274</v>
+      </c>
+      <c r="JQ1" s="3">
+        <f t="shared" ref="JQ1" si="176">JP1+1</f>
+        <v>275</v>
+      </c>
+      <c r="JR1" s="3">
+        <f t="shared" ref="JR1" si="177">JQ1+1</f>
+        <v>276</v>
+      </c>
+      <c r="JS1" s="3">
+        <f t="shared" ref="JS1" si="178">JR1+1</f>
+        <v>277</v>
+      </c>
+      <c r="JT1" s="3">
+        <f t="shared" ref="JT1" si="179">JS1+1</f>
+        <v>278</v>
+      </c>
+      <c r="JU1" s="3">
+        <f t="shared" ref="JU1" si="180">JT1+1</f>
+        <v>279</v>
+      </c>
+      <c r="JV1" s="3">
+        <f t="shared" ref="JV1" si="181">JU1+1</f>
+        <v>280</v>
+      </c>
+      <c r="JW1" s="3">
+        <f t="shared" ref="JW1" si="182">JV1+1</f>
+        <v>281</v>
+      </c>
+      <c r="JX1" s="3">
+        <f t="shared" ref="JX1" si="183">JW1+1</f>
+        <v>282</v>
+      </c>
+      <c r="JY1" s="3">
+        <f t="shared" ref="JY1" si="184">JX1+1</f>
+        <v>283</v>
+      </c>
+      <c r="JZ1" s="3">
+        <f t="shared" ref="JZ1" si="185">JY1+1</f>
+        <v>284</v>
+      </c>
+      <c r="KA1" s="3">
+        <f t="shared" ref="KA1" si="186">JZ1+1</f>
+        <v>285</v>
+      </c>
+      <c r="KB1" s="3">
+        <f t="shared" ref="KB1" si="187">KA1+1</f>
+        <v>286</v>
+      </c>
+      <c r="KC1" s="3">
+        <f t="shared" ref="KC1" si="188">KB1+1</f>
+        <v>287</v>
+      </c>
+      <c r="KD1" s="3">
+        <f t="shared" ref="KD1" si="189">KC1+1</f>
+        <v>288</v>
+      </c>
+      <c r="KE1" s="3">
+        <f t="shared" ref="KE1" si="190">KD1+1</f>
+        <v>289</v>
+      </c>
+      <c r="KF1" s="3">
+        <f t="shared" ref="KF1" si="191">KE1+1</f>
+        <v>290</v>
+      </c>
+      <c r="KG1" s="3">
+        <f t="shared" ref="KG1" si="192">KF1+1</f>
+        <v>291</v>
+      </c>
+      <c r="KH1" s="3">
+        <f t="shared" ref="KH1" si="193">KG1+1</f>
+        <v>292</v>
+      </c>
+      <c r="KI1" s="3">
+        <f t="shared" ref="KI1" si="194">KH1+1</f>
+        <v>293</v>
+      </c>
+      <c r="KJ1" s="3">
+        <f t="shared" ref="KJ1" si="195">KI1+1</f>
+        <v>294</v>
+      </c>
+      <c r="KK1" s="3">
+        <f t="shared" ref="KK1" si="196">KJ1+1</f>
+        <v>295</v>
+      </c>
+      <c r="KL1" s="3">
+        <f t="shared" ref="KL1" si="197">KK1+1</f>
+        <v>296</v>
+      </c>
+      <c r="KM1" s="3">
+        <f t="shared" ref="KM1" si="198">KL1+1</f>
+        <v>297</v>
+      </c>
+      <c r="KN1" s="3">
+        <f t="shared" ref="KN1" si="199">KM1+1</f>
+        <v>298</v>
+      </c>
+      <c r="KO1" s="3">
+        <f t="shared" ref="KO1" si="200">KN1+1</f>
+        <v>299</v>
+      </c>
+      <c r="KP1" s="3">
+        <f t="shared" ref="KP1" si="201">KO1+1</f>
+        <v>300</v>
+      </c>
+      <c r="KQ1" s="3">
+        <f t="shared" ref="KQ1" si="202">KP1+1</f>
+        <v>301</v>
+      </c>
+      <c r="KR1" s="3">
+        <f t="shared" ref="KR1" si="203">KQ1+1</f>
+        <v>302</v>
+      </c>
+      <c r="KS1" s="3">
+        <f t="shared" ref="KS1" si="204">KR1+1</f>
+        <v>303</v>
+      </c>
+      <c r="KT1" s="3">
+        <f t="shared" ref="KT1" si="205">KS1+1</f>
+        <v>304</v>
+      </c>
+      <c r="KU1" s="3">
+        <f t="shared" ref="KU1" si="206">KT1+1</f>
+        <v>305</v>
+      </c>
+      <c r="KV1" s="3">
+        <f t="shared" ref="KV1" si="207">KU1+1</f>
+        <v>306</v>
+      </c>
+      <c r="KW1" s="3">
+        <f t="shared" ref="KW1" si="208">KV1+1</f>
+        <v>307</v>
+      </c>
+      <c r="KX1" s="3">
+        <f t="shared" ref="KX1" si="209">KW1+1</f>
+        <v>308</v>
+      </c>
+      <c r="KY1" s="3">
+        <f t="shared" ref="KY1" si="210">KX1+1</f>
+        <v>309</v>
+      </c>
+      <c r="KZ1" s="3">
+        <f t="shared" ref="KZ1" si="211">KY1+1</f>
+        <v>310</v>
+      </c>
+      <c r="LA1" s="3">
+        <f t="shared" ref="LA1" si="212">KZ1+1</f>
+        <v>311</v>
+      </c>
+      <c r="LB1" s="3">
+        <f t="shared" ref="LB1" si="213">LA1+1</f>
+        <v>312</v>
+      </c>
+      <c r="LC1" s="3">
+        <f t="shared" ref="LC1" si="214">LB1+1</f>
+        <v>313</v>
+      </c>
+      <c r="LD1" s="3">
+        <f t="shared" ref="LD1" si="215">LC1+1</f>
+        <v>314</v>
+      </c>
+      <c r="LE1" s="3">
+        <f t="shared" ref="LE1" si="216">LD1+1</f>
+        <v>315</v>
+      </c>
+      <c r="LF1" s="3">
+        <f t="shared" ref="LF1" si="217">LE1+1</f>
+        <v>316</v>
+      </c>
+      <c r="LG1" s="3">
+        <f t="shared" ref="LG1" si="218">LF1+1</f>
+        <v>317</v>
+      </c>
+      <c r="LH1" s="3">
+        <f t="shared" ref="LH1" si="219">LG1+1</f>
+        <v>318</v>
+      </c>
+      <c r="LI1" s="3">
+        <f t="shared" ref="LI1" si="220">LH1+1</f>
+        <v>319</v>
+      </c>
+      <c r="LJ1" s="3">
+        <f t="shared" ref="LJ1" si="221">LI1+1</f>
+        <v>320</v>
+      </c>
+      <c r="LK1" s="3">
+        <f t="shared" ref="LK1" si="222">LJ1+1</f>
+        <v>321</v>
+      </c>
+      <c r="LL1" s="3">
+        <f t="shared" ref="LL1" si="223">LK1+1</f>
+        <v>322</v>
+      </c>
+      <c r="LM1" s="3">
+        <f t="shared" ref="LM1" si="224">LL1+1</f>
+        <v>323</v>
+      </c>
+      <c r="LN1" s="3">
+        <f t="shared" ref="LN1" si="225">LM1+1</f>
+        <v>324</v>
+      </c>
+      <c r="LO1" s="3">
+        <f t="shared" ref="LO1" si="226">LN1+1</f>
+        <v>325</v>
+      </c>
+      <c r="LP1" s="3">
+        <f t="shared" ref="LP1" si="227">LO1+1</f>
+        <v>326</v>
+      </c>
+      <c r="LQ1" s="3">
+        <f t="shared" ref="LQ1" si="228">LP1+1</f>
+        <v>327</v>
+      </c>
+      <c r="LR1" s="3">
+        <f t="shared" ref="LR1" si="229">LQ1+1</f>
+        <v>328</v>
+      </c>
+      <c r="LS1" s="3">
+        <f t="shared" ref="LS1" si="230">LR1+1</f>
+        <v>329</v>
+      </c>
+      <c r="LT1" s="3">
+        <f t="shared" ref="LT1" si="231">LS1+1</f>
+        <v>330</v>
+      </c>
+      <c r="LU1" s="3">
+        <f t="shared" ref="LU1" si="232">LT1+1</f>
+        <v>331</v>
+      </c>
+      <c r="LV1" s="3">
+        <f t="shared" ref="LV1" si="233">LU1+1</f>
+        <v>332</v>
+      </c>
+      <c r="LW1" s="3">
+        <f t="shared" ref="LW1" si="234">LV1+1</f>
+        <v>333</v>
+      </c>
+      <c r="LX1" s="3">
+        <f t="shared" ref="LX1" si="235">LW1+1</f>
+        <v>334</v>
+      </c>
+      <c r="LY1" s="3">
+        <f t="shared" ref="LY1" si="236">LX1+1</f>
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="3">
+        <f t="shared" ref="LZ1" si="237">LY1+1</f>
+        <v>336</v>
+      </c>
+      <c r="MA1" s="3">
+        <f t="shared" ref="MA1" si="238">LZ1+1</f>
+        <v>337</v>
+      </c>
+      <c r="MB1" s="3">
+        <f t="shared" ref="MB1" si="239">MA1+1</f>
+        <v>338</v>
+      </c>
+      <c r="MC1" s="3">
+        <f t="shared" ref="MC1" si="240">MB1+1</f>
+        <v>339</v>
+      </c>
+      <c r="MD1" s="3">
+        <f t="shared" ref="MD1" si="241">MC1+1</f>
+        <v>340</v>
+      </c>
+      <c r="ME1" s="3">
+        <f t="shared" ref="ME1" si="242">MD1+1</f>
+        <v>341</v>
+      </c>
+      <c r="MF1" s="3">
+        <f t="shared" ref="MF1" si="243">ME1+1</f>
+        <v>342</v>
+      </c>
+      <c r="MG1" s="3">
+        <f t="shared" ref="MG1" si="244">MF1+1</f>
+        <v>343</v>
+      </c>
+      <c r="MH1" s="3">
+        <f t="shared" ref="MH1" si="245">MG1+1</f>
+        <v>344</v>
+      </c>
+      <c r="MI1" s="3">
+        <f t="shared" ref="MI1" si="246">MH1+1</f>
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="3">
+        <f t="shared" ref="MJ1" si="247">MI1+1</f>
+        <v>346</v>
+      </c>
+      <c r="MK1" s="3">
+        <f t="shared" ref="MK1" si="248">MJ1+1</f>
+        <v>347</v>
+      </c>
+      <c r="ML1" s="3">
+        <f t="shared" ref="ML1" si="249">MK1+1</f>
+        <v>348</v>
+      </c>
+      <c r="MM1" s="3">
+        <f t="shared" ref="MM1" si="250">ML1+1</f>
+        <v>349</v>
+      </c>
+      <c r="MN1" s="3">
+        <f t="shared" ref="MN1" si="251">MM1+1</f>
+        <v>350</v>
+      </c>
+      <c r="MO1" s="3">
+        <f t="shared" ref="MO1" si="252">MN1+1</f>
+        <v>351</v>
+      </c>
+      <c r="MP1" s="3">
+        <f t="shared" ref="MP1" si="253">MO1+1</f>
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="3">
+        <f t="shared" ref="MQ1" si="254">MP1+1</f>
+        <v>353</v>
+      </c>
+      <c r="MR1" s="3">
+        <f t="shared" ref="MR1" si="255">MQ1+1</f>
+        <v>354</v>
+      </c>
+      <c r="MS1" s="3">
+        <f t="shared" ref="MS1" si="256">MR1+1</f>
+        <v>355</v>
+      </c>
+      <c r="MT1" s="3">
+        <f t="shared" ref="MT1" si="257">MS1+1</f>
+        <v>356</v>
+      </c>
+      <c r="MU1" s="3">
+        <f t="shared" ref="MU1" si="258">MT1+1</f>
+        <v>357</v>
+      </c>
+      <c r="MV1" s="3">
+        <f t="shared" ref="MV1" si="259">MU1+1</f>
+        <v>358</v>
+      </c>
+      <c r="MW1" s="3">
+        <f t="shared" ref="MW1" si="260">MV1+1</f>
+        <v>359</v>
+      </c>
+      <c r="MX1" s="3">
+        <f t="shared" ref="MX1" si="261">MW1+1</f>
+        <v>360</v>
+      </c>
+      <c r="MY1" s="3">
+        <f t="shared" ref="MY1" si="262">MX1+1</f>
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="3">
+        <f t="shared" ref="MZ1" si="263">MY1+1</f>
+        <v>362</v>
+      </c>
+      <c r="NA1" s="3">
+        <f t="shared" ref="NA1" si="264">MZ1+1</f>
+        <v>363</v>
+      </c>
+      <c r="NB1" s="3">
+        <f t="shared" ref="NB1" si="265">NA1+1</f>
+        <v>364</v>
+      </c>
+      <c r="NC1" s="3">
+        <f t="shared" ref="NC1" si="266">NB1+1</f>
+        <v>365</v>
+      </c>
     </row>
-    <row r="2" spans="1:367" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:367" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -2090,7 +3150,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:367" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:367" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -3191,7 +4251,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="4" spans="1:367" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:367" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -4292,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:367" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:367" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
@@ -5393,8 +6453,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:367" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:367" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -5761,7 +6821,7 @@
       <c r="NB8" s="2"/>
       <c r="NC8" s="2"/>
     </row>
-    <row r="9" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -6128,7 +7188,7 @@
       <c r="NB9" s="2"/>
       <c r="NC9" s="2"/>
     </row>
-    <row r="10" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6495,33 +7555,33 @@
       <c r="NB10" s="2"/>
       <c r="NC10" s="2"/>
     </row>
-    <row r="11" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
   </sheetData>
@@ -6561,12 +7621,12 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="22" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -6614,7 +7674,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
@@ -6655,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B12" si="1">B2+1</f>
@@ -6695,7 +7755,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="5">
         <f t="shared" si="1"/>
@@ -6735,7 +7795,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="5">
         <f t="shared" si="1"/>
@@ -6775,7 +7835,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="5">
         <f t="shared" si="1"/>
@@ -6815,7 +7875,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="5">
         <f t="shared" si="1"/>
@@ -6855,7 +7915,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="5">
         <f t="shared" si="1"/>
@@ -6895,7 +7955,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="5">
         <f t="shared" si="1"/>
@@ -6935,7 +7995,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="5">
         <f t="shared" si="1"/>
@@ -6975,7 +8035,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="5">
         <f t="shared" si="1"/>
@@ -7015,7 +8075,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="5">
         <f t="shared" si="1"/>
@@ -7083,13 +8143,13 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7147,7 +8207,7 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -7195,7 +8255,7 @@
       <c r="U2" s="10"/>
       <c r="V2" s="11"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -7254,7 +8314,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D10" s="9"/>
     </row>
   </sheetData>
@@ -7270,12 +8330,12 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -7295,7 +8355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -7315,7 +8375,7 @@
         <v>538.8601036</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>0.67</v>
       </c>
@@ -7335,7 +8395,7 @@
         <v>786.88524589999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>0.33</v>
       </c>
@@ -7355,7 +8415,7 @@
         <v>1553.398058</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>0</v>
       </c>

--- a/MATLAB/FullSystemData_TEST.xlsx
+++ b/MATLAB/FullSystemData_TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\Documents\TUD-3\BEP\Code\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FA0980-2602-416C-9034-38D1128B24FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBEAFE6-A7F1-46D0-A75B-CDF7B27FEC98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:NC27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1034,13 +1034,13 @@
         <v>0.9</v>
       </c>
       <c r="P2" s="3">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="R2" s="3">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="S2" s="3">
         <v>0.89</v>
@@ -1061,970 +1061,970 @@
         <v>0.89</v>
       </c>
       <c r="Y2" s="3">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="Z2" s="3">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AA2" s="3">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AB2" s="3">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AC2" s="3">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AD2" s="3">
         <v>0.88</v>
       </c>
       <c r="AE2" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AL2" s="3">
         <v>0.87</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AM2" s="3">
         <v>0.87</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AN2" s="3">
         <v>0.87</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AO2" s="3">
         <v>0.87</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AP2" s="3">
         <v>0.87</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AQ2" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="AR2" s="2">
         <v>0.86</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AS2" s="2">
         <v>0.86</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AT2" s="2">
         <v>0.86</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AU2" s="2">
         <v>0.86</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AV2" s="2">
         <v>0.86</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AW2" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="AX2" s="2">
         <v>0.85</v>
       </c>
-      <c r="AP2" s="3">
+      <c r="AY2" s="2">
         <v>0.85</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AZ2" s="2">
         <v>0.85</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="BA2" s="2">
         <v>0.85</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="BB2" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="BC2" s="2">
         <v>0.84</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="BD2" s="2">
         <v>0.84</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="BE2" s="2">
         <v>0.84</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="BF2" s="2">
         <v>0.84</v>
       </c>
-      <c r="AW2" s="2">
+      <c r="BG2" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="BH2" s="2">
         <v>0.83</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="BI2" s="2">
         <v>0.83</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="BJ2" s="2">
         <v>0.83</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="BK2" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="BL2" s="2">
         <v>0.82</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BM2" s="2">
         <v>0.82</v>
       </c>
-      <c r="BB2" s="2">
+      <c r="BN2" s="2">
         <v>0.82</v>
       </c>
-      <c r="BC2" s="2">
+      <c r="BO2" s="2">
         <v>0.82</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BP2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="BQ2" s="2">
         <v>0.81</v>
       </c>
-      <c r="BE2" s="2">
+      <c r="BR2" s="2">
         <v>0.81</v>
       </c>
-      <c r="BF2" s="2">
+      <c r="BS2" s="2">
         <v>0.81</v>
       </c>
-      <c r="BG2" s="2">
+      <c r="BT2" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="BU2" s="2">
         <v>0.8</v>
       </c>
-      <c r="BH2" s="2">
+      <c r="BV2" s="2">
         <v>0.8</v>
       </c>
-      <c r="BI2" s="2">
+      <c r="BW2" s="2">
         <v>0.8</v>
       </c>
-      <c r="BJ2" s="2">
+      <c r="BX2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="BY2" s="2">
         <v>0.79</v>
       </c>
-      <c r="BK2" s="2">
+      <c r="BZ2" s="2">
         <v>0.79</v>
       </c>
-      <c r="BL2" s="2">
+      <c r="CA2" s="2">
         <v>0.79</v>
       </c>
-      <c r="BM2" s="2">
+      <c r="CB2" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="CC2" s="2">
         <v>0.78</v>
       </c>
-      <c r="BN2" s="2">
+      <c r="CD2" s="2">
         <v>0.78</v>
       </c>
-      <c r="BO2" s="2">
+      <c r="CE2" s="2">
         <v>0.78</v>
       </c>
-      <c r="BP2" s="2">
+      <c r="CF2" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="CG2" s="2">
         <v>0.77</v>
       </c>
-      <c r="BQ2" s="2">
+      <c r="CH2" s="2">
         <v>0.77</v>
       </c>
-      <c r="BR2" s="2">
+      <c r="CI2" s="2">
         <v>0.77</v>
       </c>
-      <c r="BS2" s="2">
+      <c r="CJ2" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="CK2" s="2">
         <v>0.76</v>
       </c>
-      <c r="BT2" s="2">
+      <c r="CL2" s="2">
         <v>0.76</v>
       </c>
-      <c r="BU2" s="2">
+      <c r="CM2" s="2">
         <v>0.76</v>
       </c>
-      <c r="BV2" s="2">
+      <c r="CN2" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="CO2" s="2">
         <v>0.75</v>
       </c>
-      <c r="BW2" s="2">
+      <c r="CP2" s="2">
         <v>0.75</v>
       </c>
-      <c r="BX2" s="2">
+      <c r="CQ2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="CR2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="CS2" s="2">
         <v>0.74</v>
       </c>
-      <c r="BY2" s="2">
+      <c r="CT2" s="2">
         <v>0.74</v>
       </c>
-      <c r="BZ2" s="2">
+      <c r="CU2" s="2">
         <v>0.74</v>
       </c>
-      <c r="CA2" s="2">
+      <c r="CV2" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="CW2" s="2">
         <v>0.73</v>
       </c>
-      <c r="CB2" s="2">
+      <c r="CX2" s="2">
         <v>0.73</v>
       </c>
-      <c r="CC2" s="2">
+      <c r="CY2" s="2">
         <v>0.73</v>
       </c>
-      <c r="CD2" s="2">
+      <c r="CZ2" s="2">
         <v>0.72</v>
       </c>
-      <c r="CE2" s="2">
+      <c r="DA2" s="2">
         <v>0.72</v>
       </c>
-      <c r="CF2" s="2">
+      <c r="DB2" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="DC2" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="DD2" s="2">
         <v>0.71</v>
       </c>
-      <c r="CG2" s="2">
+      <c r="DE2" s="2">
         <v>0.71</v>
       </c>
-      <c r="CH2" s="2">
+      <c r="DF2" s="2">
         <v>0.71</v>
       </c>
-      <c r="CI2" s="2">
+      <c r="DG2" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="DH2" s="2">
         <v>0.7</v>
       </c>
-      <c r="CJ2" s="2">
+      <c r="DI2" s="2">
         <v>0.7</v>
       </c>
-      <c r="CK2" s="2">
+      <c r="DJ2" s="2">
         <v>0.7</v>
       </c>
-      <c r="CL2" s="2">
+      <c r="DK2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="DL2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="DM2" s="2">
         <v>0.69</v>
       </c>
-      <c r="CM2" s="2">
+      <c r="DN2" s="2">
         <v>0.69</v>
       </c>
-      <c r="CN2" s="2">
+      <c r="DO2" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="DP2" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="DQ2" s="2">
         <v>0.68</v>
       </c>
-      <c r="CO2" s="2">
+      <c r="DR2" s="2">
         <v>0.68</v>
       </c>
-      <c r="CP2" s="2">
+      <c r="DS2" s="2">
         <v>0.68</v>
       </c>
-      <c r="CQ2" s="2">
+      <c r="DT2" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="DU2" s="2">
         <v>0.67</v>
       </c>
-      <c r="CR2" s="2">
+      <c r="DV2" s="2">
         <v>0.67</v>
       </c>
-      <c r="CS2" s="2">
+      <c r="DW2" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="DX2" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="DY2" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="DZ2" s="2">
         <v>0.66</v>
       </c>
-      <c r="CT2" s="2">
+      <c r="EA2" s="2">
         <v>0.66</v>
       </c>
-      <c r="CU2" s="2">
+      <c r="EB2" s="2">
         <v>0.66</v>
       </c>
-      <c r="CV2" s="2">
+      <c r="EC2" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="ED2" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="EE2" s="2">
         <v>0.65</v>
       </c>
-      <c r="CW2" s="2">
+      <c r="EF2" s="2">
         <v>0.65</v>
       </c>
-      <c r="CX2" s="2">
+      <c r="EG2" s="2">
         <v>0.65</v>
       </c>
-      <c r="CY2" s="2">
+      <c r="EH2" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="EI2" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="EJ2" s="2">
         <v>0.64</v>
       </c>
-      <c r="CZ2" s="2">
+      <c r="EK2" s="2">
         <v>0.64</v>
       </c>
-      <c r="DA2" s="2">
+      <c r="EL2" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="EM2" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="EN2" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="EO2" s="2">
         <v>0.63</v>
       </c>
-      <c r="DB2" s="2">
+      <c r="EP2" s="2">
         <v>0.63</v>
       </c>
-      <c r="DC2" s="2">
+      <c r="EQ2" s="2">
         <v>0.63</v>
       </c>
-      <c r="DD2" s="2">
+      <c r="ER2" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="ES2" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="ET2" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="EU2" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="EV2" s="2">
         <v>0.62</v>
       </c>
-      <c r="DE2" s="2">
+      <c r="EW2" s="2">
         <v>0.62</v>
       </c>
-      <c r="DF2" s="2">
+      <c r="EX2" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="EY2" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="EZ2" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="FA2" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="FB2" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="FC2" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="FD2" s="2">
         <v>0.61</v>
       </c>
-      <c r="DG2" s="2">
+      <c r="FE2" s="2">
         <v>0.61</v>
       </c>
-      <c r="DH2" s="2">
+      <c r="FF2" s="2">
         <v>0.61</v>
       </c>
-      <c r="DI2" s="2">
+      <c r="FG2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="FH2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="FI2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="FJ2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="FK2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="FL2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="FM2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="FN2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="FO2" s="2">
         <v>0.6</v>
       </c>
-      <c r="DJ2" s="2">
+      <c r="FP2" s="2">
         <v>0.6</v>
       </c>
-      <c r="DK2" s="2">
+      <c r="FQ2" s="2">
         <v>0.6</v>
       </c>
-      <c r="DL2" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="DM2" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="DN2" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="DO2" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="DP2" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="DQ2" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="DR2" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="DS2" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="DT2" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="DU2" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="DV2" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="DW2" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="DX2" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="DY2" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="DZ2" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="EA2" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="EB2" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="EC2" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="ED2" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="EE2" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="EF2" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="EG2" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="EH2" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="EI2" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="EJ2" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="EK2" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="EL2" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="EM2" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="EN2" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="EO2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="EP2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="EQ2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="ER2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="ES2" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="ET2" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="EU2" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="EV2" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="EW2" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="EX2" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="EY2" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="EZ2" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="FA2" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="FB2" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="FC2" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="FD2" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="FE2" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="FF2" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="FG2" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="FH2" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="FI2" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="FJ2" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="FK2" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="FL2" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="FM2" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="FN2" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="FO2" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="FP2" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="FQ2" s="2">
-        <v>0.46</v>
-      </c>
       <c r="FR2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="FS2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="FT2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="FU2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="FV2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="FW2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="FX2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="FY2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="FZ2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GA2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GB2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GC2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GD2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GE2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GF2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GG2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GH2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GI2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GJ2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GK2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GL2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GM2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GN2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GO2" s="2">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="GP2" s="2">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="GQ2" s="2">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="GR2" s="2">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="GS2" s="2">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="GT2" s="2">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="GU2" s="2">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="GV2" s="2">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="GW2" s="2">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="GX2" s="2">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="GY2" s="2">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="GZ2" s="2">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="HA2" s="2">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="HB2" s="2">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="HC2" s="2">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="HD2" s="2">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="HE2" s="2">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="HF2" s="2">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="HG2" s="2">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="HH2" s="2">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="HI2" s="2">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="HJ2" s="2">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="HK2" s="2">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
       <c r="HL2" s="2">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="HM2" s="2">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="HN2" s="2">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="HO2" s="2">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="HP2" s="2">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="HQ2" s="2">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="HR2" s="2">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="HS2" s="2">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="HT2" s="2">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="HU2" s="2">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="HV2" s="2">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="HW2" s="2">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="HX2" s="2">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="HY2" s="2">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="HZ2" s="2">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="IA2" s="2">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="IB2" s="2">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="IC2" s="2">
-        <v>0.53</v>
+        <v>0.66</v>
       </c>
       <c r="ID2" s="2">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="IE2" s="2">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="IF2" s="2">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="IG2" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.66</v>
       </c>
       <c r="IH2" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.67</v>
       </c>
       <c r="II2" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.67</v>
       </c>
       <c r="IJ2" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.67</v>
       </c>
       <c r="IK2" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.67</v>
       </c>
       <c r="IL2" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.67</v>
       </c>
       <c r="IM2" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.68</v>
       </c>
       <c r="IN2" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.68</v>
       </c>
       <c r="IO2" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.68</v>
       </c>
       <c r="IP2" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.68</v>
       </c>
       <c r="IQ2" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.69</v>
       </c>
       <c r="IR2" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.69</v>
       </c>
       <c r="IS2" s="2">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
       <c r="IT2" s="2">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
       <c r="IU2" s="2">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="IV2" s="2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="IW2" s="2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="IX2" s="2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="IY2" s="2">
-        <v>0.61</v>
+        <v>0.7</v>
       </c>
       <c r="IZ2" s="2">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
       <c r="JA2" s="2">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
       <c r="JB2" s="2">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="JC2" s="2">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="JD2" s="2">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="JE2" s="2">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="JF2" s="2">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="JG2" s="2">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="JH2" s="2">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="JI2" s="2">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="JJ2" s="2">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="JK2" s="2">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="JL2" s="2">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="JM2" s="2">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="JN2" s="2">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="JO2" s="2">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="JP2" s="2">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="JQ2" s="2">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="JR2" s="2">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="JS2" s="2">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="JT2" s="2">
-        <v>0.69</v>
+        <v>0.76</v>
       </c>
       <c r="JU2" s="2">
-        <v>0.69</v>
+        <v>0.76</v>
       </c>
       <c r="JV2" s="2">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="JW2" s="2">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="JX2" s="2">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="JY2" s="2">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="JZ2" s="2">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="KA2" s="2">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="KB2" s="2">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="KC2" s="2">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="KD2" s="2">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="KE2" s="2">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="KF2" s="2">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="KG2" s="2">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="KH2" s="2">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="KI2" s="2">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="KJ2" s="2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="KK2" s="2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="KL2" s="2">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="KM2" s="2">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="KN2" s="2">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="KO2" s="2">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="KP2" s="2">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="KQ2" s="2">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="KR2" s="2">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="KS2" s="2">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="KT2" s="2">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="KU2" s="2">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="KV2" s="2">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="KW2" s="2">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="KX2" s="2">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="KY2" s="2">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="KZ2" s="2">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="LA2" s="2">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="LB2" s="2">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="LC2" s="2">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="LD2" s="2">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="LE2" s="2">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="LF2" s="2">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="LG2" s="2">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="LH2" s="2">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="LI2" s="2">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="LJ2" s="2">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="LK2" s="2">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="LL2" s="2">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="LM2" s="2">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="LN2" s="2">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="LO2" s="2">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="LP2" s="2">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="LQ2" s="2">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="LR2" s="2">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="LS2" s="2">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="LT2" s="2">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="LU2" s="2">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="LV2" s="2">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="LW2" s="2">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="LX2" s="2">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="LY2" s="2">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="LZ2" s="2">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="MA2" s="2">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="MB2" s="2">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="MC2" s="2">
         <v>0.88</v>
       </c>
       <c r="MD2" s="2">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="ME2" s="2">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="MF2" s="2">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="MG2" s="2">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="MH2" s="2">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="MI2" s="2">
         <v>0.89</v>
@@ -2045,13 +2045,13 @@
         <v>0.89</v>
       </c>
       <c r="MO2" s="2">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="MP2" s="2">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="MQ2" s="2">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="MR2" s="2">
         <v>0.9</v>

--- a/MATLAB/FullSystemData_TEST.xlsx
+++ b/MATLAB/FullSystemData_TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\Documents\TUD-3\BEP\Code\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBEAFE6-A7F1-46D0-A75B-CDF7B27FEC98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B9443D-8681-4F14-8A75-D04F0953CDA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>n</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>% Fan</t>
+  </si>
+  <si>
+    <t>zon</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Led</t>
   </si>
 </sst>
 </file>
@@ -514,7 +523,7 @@
   <dimension ref="A1:NC27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="NC10" sqref="C8:NC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5395,1105 +5404,4399 @@
     </row>
     <row r="7" spans="1:367" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2"/>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
-      <c r="BF8" s="2"/>
-      <c r="BG8" s="2"/>
-      <c r="BH8" s="2"/>
-      <c r="BI8" s="2"/>
-      <c r="BJ8" s="2"/>
-      <c r="BK8" s="2"/>
-      <c r="BL8" s="2"/>
-      <c r="BM8" s="2"/>
-      <c r="BN8" s="2"/>
-      <c r="BO8" s="2"/>
-      <c r="BP8" s="2"/>
-      <c r="BQ8" s="2"/>
-      <c r="BR8" s="2"/>
-      <c r="BS8" s="2"/>
-      <c r="BT8" s="2"/>
-      <c r="BU8" s="2"/>
-      <c r="BV8" s="2"/>
-      <c r="BW8" s="2"/>
-      <c r="BX8" s="2"/>
-      <c r="BY8" s="2"/>
-      <c r="BZ8" s="2"/>
-      <c r="CA8" s="2"/>
-      <c r="CB8" s="2"/>
-      <c r="CC8" s="2"/>
-      <c r="CD8" s="2"/>
-      <c r="CE8" s="2"/>
-      <c r="CF8" s="2"/>
-      <c r="CG8" s="2"/>
-      <c r="CH8" s="2"/>
-      <c r="CI8" s="2"/>
-      <c r="CJ8" s="2"/>
-      <c r="CK8" s="2"/>
-      <c r="CL8" s="2"/>
-      <c r="CM8" s="2"/>
-      <c r="CN8" s="2"/>
-      <c r="CO8" s="2"/>
-      <c r="CP8" s="2"/>
-      <c r="CQ8" s="2"/>
-      <c r="CR8" s="2"/>
-      <c r="CS8" s="2"/>
-      <c r="CT8" s="2"/>
-      <c r="CU8" s="2"/>
-      <c r="CV8" s="2"/>
-      <c r="CW8" s="2"/>
-      <c r="CX8" s="2"/>
-      <c r="CY8" s="2"/>
-      <c r="CZ8" s="2"/>
-      <c r="DA8" s="2"/>
-      <c r="DB8" s="2"/>
-      <c r="DC8" s="2"/>
-      <c r="DD8" s="2"/>
-      <c r="DE8" s="2"/>
-      <c r="DF8" s="2"/>
-      <c r="DG8" s="2"/>
-      <c r="DH8" s="2"/>
-      <c r="DI8" s="2"/>
-      <c r="DJ8" s="2"/>
-      <c r="DK8" s="2"/>
-      <c r="DL8" s="2"/>
-      <c r="DM8" s="2"/>
-      <c r="DN8" s="2"/>
-      <c r="DO8" s="2"/>
-      <c r="DP8" s="2"/>
-      <c r="DQ8" s="2"/>
-      <c r="DR8" s="2"/>
-      <c r="DS8" s="2"/>
-      <c r="DT8" s="2"/>
-      <c r="DU8" s="2"/>
-      <c r="DV8" s="2"/>
-      <c r="DW8" s="2"/>
-      <c r="DX8" s="2"/>
-      <c r="DY8" s="2"/>
-      <c r="DZ8" s="2"/>
-      <c r="EA8" s="2"/>
-      <c r="EB8" s="2"/>
-      <c r="EC8" s="2"/>
-      <c r="ED8" s="2"/>
-      <c r="EE8" s="2"/>
-      <c r="EF8" s="2"/>
-      <c r="EG8" s="2"/>
-      <c r="EH8" s="2"/>
-      <c r="EI8" s="2"/>
-      <c r="EJ8" s="2"/>
-      <c r="EK8" s="2"/>
-      <c r="EL8" s="2"/>
-      <c r="EM8" s="2"/>
-      <c r="EN8" s="2"/>
-      <c r="EO8" s="2"/>
-      <c r="EP8" s="2"/>
-      <c r="EQ8" s="2"/>
-      <c r="ER8" s="2"/>
-      <c r="ES8" s="2"/>
-      <c r="ET8" s="2"/>
-      <c r="EU8" s="2"/>
-      <c r="EV8" s="2"/>
-      <c r="EW8" s="2"/>
-      <c r="EX8" s="2"/>
-      <c r="EY8" s="2"/>
-      <c r="EZ8" s="2"/>
-      <c r="FA8" s="2"/>
-      <c r="FB8" s="2"/>
-      <c r="FC8" s="2"/>
-      <c r="FD8" s="2"/>
-      <c r="FE8" s="2"/>
-      <c r="FF8" s="2"/>
-      <c r="FG8" s="2"/>
-      <c r="FH8" s="2"/>
-      <c r="FI8" s="2"/>
-      <c r="FJ8" s="2"/>
-      <c r="FK8" s="2"/>
-      <c r="FL8" s="2"/>
-      <c r="FM8" s="2"/>
-      <c r="FN8" s="2"/>
-      <c r="FO8" s="2"/>
-      <c r="FP8" s="2"/>
-      <c r="FQ8" s="2"/>
-      <c r="FR8" s="2"/>
-      <c r="FS8" s="2"/>
-      <c r="FT8" s="2"/>
-      <c r="FU8" s="2"/>
-      <c r="FV8" s="2"/>
-      <c r="FW8" s="2"/>
-      <c r="FX8" s="2"/>
-      <c r="FY8" s="2"/>
-      <c r="FZ8" s="2"/>
-      <c r="GA8" s="2"/>
-      <c r="GB8" s="2"/>
-      <c r="GC8" s="2"/>
-      <c r="GD8" s="2"/>
-      <c r="GE8" s="2"/>
-      <c r="GF8" s="2"/>
-      <c r="GG8" s="2"/>
-      <c r="GH8" s="2"/>
-      <c r="GI8" s="2"/>
-      <c r="GJ8" s="2"/>
-      <c r="GK8" s="2"/>
-      <c r="GL8" s="2"/>
-      <c r="GM8" s="2"/>
-      <c r="GN8" s="2"/>
-      <c r="GO8" s="2"/>
-      <c r="GP8" s="2"/>
-      <c r="GQ8" s="2"/>
-      <c r="GR8" s="2"/>
-      <c r="GS8" s="2"/>
-      <c r="GT8" s="2"/>
-      <c r="GU8" s="2"/>
-      <c r="GV8" s="2"/>
-      <c r="GW8" s="2"/>
-      <c r="GX8" s="2"/>
-      <c r="GY8" s="2"/>
-      <c r="GZ8" s="2"/>
-      <c r="HA8" s="2"/>
-      <c r="HB8" s="2"/>
-      <c r="HC8" s="2"/>
-      <c r="HD8" s="2"/>
-      <c r="HE8" s="2"/>
-      <c r="HF8" s="2"/>
-      <c r="HG8" s="2"/>
-      <c r="HH8" s="2"/>
-      <c r="HI8" s="2"/>
-      <c r="HJ8" s="2"/>
-      <c r="HK8" s="2"/>
-      <c r="HL8" s="2"/>
-      <c r="HM8" s="2"/>
-      <c r="HN8" s="2"/>
-      <c r="HO8" s="2"/>
-      <c r="HP8" s="2"/>
-      <c r="HQ8" s="2"/>
-      <c r="HR8" s="2"/>
-      <c r="HS8" s="2"/>
-      <c r="HT8" s="2"/>
-      <c r="HU8" s="2"/>
-      <c r="HV8" s="2"/>
-      <c r="HW8" s="2"/>
-      <c r="HX8" s="2"/>
-      <c r="HY8" s="2"/>
-      <c r="HZ8" s="2"/>
-      <c r="IA8" s="2"/>
-      <c r="IB8" s="2"/>
-      <c r="IC8" s="2"/>
-      <c r="ID8" s="2"/>
-      <c r="IE8" s="2"/>
-      <c r="IF8" s="2"/>
-      <c r="IG8" s="2"/>
-      <c r="IH8" s="2"/>
-      <c r="II8" s="2"/>
-      <c r="IJ8" s="2"/>
-      <c r="IK8" s="2"/>
-      <c r="IL8" s="2"/>
-      <c r="IM8" s="2"/>
-      <c r="IN8" s="2"/>
-      <c r="IO8" s="2"/>
-      <c r="IP8" s="2"/>
-      <c r="IQ8" s="2"/>
-      <c r="IR8" s="2"/>
-      <c r="IS8" s="2"/>
-      <c r="IT8" s="2"/>
-      <c r="IU8" s="2"/>
-      <c r="IV8" s="2"/>
-      <c r="IW8" s="2"/>
-      <c r="IX8" s="2"/>
-      <c r="IY8" s="2"/>
-      <c r="IZ8" s="2"/>
-      <c r="JA8" s="2"/>
-      <c r="JB8" s="2"/>
-      <c r="JC8" s="2"/>
-      <c r="JD8" s="2"/>
-      <c r="JE8" s="2"/>
-      <c r="JF8" s="2"/>
-      <c r="JG8" s="2"/>
-      <c r="JH8" s="2"/>
-      <c r="JI8" s="2"/>
-      <c r="JJ8" s="2"/>
-      <c r="JK8" s="2"/>
-      <c r="JL8" s="2"/>
-      <c r="JM8" s="2"/>
-      <c r="JN8" s="2"/>
-      <c r="JO8" s="2"/>
-      <c r="JP8" s="2"/>
-      <c r="JQ8" s="2"/>
-      <c r="JR8" s="2"/>
-      <c r="JS8" s="2"/>
-      <c r="JT8" s="2"/>
-      <c r="JU8" s="2"/>
-      <c r="JV8" s="2"/>
-      <c r="JW8" s="2"/>
-      <c r="JX8" s="2"/>
-      <c r="JY8" s="2"/>
-      <c r="JZ8" s="2"/>
-      <c r="KA8" s="2"/>
-      <c r="KB8" s="2"/>
-      <c r="KC8" s="2"/>
-      <c r="KD8" s="2"/>
-      <c r="KE8" s="2"/>
-      <c r="KF8" s="2"/>
-      <c r="KG8" s="2"/>
-      <c r="KH8" s="2"/>
-      <c r="KI8" s="2"/>
-      <c r="KJ8" s="2"/>
-      <c r="KK8" s="2"/>
-      <c r="KL8" s="2"/>
-      <c r="KM8" s="2"/>
-      <c r="KN8" s="2"/>
-      <c r="KO8" s="2"/>
-      <c r="KP8" s="2"/>
-      <c r="KQ8" s="2"/>
-      <c r="KR8" s="2"/>
-      <c r="KS8" s="2"/>
-      <c r="KT8" s="2"/>
-      <c r="KU8" s="2"/>
-      <c r="KV8" s="2"/>
-      <c r="KW8" s="2"/>
-      <c r="KX8" s="2"/>
-      <c r="KY8" s="2"/>
-      <c r="KZ8" s="2"/>
-      <c r="LA8" s="2"/>
-      <c r="LB8" s="2"/>
-      <c r="LC8" s="2"/>
-      <c r="LD8" s="2"/>
-      <c r="LE8" s="2"/>
-      <c r="LF8" s="2"/>
-      <c r="LG8" s="2"/>
-      <c r="LH8" s="2"/>
-      <c r="LI8" s="2"/>
-      <c r="LJ8" s="2"/>
-      <c r="LK8" s="2"/>
-      <c r="LL8" s="2"/>
-      <c r="LM8" s="2"/>
-      <c r="LN8" s="2"/>
-      <c r="LO8" s="2"/>
-      <c r="LP8" s="2"/>
-      <c r="LQ8" s="2"/>
-      <c r="LR8" s="2"/>
-      <c r="LS8" s="2"/>
-      <c r="LT8" s="2"/>
-      <c r="LU8" s="2"/>
-      <c r="LV8" s="2"/>
-      <c r="LW8" s="2"/>
-      <c r="LX8" s="2"/>
-      <c r="LY8" s="2"/>
-      <c r="LZ8" s="2"/>
-      <c r="MA8" s="2"/>
-      <c r="MB8" s="2"/>
-      <c r="MC8" s="2"/>
-      <c r="MD8" s="2"/>
-      <c r="ME8" s="2"/>
-      <c r="MF8" s="2"/>
-      <c r="MG8" s="2"/>
-      <c r="MH8" s="2"/>
-      <c r="MI8" s="2"/>
-      <c r="MJ8" s="2"/>
-      <c r="MK8" s="2"/>
-      <c r="ML8" s="2"/>
-      <c r="MM8" s="2"/>
-      <c r="MN8" s="2"/>
-      <c r="MO8" s="2"/>
-      <c r="MP8" s="2"/>
-      <c r="MQ8" s="2"/>
-      <c r="MR8" s="2"/>
-      <c r="MS8" s="2"/>
-      <c r="MT8" s="2"/>
-      <c r="MU8" s="2"/>
-      <c r="MV8" s="2"/>
-      <c r="MW8" s="2"/>
-      <c r="MX8" s="2"/>
-      <c r="MY8" s="2"/>
-      <c r="MZ8" s="2"/>
-      <c r="NA8" s="2"/>
-      <c r="NB8" s="2"/>
-      <c r="NC8" s="2"/>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <f>C3*5</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:BO8" si="2">D3*5</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="W8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="AB8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AD8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AE8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AF8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AG8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AH8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AI8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="AK8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="AL8" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AM8" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AN8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="AO8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="AP8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AQ8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AR8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="AS8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="AT8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="AU8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="AV8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="AW8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="AX8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="AY8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.35</v>
+      </c>
+      <c r="AZ8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="BA8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="BB8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.45</v>
+      </c>
+      <c r="BC8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.45</v>
+      </c>
+      <c r="BD8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="BE8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.55</v>
+      </c>
+      <c r="BF8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.55</v>
+      </c>
+      <c r="BG8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="BH8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="BI8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="BJ8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="BK8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="BL8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="BM8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="BN8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.85</v>
+      </c>
+      <c r="BO8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="BP8" s="3">
+        <f t="shared" ref="BP8:EA8" si="3">BP3*5</f>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="BQ8" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="BR8" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="BS8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BT8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1</v>
+      </c>
+      <c r="BU8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1</v>
+      </c>
+      <c r="BV8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.15</v>
+      </c>
+      <c r="BW8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BX8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+      <c r="BY8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+      <c r="BZ8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="CA8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="CB8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.4</v>
+      </c>
+      <c r="CC8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="CD8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="CE8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="CF8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="CG8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="CH8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="CI8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="CJ8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.7</v>
+      </c>
+      <c r="CK8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+      <c r="CL8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="CM8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="CN8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="CO8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.9</v>
+      </c>
+      <c r="CP8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.9499999999999997</v>
+      </c>
+      <c r="CQ8" s="3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="CR8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.05</v>
+      </c>
+      <c r="CS8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.05</v>
+      </c>
+      <c r="CT8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+      <c r="CU8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.15</v>
+      </c>
+      <c r="CV8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="CW8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.25</v>
+      </c>
+      <c r="CX8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.25</v>
+      </c>
+      <c r="CY8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="CZ8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.35</v>
+      </c>
+      <c r="DA8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="DB8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="DC8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="DD8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="DE8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.55</v>
+      </c>
+      <c r="DF8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="DG8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="DH8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.65</v>
+      </c>
+      <c r="DI8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.7</v>
+      </c>
+      <c r="DJ8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+      <c r="DK8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+      <c r="DL8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.8</v>
+      </c>
+      <c r="DM8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.85</v>
+      </c>
+      <c r="DN8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.85</v>
+      </c>
+      <c r="DO8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="DP8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.95</v>
+      </c>
+      <c r="DQ8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.95</v>
+      </c>
+      <c r="DR8" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="DS8" s="3">
+        <f t="shared" si="3"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="DT8" s="3">
+        <f t="shared" si="3"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="DU8" s="3">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="DV8" s="3">
+        <f t="shared" si="3"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="DW8" s="3">
+        <f t="shared" si="3"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="DX8" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="DY8" s="3">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+      <c r="DZ8" s="3">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+      <c r="EA8" s="3">
+        <f t="shared" si="3"/>
+        <v>4.3</v>
+      </c>
+      <c r="EB8" s="3">
+        <f t="shared" ref="EB8:GM8" si="4">EB3*5</f>
+        <v>4.3</v>
+      </c>
+      <c r="EC8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="ED8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="EE8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="EF8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.45</v>
+      </c>
+      <c r="EG8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.45</v>
+      </c>
+      <c r="EH8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="EI8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="EJ8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.55</v>
+      </c>
+      <c r="EK8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.55</v>
+      </c>
+      <c r="EL8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="EM8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="EN8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="EO8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="EP8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="EQ8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="ER8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="ES8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.75</v>
+      </c>
+      <c r="ET8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.75</v>
+      </c>
+      <c r="EU8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.75</v>
+      </c>
+      <c r="EV8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.8</v>
+      </c>
+      <c r="EW8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.8</v>
+      </c>
+      <c r="EX8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.8</v>
+      </c>
+      <c r="EY8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="EZ8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="FA8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="FB8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="FC8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="FD8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="FE8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="FF8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.95</v>
+      </c>
+      <c r="FG8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.95</v>
+      </c>
+      <c r="FH8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.95</v>
+      </c>
+      <c r="FI8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.95</v>
+      </c>
+      <c r="FJ8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.95</v>
+      </c>
+      <c r="FK8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.95</v>
+      </c>
+      <c r="FL8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.95</v>
+      </c>
+      <c r="FM8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="FN8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="FO8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="FP8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="FQ8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="FR8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="FS8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="FT8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="FU8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="FV8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="FW8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="FX8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="FY8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="FZ8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="GA8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="GB8" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="GC8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.95</v>
+      </c>
+      <c r="GD8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.95</v>
+      </c>
+      <c r="GE8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.95</v>
+      </c>
+      <c r="GF8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.95</v>
+      </c>
+      <c r="GG8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.95</v>
+      </c>
+      <c r="GH8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.95</v>
+      </c>
+      <c r="GI8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="GJ8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="GK8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="GL8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="GM8" s="3">
+        <f t="shared" si="4"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="GN8" s="3">
+        <f t="shared" ref="GN8:IY8" si="5">GN3*5</f>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="GO8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="GP8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="GQ8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.8</v>
+      </c>
+      <c r="GR8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.8</v>
+      </c>
+      <c r="GS8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.8</v>
+      </c>
+      <c r="GT8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.75</v>
+      </c>
+      <c r="GU8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.75</v>
+      </c>
+      <c r="GV8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.75</v>
+      </c>
+      <c r="GW8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="GX8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="GY8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="GZ8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="HA8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="HB8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="HC8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="HD8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.55</v>
+      </c>
+      <c r="HE8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.55</v>
+      </c>
+      <c r="HF8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="HG8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="HH8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.45</v>
+      </c>
+      <c r="HI8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="HJ8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="HK8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="HL8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="HM8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.3</v>
+      </c>
+      <c r="HN8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.3</v>
+      </c>
+      <c r="HO8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.25</v>
+      </c>
+      <c r="HP8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2</v>
+      </c>
+      <c r="HQ8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2</v>
+      </c>
+      <c r="HR8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="HS8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="HT8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="HU8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="HV8" s="3">
+        <f t="shared" si="5"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="HW8" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="HX8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.95</v>
+      </c>
+      <c r="HY8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.95</v>
+      </c>
+      <c r="HZ8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="IA8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.85</v>
+      </c>
+      <c r="IB8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.8</v>
+      </c>
+      <c r="IC8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.8</v>
+      </c>
+      <c r="ID8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.75</v>
+      </c>
+      <c r="IE8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.7</v>
+      </c>
+      <c r="IF8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.7</v>
+      </c>
+      <c r="IG8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.65</v>
+      </c>
+      <c r="IH8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="II8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.55</v>
+      </c>
+      <c r="IJ8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.55</v>
+      </c>
+      <c r="IK8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="IL8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="IM8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="IN8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.35</v>
+      </c>
+      <c r="IO8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.35</v>
+      </c>
+      <c r="IP8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="IQ8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.25</v>
+      </c>
+      <c r="IR8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.2</v>
+      </c>
+      <c r="IS8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.2</v>
+      </c>
+      <c r="IT8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.15</v>
+      </c>
+      <c r="IU8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.1</v>
+      </c>
+      <c r="IV8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.05</v>
+      </c>
+      <c r="IW8" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="IX8" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="IY8" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9499999999999997</v>
+      </c>
+      <c r="IZ8" s="3">
+        <f t="shared" ref="IZ8:LK8" si="6">IZ3*5</f>
+        <v>2.9</v>
+      </c>
+      <c r="JA8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="JB8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="JC8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="JD8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.75</v>
+      </c>
+      <c r="JE8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="JF8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="JG8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.6</v>
+      </c>
+      <c r="JH8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.6</v>
+      </c>
+      <c r="JI8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="JJ8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="JK8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="JL8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.4</v>
+      </c>
+      <c r="JM8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.4</v>
+      </c>
+      <c r="JN8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="JO8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="JP8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.25</v>
+      </c>
+      <c r="JQ8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="JR8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="JS8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.15</v>
+      </c>
+      <c r="JT8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1</v>
+      </c>
+      <c r="JU8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="JV8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="JW8" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="JX8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="JY8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.9</v>
+      </c>
+      <c r="JZ8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.9</v>
+      </c>
+      <c r="KA8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.85</v>
+      </c>
+      <c r="KB8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="KC8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.75</v>
+      </c>
+      <c r="KD8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.75</v>
+      </c>
+      <c r="KE8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="KF8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="KG8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="KH8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+      <c r="KI8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.55</v>
+      </c>
+      <c r="KJ8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.55</v>
+      </c>
+      <c r="KK8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="KL8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.45</v>
+      </c>
+      <c r="KM8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.45</v>
+      </c>
+      <c r="KN8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="KO8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.35</v>
+      </c>
+      <c r="KP8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.35</v>
+      </c>
+      <c r="KQ8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="KR8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="KS8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="KT8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="KU8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="KV8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="KW8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="KX8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="KY8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="KZ8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.05</v>
+      </c>
+      <c r="LA8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.05</v>
+      </c>
+      <c r="LB8" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="LC8" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="LD8" s="3">
+        <f t="shared" si="6"/>
+        <v>0.95</v>
+      </c>
+      <c r="LE8" s="3">
+        <f t="shared" si="6"/>
+        <v>0.95</v>
+      </c>
+      <c r="LF8" s="3">
+        <f t="shared" si="6"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="LG8" s="3">
+        <f t="shared" si="6"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="LH8" s="3">
+        <f t="shared" si="6"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="LI8" s="3">
+        <f t="shared" si="6"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="LJ8" s="3">
+        <f t="shared" si="6"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="LK8" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="LL8" s="3">
+        <f t="shared" ref="LL8:NC8" si="7">LL3*5</f>
+        <v>0.8</v>
+      </c>
+      <c r="LM8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="LN8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="LO8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="LP8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="LQ8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="LR8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="LS8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="LT8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="LU8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="LV8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="LW8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="LX8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="LY8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="LZ8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="MA8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="MB8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="MC8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="MD8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="ME8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="MF8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="MG8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="MH8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="MI8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="MJ8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="MK8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="ML8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="MM8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="MN8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="MO8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="MP8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="MQ8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="MR8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="MS8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="MT8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="MU8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="MV8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="MW8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="MX8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="MY8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="MZ8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="NA8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="NB8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="NC8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
     </row>
     <row r="9" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="2"/>
-      <c r="BJ9" s="2"/>
-      <c r="BK9" s="2"/>
-      <c r="BL9" s="2"/>
-      <c r="BM9" s="2"/>
-      <c r="BN9" s="2"/>
-      <c r="BO9" s="2"/>
-      <c r="BP9" s="2"/>
-      <c r="BQ9" s="2"/>
-      <c r="BR9" s="2"/>
-      <c r="BS9" s="2"/>
-      <c r="BT9" s="2"/>
-      <c r="BU9" s="2"/>
-      <c r="BV9" s="2"/>
-      <c r="BW9" s="2"/>
-      <c r="BX9" s="2"/>
-      <c r="BY9" s="2"/>
-      <c r="BZ9" s="2"/>
-      <c r="CA9" s="2"/>
-      <c r="CB9" s="2"/>
-      <c r="CC9" s="2"/>
-      <c r="CD9" s="2"/>
-      <c r="CE9" s="2"/>
-      <c r="CF9" s="2"/>
-      <c r="CG9" s="2"/>
-      <c r="CH9" s="2"/>
-      <c r="CI9" s="2"/>
-      <c r="CJ9" s="2"/>
-      <c r="CK9" s="2"/>
-      <c r="CL9" s="2"/>
-      <c r="CM9" s="2"/>
-      <c r="CN9" s="2"/>
-      <c r="CO9" s="2"/>
-      <c r="CP9" s="2"/>
-      <c r="CQ9" s="2"/>
-      <c r="CR9" s="2"/>
-      <c r="CS9" s="2"/>
-      <c r="CT9" s="2"/>
-      <c r="CU9" s="2"/>
-      <c r="CV9" s="2"/>
-      <c r="CW9" s="2"/>
-      <c r="CX9" s="2"/>
-      <c r="CY9" s="2"/>
-      <c r="CZ9" s="2"/>
-      <c r="DA9" s="2"/>
-      <c r="DB9" s="2"/>
-      <c r="DC9" s="2"/>
-      <c r="DD9" s="2"/>
-      <c r="DE9" s="2"/>
-      <c r="DF9" s="2"/>
-      <c r="DG9" s="2"/>
-      <c r="DH9" s="2"/>
-      <c r="DI9" s="2"/>
-      <c r="DJ9" s="2"/>
-      <c r="DK9" s="2"/>
-      <c r="DL9" s="2"/>
-      <c r="DM9" s="2"/>
-      <c r="DN9" s="2"/>
-      <c r="DO9" s="2"/>
-      <c r="DP9" s="2"/>
-      <c r="DQ9" s="2"/>
-      <c r="DR9" s="2"/>
-      <c r="DS9" s="2"/>
-      <c r="DT9" s="2"/>
-      <c r="DU9" s="2"/>
-      <c r="DV9" s="2"/>
-      <c r="DW9" s="2"/>
-      <c r="DX9" s="2"/>
-      <c r="DY9" s="2"/>
-      <c r="DZ9" s="2"/>
-      <c r="EA9" s="2"/>
-      <c r="EB9" s="2"/>
-      <c r="EC9" s="2"/>
-      <c r="ED9" s="2"/>
-      <c r="EE9" s="2"/>
-      <c r="EF9" s="2"/>
-      <c r="EG9" s="2"/>
-      <c r="EH9" s="2"/>
-      <c r="EI9" s="2"/>
-      <c r="EJ9" s="2"/>
-      <c r="EK9" s="2"/>
-      <c r="EL9" s="2"/>
-      <c r="EM9" s="2"/>
-      <c r="EN9" s="2"/>
-      <c r="EO9" s="2"/>
-      <c r="EP9" s="2"/>
-      <c r="EQ9" s="2"/>
-      <c r="ER9" s="2"/>
-      <c r="ES9" s="2"/>
-      <c r="ET9" s="2"/>
-      <c r="EU9" s="2"/>
-      <c r="EV9" s="2"/>
-      <c r="EW9" s="2"/>
-      <c r="EX9" s="2"/>
-      <c r="EY9" s="2"/>
-      <c r="EZ9" s="2"/>
-      <c r="FA9" s="2"/>
-      <c r="FB9" s="2"/>
-      <c r="FC9" s="2"/>
-      <c r="FD9" s="2"/>
-      <c r="FE9" s="2"/>
-      <c r="FF9" s="2"/>
-      <c r="FG9" s="2"/>
-      <c r="FH9" s="2"/>
-      <c r="FI9" s="2"/>
-      <c r="FJ9" s="2"/>
-      <c r="FK9" s="2"/>
-      <c r="FL9" s="2"/>
-      <c r="FM9" s="2"/>
-      <c r="FN9" s="2"/>
-      <c r="FO9" s="2"/>
-      <c r="FP9" s="2"/>
-      <c r="FQ9" s="2"/>
-      <c r="FR9" s="2"/>
-      <c r="FS9" s="2"/>
-      <c r="FT9" s="2"/>
-      <c r="FU9" s="2"/>
-      <c r="FV9" s="2"/>
-      <c r="FW9" s="2"/>
-      <c r="FX9" s="2"/>
-      <c r="FY9" s="2"/>
-      <c r="FZ9" s="2"/>
-      <c r="GA9" s="2"/>
-      <c r="GB9" s="2"/>
-      <c r="GC9" s="2"/>
-      <c r="GD9" s="2"/>
-      <c r="GE9" s="2"/>
-      <c r="GF9" s="2"/>
-      <c r="GG9" s="2"/>
-      <c r="GH9" s="2"/>
-      <c r="GI9" s="2"/>
-      <c r="GJ9" s="2"/>
-      <c r="GK9" s="2"/>
-      <c r="GL9" s="2"/>
-      <c r="GM9" s="2"/>
-      <c r="GN9" s="2"/>
-      <c r="GO9" s="2"/>
-      <c r="GP9" s="2"/>
-      <c r="GQ9" s="2"/>
-      <c r="GR9" s="2"/>
-      <c r="GS9" s="2"/>
-      <c r="GT9" s="2"/>
-      <c r="GU9" s="2"/>
-      <c r="GV9" s="2"/>
-      <c r="GW9" s="2"/>
-      <c r="GX9" s="2"/>
-      <c r="GY9" s="2"/>
-      <c r="GZ9" s="2"/>
-      <c r="HA9" s="2"/>
-      <c r="HB9" s="2"/>
-      <c r="HC9" s="2"/>
-      <c r="HD9" s="2"/>
-      <c r="HE9" s="2"/>
-      <c r="HF9" s="2"/>
-      <c r="HG9" s="2"/>
-      <c r="HH9" s="2"/>
-      <c r="HI9" s="2"/>
-      <c r="HJ9" s="2"/>
-      <c r="HK9" s="2"/>
-      <c r="HL9" s="2"/>
-      <c r="HM9" s="2"/>
-      <c r="HN9" s="2"/>
-      <c r="HO9" s="2"/>
-      <c r="HP9" s="2"/>
-      <c r="HQ9" s="2"/>
-      <c r="HR9" s="2"/>
-      <c r="HS9" s="2"/>
-      <c r="HT9" s="2"/>
-      <c r="HU9" s="2"/>
-      <c r="HV9" s="2"/>
-      <c r="HW9" s="2"/>
-      <c r="HX9" s="2"/>
-      <c r="HY9" s="2"/>
-      <c r="HZ9" s="2"/>
-      <c r="IA9" s="2"/>
-      <c r="IB9" s="2"/>
-      <c r="IC9" s="2"/>
-      <c r="ID9" s="2"/>
-      <c r="IE9" s="2"/>
-      <c r="IF9" s="2"/>
-      <c r="IG9" s="2"/>
-      <c r="IH9" s="2"/>
-      <c r="II9" s="2"/>
-      <c r="IJ9" s="2"/>
-      <c r="IK9" s="2"/>
-      <c r="IL9" s="2"/>
-      <c r="IM9" s="2"/>
-      <c r="IN9" s="2"/>
-      <c r="IO9" s="2"/>
-      <c r="IP9" s="2"/>
-      <c r="IQ9" s="2"/>
-      <c r="IR9" s="2"/>
-      <c r="IS9" s="2"/>
-      <c r="IT9" s="2"/>
-      <c r="IU9" s="2"/>
-      <c r="IV9" s="2"/>
-      <c r="IW9" s="2"/>
-      <c r="IX9" s="2"/>
-      <c r="IY9" s="2"/>
-      <c r="IZ9" s="2"/>
-      <c r="JA9" s="2"/>
-      <c r="JB9" s="2"/>
-      <c r="JC9" s="2"/>
-      <c r="JD9" s="2"/>
-      <c r="JE9" s="2"/>
-      <c r="JF9" s="2"/>
-      <c r="JG9" s="2"/>
-      <c r="JH9" s="2"/>
-      <c r="JI9" s="2"/>
-      <c r="JJ9" s="2"/>
-      <c r="JK9" s="2"/>
-      <c r="JL9" s="2"/>
-      <c r="JM9" s="2"/>
-      <c r="JN9" s="2"/>
-      <c r="JO9" s="2"/>
-      <c r="JP9" s="2"/>
-      <c r="JQ9" s="2"/>
-      <c r="JR9" s="2"/>
-      <c r="JS9" s="2"/>
-      <c r="JT9" s="2"/>
-      <c r="JU9" s="2"/>
-      <c r="JV9" s="2"/>
-      <c r="JW9" s="2"/>
-      <c r="JX9" s="2"/>
-      <c r="JY9" s="2"/>
-      <c r="JZ9" s="2"/>
-      <c r="KA9" s="2"/>
-      <c r="KB9" s="2"/>
-      <c r="KC9" s="2"/>
-      <c r="KD9" s="2"/>
-      <c r="KE9" s="2"/>
-      <c r="KF9" s="2"/>
-      <c r="KG9" s="2"/>
-      <c r="KH9" s="2"/>
-      <c r="KI9" s="2"/>
-      <c r="KJ9" s="2"/>
-      <c r="KK9" s="2"/>
-      <c r="KL9" s="2"/>
-      <c r="KM9" s="2"/>
-      <c r="KN9" s="2"/>
-      <c r="KO9" s="2"/>
-      <c r="KP9" s="2"/>
-      <c r="KQ9" s="2"/>
-      <c r="KR9" s="2"/>
-      <c r="KS9" s="2"/>
-      <c r="KT9" s="2"/>
-      <c r="KU9" s="2"/>
-      <c r="KV9" s="2"/>
-      <c r="KW9" s="2"/>
-      <c r="KX9" s="2"/>
-      <c r="KY9" s="2"/>
-      <c r="KZ9" s="2"/>
-      <c r="LA9" s="2"/>
-      <c r="LB9" s="2"/>
-      <c r="LC9" s="2"/>
-      <c r="LD9" s="2"/>
-      <c r="LE9" s="2"/>
-      <c r="LF9" s="2"/>
-      <c r="LG9" s="2"/>
-      <c r="LH9" s="2"/>
-      <c r="LI9" s="2"/>
-      <c r="LJ9" s="2"/>
-      <c r="LK9" s="2"/>
-      <c r="LL9" s="2"/>
-      <c r="LM9" s="2"/>
-      <c r="LN9" s="2"/>
-      <c r="LO9" s="2"/>
-      <c r="LP9" s="2"/>
-      <c r="LQ9" s="2"/>
-      <c r="LR9" s="2"/>
-      <c r="LS9" s="2"/>
-      <c r="LT9" s="2"/>
-      <c r="LU9" s="2"/>
-      <c r="LV9" s="2"/>
-      <c r="LW9" s="2"/>
-      <c r="LX9" s="2"/>
-      <c r="LY9" s="2"/>
-      <c r="LZ9" s="2"/>
-      <c r="MA9" s="2"/>
-      <c r="MB9" s="2"/>
-      <c r="MC9" s="2"/>
-      <c r="MD9" s="2"/>
-      <c r="ME9" s="2"/>
-      <c r="MF9" s="2"/>
-      <c r="MG9" s="2"/>
-      <c r="MH9" s="2"/>
-      <c r="MI9" s="2"/>
-      <c r="MJ9" s="2"/>
-      <c r="MK9" s="2"/>
-      <c r="ML9" s="2"/>
-      <c r="MM9" s="2"/>
-      <c r="MN9" s="2"/>
-      <c r="MO9" s="2"/>
-      <c r="MP9" s="2"/>
-      <c r="MQ9" s="2"/>
-      <c r="MR9" s="2"/>
-      <c r="MS9" s="2"/>
-      <c r="MT9" s="2"/>
-      <c r="MU9" s="2"/>
-      <c r="MV9" s="2"/>
-      <c r="MW9" s="2"/>
-      <c r="MX9" s="2"/>
-      <c r="MY9" s="2"/>
-      <c r="MZ9" s="2"/>
-      <c r="NA9" s="2"/>
-      <c r="NB9" s="2"/>
-      <c r="NC9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3">
+        <f>C2*5</f>
+        <v>4.5</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ref="D9:BO9" si="8">D2*5</f>
+        <v>4.5</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.45</v>
+      </c>
+      <c r="T9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.45</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.45</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.45</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.45</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.45</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.45</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.45</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.45</v>
+      </c>
+      <c r="AB9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.45</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.45</v>
+      </c>
+      <c r="AD9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AE9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AF9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AH9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AI9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AK9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AL9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AM9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AN9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AO9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AP9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AQ9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AR9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.3</v>
+      </c>
+      <c r="AS9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.3</v>
+      </c>
+      <c r="AT9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.3</v>
+      </c>
+      <c r="AU9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.3</v>
+      </c>
+      <c r="AV9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.3</v>
+      </c>
+      <c r="AW9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.3</v>
+      </c>
+      <c r="AX9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
+      </c>
+      <c r="AY9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
+      </c>
+      <c r="AZ9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
+      </c>
+      <c r="BA9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
+      </c>
+      <c r="BB9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
+      </c>
+      <c r="BC9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.2</v>
+      </c>
+      <c r="BD9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.2</v>
+      </c>
+      <c r="BE9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.2</v>
+      </c>
+      <c r="BF9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.2</v>
+      </c>
+      <c r="BG9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.2</v>
+      </c>
+      <c r="BH9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="BI9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="BJ9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="BK9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="BL9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BM9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BN9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BO9" s="3">
+        <f t="shared" si="8"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BP9" s="3">
+        <f t="shared" ref="BP9:EA9" si="9">BP2*5</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BQ9" s="3">
+        <f t="shared" si="9"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="BR9" s="3">
+        <f t="shared" si="9"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="BS9" s="3">
+        <f t="shared" si="9"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="BT9" s="3">
+        <f t="shared" si="9"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="BU9" s="3">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="BV9" s="3">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="BW9" s="3">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="BX9" s="3">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="BY9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.95</v>
+      </c>
+      <c r="BZ9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.95</v>
+      </c>
+      <c r="CA9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.95</v>
+      </c>
+      <c r="CB9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.95</v>
+      </c>
+      <c r="CC9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="CD9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="CE9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="CF9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="CG9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.85</v>
+      </c>
+      <c r="CH9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.85</v>
+      </c>
+      <c r="CI9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.85</v>
+      </c>
+      <c r="CJ9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.85</v>
+      </c>
+      <c r="CK9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.8</v>
+      </c>
+      <c r="CL9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.8</v>
+      </c>
+      <c r="CM9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.8</v>
+      </c>
+      <c r="CN9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.8</v>
+      </c>
+      <c r="CO9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.75</v>
+      </c>
+      <c r="CP9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.75</v>
+      </c>
+      <c r="CQ9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.75</v>
+      </c>
+      <c r="CR9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.75</v>
+      </c>
+      <c r="CS9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.7</v>
+      </c>
+      <c r="CT9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.7</v>
+      </c>
+      <c r="CU9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.7</v>
+      </c>
+      <c r="CV9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.7</v>
+      </c>
+      <c r="CW9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.65</v>
+      </c>
+      <c r="CX9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.65</v>
+      </c>
+      <c r="CY9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.65</v>
+      </c>
+      <c r="CZ9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="DA9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="DB9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="DC9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="DD9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.55</v>
+      </c>
+      <c r="DE9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.55</v>
+      </c>
+      <c r="DF9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.55</v>
+      </c>
+      <c r="DG9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.55</v>
+      </c>
+      <c r="DH9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="DI9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="DJ9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="DK9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="DL9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="DM9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="DN9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="DO9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="DP9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="DQ9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="DR9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="DS9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="DT9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="DU9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.35</v>
+      </c>
+      <c r="DV9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.35</v>
+      </c>
+      <c r="DW9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.35</v>
+      </c>
+      <c r="DX9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.35</v>
+      </c>
+      <c r="DY9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.35</v>
+      </c>
+      <c r="DZ9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="EA9" s="3">
+        <f t="shared" si="9"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="EB9" s="3">
+        <f t="shared" ref="EB9:GM9" si="10">EB2*5</f>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="EC9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="ED9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="EE9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.25</v>
+      </c>
+      <c r="EF9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.25</v>
+      </c>
+      <c r="EG9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.25</v>
+      </c>
+      <c r="EH9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.25</v>
+      </c>
+      <c r="EI9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.25</v>
+      </c>
+      <c r="EJ9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.2</v>
+      </c>
+      <c r="EK9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.2</v>
+      </c>
+      <c r="EL9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.2</v>
+      </c>
+      <c r="EM9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.2</v>
+      </c>
+      <c r="EN9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.2</v>
+      </c>
+      <c r="EO9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.15</v>
+      </c>
+      <c r="EP9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.15</v>
+      </c>
+      <c r="EQ9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.15</v>
+      </c>
+      <c r="ER9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.15</v>
+      </c>
+      <c r="ES9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.15</v>
+      </c>
+      <c r="ET9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.15</v>
+      </c>
+      <c r="EU9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.15</v>
+      </c>
+      <c r="EV9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.1</v>
+      </c>
+      <c r="EW9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.1</v>
+      </c>
+      <c r="EX9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.1</v>
+      </c>
+      <c r="EY9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.1</v>
+      </c>
+      <c r="EZ9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.1</v>
+      </c>
+      <c r="FA9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.1</v>
+      </c>
+      <c r="FB9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.1</v>
+      </c>
+      <c r="FC9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.1</v>
+      </c>
+      <c r="FD9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.05</v>
+      </c>
+      <c r="FE9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.05</v>
+      </c>
+      <c r="FF9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.05</v>
+      </c>
+      <c r="FG9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.05</v>
+      </c>
+      <c r="FH9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.05</v>
+      </c>
+      <c r="FI9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.05</v>
+      </c>
+      <c r="FJ9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.05</v>
+      </c>
+      <c r="FK9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.05</v>
+      </c>
+      <c r="FL9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.05</v>
+      </c>
+      <c r="FM9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.05</v>
+      </c>
+      <c r="FN9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.05</v>
+      </c>
+      <c r="FO9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="FP9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="FQ9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="FR9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="FS9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="FT9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="FU9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="FV9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="FW9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="FX9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="FY9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="FZ9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="GA9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="GB9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="GC9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="GD9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="GE9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="GF9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="GG9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="GH9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="GI9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="GJ9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="GK9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="GL9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="GM9" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="GN9" s="3">
+        <f t="shared" ref="GN9:IY9" si="11">GN2*5</f>
+        <v>3</v>
+      </c>
+      <c r="GO9" s="3">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="GP9" s="3">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="GQ9" s="3">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="GR9" s="3">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="GS9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.05</v>
+      </c>
+      <c r="GT9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.05</v>
+      </c>
+      <c r="GU9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.05</v>
+      </c>
+      <c r="GV9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.05</v>
+      </c>
+      <c r="GW9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.05</v>
+      </c>
+      <c r="GX9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.05</v>
+      </c>
+      <c r="GY9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.05</v>
+      </c>
+      <c r="GZ9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.05</v>
+      </c>
+      <c r="HA9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.05</v>
+      </c>
+      <c r="HB9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.05</v>
+      </c>
+      <c r="HC9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.05</v>
+      </c>
+      <c r="HD9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.1</v>
+      </c>
+      <c r="HE9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.1</v>
+      </c>
+      <c r="HF9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.1</v>
+      </c>
+      <c r="HG9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.1</v>
+      </c>
+      <c r="HH9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.1</v>
+      </c>
+      <c r="HI9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.1</v>
+      </c>
+      <c r="HJ9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.1</v>
+      </c>
+      <c r="HK9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.1</v>
+      </c>
+      <c r="HL9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.15</v>
+      </c>
+      <c r="HM9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.15</v>
+      </c>
+      <c r="HN9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.15</v>
+      </c>
+      <c r="HO9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.15</v>
+      </c>
+      <c r="HP9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.15</v>
+      </c>
+      <c r="HQ9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.15</v>
+      </c>
+      <c r="HR9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.15</v>
+      </c>
+      <c r="HS9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.2</v>
+      </c>
+      <c r="HT9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.2</v>
+      </c>
+      <c r="HU9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.2</v>
+      </c>
+      <c r="HV9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.2</v>
+      </c>
+      <c r="HW9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.2</v>
+      </c>
+      <c r="HX9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.25</v>
+      </c>
+      <c r="HY9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.25</v>
+      </c>
+      <c r="HZ9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.25</v>
+      </c>
+      <c r="IA9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.25</v>
+      </c>
+      <c r="IB9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.25</v>
+      </c>
+      <c r="IC9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="ID9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="IE9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="IF9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="IG9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="IH9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.35</v>
+      </c>
+      <c r="II9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.35</v>
+      </c>
+      <c r="IJ9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.35</v>
+      </c>
+      <c r="IK9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.35</v>
+      </c>
+      <c r="IL9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.35</v>
+      </c>
+      <c r="IM9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="IN9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="IO9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="IP9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="IQ9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="IR9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="IS9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="IT9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="IU9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="IV9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="IW9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="IX9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="IY9" s="3">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="IZ9" s="3">
+        <f t="shared" ref="IZ9:LK9" si="12">IZ2*5</f>
+        <v>3.55</v>
+      </c>
+      <c r="JA9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.55</v>
+      </c>
+      <c r="JB9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.55</v>
+      </c>
+      <c r="JC9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.55</v>
+      </c>
+      <c r="JD9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="JE9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="JF9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="JG9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="JH9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.65</v>
+      </c>
+      <c r="JI9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.65</v>
+      </c>
+      <c r="JJ9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.65</v>
+      </c>
+      <c r="JK9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.7</v>
+      </c>
+      <c r="JL9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.7</v>
+      </c>
+      <c r="JM9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.7</v>
+      </c>
+      <c r="JN9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.7</v>
+      </c>
+      <c r="JO9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.75</v>
+      </c>
+      <c r="JP9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.75</v>
+      </c>
+      <c r="JQ9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.75</v>
+      </c>
+      <c r="JR9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.75</v>
+      </c>
+      <c r="JS9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.8</v>
+      </c>
+      <c r="JT9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.8</v>
+      </c>
+      <c r="JU9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.8</v>
+      </c>
+      <c r="JV9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.8</v>
+      </c>
+      <c r="JW9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.85</v>
+      </c>
+      <c r="JX9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.85</v>
+      </c>
+      <c r="JY9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.85</v>
+      </c>
+      <c r="JZ9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.85</v>
+      </c>
+      <c r="KA9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="KB9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="KC9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="KD9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="KE9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.95</v>
+      </c>
+      <c r="KF9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.95</v>
+      </c>
+      <c r="KG9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.95</v>
+      </c>
+      <c r="KH9" s="3">
+        <f t="shared" si="12"/>
+        <v>3.95</v>
+      </c>
+      <c r="KI9" s="3">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="KJ9" s="3">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="KK9" s="3">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="KL9" s="3">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="KM9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="KN9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="KO9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="KP9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="KQ9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="KR9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="KS9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="KT9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="KU9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="KV9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="KW9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="KX9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="KY9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="KZ9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.2</v>
+      </c>
+      <c r="LA9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.2</v>
+      </c>
+      <c r="LB9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.2</v>
+      </c>
+      <c r="LC9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.2</v>
+      </c>
+      <c r="LD9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.2</v>
+      </c>
+      <c r="LE9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.25</v>
+      </c>
+      <c r="LF9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.25</v>
+      </c>
+      <c r="LG9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.25</v>
+      </c>
+      <c r="LH9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.25</v>
+      </c>
+      <c r="LI9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.25</v>
+      </c>
+      <c r="LJ9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.3</v>
+      </c>
+      <c r="LK9" s="3">
+        <f t="shared" si="12"/>
+        <v>4.3</v>
+      </c>
+      <c r="LL9" s="3">
+        <f t="shared" ref="LL9:NC9" si="13">LL2*5</f>
+        <v>4.3</v>
+      </c>
+      <c r="LM9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.3</v>
+      </c>
+      <c r="LN9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.3</v>
+      </c>
+      <c r="LO9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.3</v>
+      </c>
+      <c r="LP9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="LQ9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="LR9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="LS9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="LT9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="LU9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="LV9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="LW9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="LX9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="LY9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="LZ9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="MA9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="MB9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="MC9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="MD9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.45</v>
+      </c>
+      <c r="ME9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.45</v>
+      </c>
+      <c r="MF9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.45</v>
+      </c>
+      <c r="MG9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.45</v>
+      </c>
+      <c r="MH9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.45</v>
+      </c>
+      <c r="MI9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.45</v>
+      </c>
+      <c r="MJ9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.45</v>
+      </c>
+      <c r="MK9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.45</v>
+      </c>
+      <c r="ML9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.45</v>
+      </c>
+      <c r="MM9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.45</v>
+      </c>
+      <c r="MN9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.45</v>
+      </c>
+      <c r="MO9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="MP9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="MQ9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="MR9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="MS9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="MT9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="MU9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="MV9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="MW9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="MX9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="MY9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="MZ9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="NA9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="NB9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="NC9" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="10" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="2"/>
-      <c r="BG10" s="2"/>
-      <c r="BH10" s="2"/>
-      <c r="BI10" s="2"/>
-      <c r="BJ10" s="2"/>
-      <c r="BK10" s="2"/>
-      <c r="BL10" s="2"/>
-      <c r="BM10" s="2"/>
-      <c r="BN10" s="2"/>
-      <c r="BO10" s="2"/>
-      <c r="BP10" s="2"/>
-      <c r="BQ10" s="2"/>
-      <c r="BR10" s="2"/>
-      <c r="BS10" s="2"/>
-      <c r="BT10" s="2"/>
-      <c r="BU10" s="2"/>
-      <c r="BV10" s="2"/>
-      <c r="BW10" s="2"/>
-      <c r="BX10" s="2"/>
-      <c r="BY10" s="2"/>
-      <c r="BZ10" s="2"/>
-      <c r="CA10" s="2"/>
-      <c r="CB10" s="2"/>
-      <c r="CC10" s="2"/>
-      <c r="CD10" s="2"/>
-      <c r="CE10" s="2"/>
-      <c r="CF10" s="2"/>
-      <c r="CG10" s="2"/>
-      <c r="CH10" s="2"/>
-      <c r="CI10" s="2"/>
-      <c r="CJ10" s="2"/>
-      <c r="CK10" s="2"/>
-      <c r="CL10" s="2"/>
-      <c r="CM10" s="2"/>
-      <c r="CN10" s="2"/>
-      <c r="CO10" s="2"/>
-      <c r="CP10" s="2"/>
-      <c r="CQ10" s="2"/>
-      <c r="CR10" s="2"/>
-      <c r="CS10" s="2"/>
-      <c r="CT10" s="2"/>
-      <c r="CU10" s="2"/>
-      <c r="CV10" s="2"/>
-      <c r="CW10" s="2"/>
-      <c r="CX10" s="2"/>
-      <c r="CY10" s="2"/>
-      <c r="CZ10" s="2"/>
-      <c r="DA10" s="2"/>
-      <c r="DB10" s="2"/>
-      <c r="DC10" s="2"/>
-      <c r="DD10" s="2"/>
-      <c r="DE10" s="2"/>
-      <c r="DF10" s="2"/>
-      <c r="DG10" s="2"/>
-      <c r="DH10" s="2"/>
-      <c r="DI10" s="2"/>
-      <c r="DJ10" s="2"/>
-      <c r="DK10" s="2"/>
-      <c r="DL10" s="2"/>
-      <c r="DM10" s="2"/>
-      <c r="DN10" s="2"/>
-      <c r="DO10" s="2"/>
-      <c r="DP10" s="2"/>
-      <c r="DQ10" s="2"/>
-      <c r="DR10" s="2"/>
-      <c r="DS10" s="2"/>
-      <c r="DT10" s="2"/>
-      <c r="DU10" s="2"/>
-      <c r="DV10" s="2"/>
-      <c r="DW10" s="2"/>
-      <c r="DX10" s="2"/>
-      <c r="DY10" s="2"/>
-      <c r="DZ10" s="2"/>
-      <c r="EA10" s="2"/>
-      <c r="EB10" s="2"/>
-      <c r="EC10" s="2"/>
-      <c r="ED10" s="2"/>
-      <c r="EE10" s="2"/>
-      <c r="EF10" s="2"/>
-      <c r="EG10" s="2"/>
-      <c r="EH10" s="2"/>
-      <c r="EI10" s="2"/>
-      <c r="EJ10" s="2"/>
-      <c r="EK10" s="2"/>
-      <c r="EL10" s="2"/>
-      <c r="EM10" s="2"/>
-      <c r="EN10" s="2"/>
-      <c r="EO10" s="2"/>
-      <c r="EP10" s="2"/>
-      <c r="EQ10" s="2"/>
-      <c r="ER10" s="2"/>
-      <c r="ES10" s="2"/>
-      <c r="ET10" s="2"/>
-      <c r="EU10" s="2"/>
-      <c r="EV10" s="2"/>
-      <c r="EW10" s="2"/>
-      <c r="EX10" s="2"/>
-      <c r="EY10" s="2"/>
-      <c r="EZ10" s="2"/>
-      <c r="FA10" s="2"/>
-      <c r="FB10" s="2"/>
-      <c r="FC10" s="2"/>
-      <c r="FD10" s="2"/>
-      <c r="FE10" s="2"/>
-      <c r="FF10" s="2"/>
-      <c r="FG10" s="2"/>
-      <c r="FH10" s="2"/>
-      <c r="FI10" s="2"/>
-      <c r="FJ10" s="2"/>
-      <c r="FK10" s="2"/>
-      <c r="FL10" s="2"/>
-      <c r="FM10" s="2"/>
-      <c r="FN10" s="2"/>
-      <c r="FO10" s="2"/>
-      <c r="FP10" s="2"/>
-      <c r="FQ10" s="2"/>
-      <c r="FR10" s="2"/>
-      <c r="FS10" s="2"/>
-      <c r="FT10" s="2"/>
-      <c r="FU10" s="2"/>
-      <c r="FV10" s="2"/>
-      <c r="FW10" s="2"/>
-      <c r="FX10" s="2"/>
-      <c r="FY10" s="2"/>
-      <c r="FZ10" s="2"/>
-      <c r="GA10" s="2"/>
-      <c r="GB10" s="2"/>
-      <c r="GC10" s="2"/>
-      <c r="GD10" s="2"/>
-      <c r="GE10" s="2"/>
-      <c r="GF10" s="2"/>
-      <c r="GG10" s="2"/>
-      <c r="GH10" s="2"/>
-      <c r="GI10" s="2"/>
-      <c r="GJ10" s="2"/>
-      <c r="GK10" s="2"/>
-      <c r="GL10" s="2"/>
-      <c r="GM10" s="2"/>
-      <c r="GN10" s="2"/>
-      <c r="GO10" s="2"/>
-      <c r="GP10" s="2"/>
-      <c r="GQ10" s="2"/>
-      <c r="GR10" s="2"/>
-      <c r="GS10" s="2"/>
-      <c r="GT10" s="2"/>
-      <c r="GU10" s="2"/>
-      <c r="GV10" s="2"/>
-      <c r="GW10" s="2"/>
-      <c r="GX10" s="2"/>
-      <c r="GY10" s="2"/>
-      <c r="GZ10" s="2"/>
-      <c r="HA10" s="2"/>
-      <c r="HB10" s="2"/>
-      <c r="HC10" s="2"/>
-      <c r="HD10" s="2"/>
-      <c r="HE10" s="2"/>
-      <c r="HF10" s="2"/>
-      <c r="HG10" s="2"/>
-      <c r="HH10" s="2"/>
-      <c r="HI10" s="2"/>
-      <c r="HJ10" s="2"/>
-      <c r="HK10" s="2"/>
-      <c r="HL10" s="2"/>
-      <c r="HM10" s="2"/>
-      <c r="HN10" s="2"/>
-      <c r="HO10" s="2"/>
-      <c r="HP10" s="2"/>
-      <c r="HQ10" s="2"/>
-      <c r="HR10" s="2"/>
-      <c r="HS10" s="2"/>
-      <c r="HT10" s="2"/>
-      <c r="HU10" s="2"/>
-      <c r="HV10" s="2"/>
-      <c r="HW10" s="2"/>
-      <c r="HX10" s="2"/>
-      <c r="HY10" s="2"/>
-      <c r="HZ10" s="2"/>
-      <c r="IA10" s="2"/>
-      <c r="IB10" s="2"/>
-      <c r="IC10" s="2"/>
-      <c r="ID10" s="2"/>
-      <c r="IE10" s="2"/>
-      <c r="IF10" s="2"/>
-      <c r="IG10" s="2"/>
-      <c r="IH10" s="2"/>
-      <c r="II10" s="2"/>
-      <c r="IJ10" s="2"/>
-      <c r="IK10" s="2"/>
-      <c r="IL10" s="2"/>
-      <c r="IM10" s="2"/>
-      <c r="IN10" s="2"/>
-      <c r="IO10" s="2"/>
-      <c r="IP10" s="2"/>
-      <c r="IQ10" s="2"/>
-      <c r="IR10" s="2"/>
-      <c r="IS10" s="2"/>
-      <c r="IT10" s="2"/>
-      <c r="IU10" s="2"/>
-      <c r="IV10" s="2"/>
-      <c r="IW10" s="2"/>
-      <c r="IX10" s="2"/>
-      <c r="IY10" s="2"/>
-      <c r="IZ10" s="2"/>
-      <c r="JA10" s="2"/>
-      <c r="JB10" s="2"/>
-      <c r="JC10" s="2"/>
-      <c r="JD10" s="2"/>
-      <c r="JE10" s="2"/>
-      <c r="JF10" s="2"/>
-      <c r="JG10" s="2"/>
-      <c r="JH10" s="2"/>
-      <c r="JI10" s="2"/>
-      <c r="JJ10" s="2"/>
-      <c r="JK10" s="2"/>
-      <c r="JL10" s="2"/>
-      <c r="JM10" s="2"/>
-      <c r="JN10" s="2"/>
-      <c r="JO10" s="2"/>
-      <c r="JP10" s="2"/>
-      <c r="JQ10" s="2"/>
-      <c r="JR10" s="2"/>
-      <c r="JS10" s="2"/>
-      <c r="JT10" s="2"/>
-      <c r="JU10" s="2"/>
-      <c r="JV10" s="2"/>
-      <c r="JW10" s="2"/>
-      <c r="JX10" s="2"/>
-      <c r="JY10" s="2"/>
-      <c r="JZ10" s="2"/>
-      <c r="KA10" s="2"/>
-      <c r="KB10" s="2"/>
-      <c r="KC10" s="2"/>
-      <c r="KD10" s="2"/>
-      <c r="KE10" s="2"/>
-      <c r="KF10" s="2"/>
-      <c r="KG10" s="2"/>
-      <c r="KH10" s="2"/>
-      <c r="KI10" s="2"/>
-      <c r="KJ10" s="2"/>
-      <c r="KK10" s="2"/>
-      <c r="KL10" s="2"/>
-      <c r="KM10" s="2"/>
-      <c r="KN10" s="2"/>
-      <c r="KO10" s="2"/>
-      <c r="KP10" s="2"/>
-      <c r="KQ10" s="2"/>
-      <c r="KR10" s="2"/>
-      <c r="KS10" s="2"/>
-      <c r="KT10" s="2"/>
-      <c r="KU10" s="2"/>
-      <c r="KV10" s="2"/>
-      <c r="KW10" s="2"/>
-      <c r="KX10" s="2"/>
-      <c r="KY10" s="2"/>
-      <c r="KZ10" s="2"/>
-      <c r="LA10" s="2"/>
-      <c r="LB10" s="2"/>
-      <c r="LC10" s="2"/>
-      <c r="LD10" s="2"/>
-      <c r="LE10" s="2"/>
-      <c r="LF10" s="2"/>
-      <c r="LG10" s="2"/>
-      <c r="LH10" s="2"/>
-      <c r="LI10" s="2"/>
-      <c r="LJ10" s="2"/>
-      <c r="LK10" s="2"/>
-      <c r="LL10" s="2"/>
-      <c r="LM10" s="2"/>
-      <c r="LN10" s="2"/>
-      <c r="LO10" s="2"/>
-      <c r="LP10" s="2"/>
-      <c r="LQ10" s="2"/>
-      <c r="LR10" s="2"/>
-      <c r="LS10" s="2"/>
-      <c r="LT10" s="2"/>
-      <c r="LU10" s="2"/>
-      <c r="LV10" s="2"/>
-      <c r="LW10" s="2"/>
-      <c r="LX10" s="2"/>
-      <c r="LY10" s="2"/>
-      <c r="LZ10" s="2"/>
-      <c r="MA10" s="2"/>
-      <c r="MB10" s="2"/>
-      <c r="MC10" s="2"/>
-      <c r="MD10" s="2"/>
-      <c r="ME10" s="2"/>
-      <c r="MF10" s="2"/>
-      <c r="MG10" s="2"/>
-      <c r="MH10" s="2"/>
-      <c r="MI10" s="2"/>
-      <c r="MJ10" s="2"/>
-      <c r="MK10" s="2"/>
-      <c r="ML10" s="2"/>
-      <c r="MM10" s="2"/>
-      <c r="MN10" s="2"/>
-      <c r="MO10" s="2"/>
-      <c r="MP10" s="2"/>
-      <c r="MQ10" s="2"/>
-      <c r="MR10" s="2"/>
-      <c r="MS10" s="2"/>
-      <c r="MT10" s="2"/>
-      <c r="MU10" s="2"/>
-      <c r="MV10" s="2"/>
-      <c r="MW10" s="2"/>
-      <c r="MX10" s="2"/>
-      <c r="MY10" s="2"/>
-      <c r="MZ10" s="2"/>
-      <c r="NA10" s="2"/>
-      <c r="NB10" s="2"/>
-      <c r="NC10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <f>C4*5</f>
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:BO10" si="14">D4*5</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.95</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.95</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.95</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.95</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.95</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.95</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.8</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.8</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.8</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.75</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.75</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.75</v>
+      </c>
+      <c r="AE10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="AF10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="AG10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="AI10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="AK10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="AL10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.55</v>
+      </c>
+      <c r="AM10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.55</v>
+      </c>
+      <c r="AN10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.5</v>
+      </c>
+      <c r="AO10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.5</v>
+      </c>
+      <c r="AP10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.45</v>
+      </c>
+      <c r="AQ10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.45</v>
+      </c>
+      <c r="AR10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AS10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AT10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AU10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.3</v>
+      </c>
+      <c r="AV10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.3</v>
+      </c>
+      <c r="AW10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.25</v>
+      </c>
+      <c r="AX10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.25</v>
+      </c>
+      <c r="AY10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.2</v>
+      </c>
+      <c r="AZ10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="BA10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="BB10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BC10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="BD10" s="2">
+        <f t="shared" si="14"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="BE10" s="2">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="BF10" s="2">
+        <f t="shared" si="14"/>
+        <v>3.95</v>
+      </c>
+      <c r="BG10" s="2">
+        <f t="shared" si="14"/>
+        <v>3.95</v>
+      </c>
+      <c r="BH10" s="2">
+        <f t="shared" si="14"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="BI10" s="2">
+        <f t="shared" si="14"/>
+        <v>3.85</v>
+      </c>
+      <c r="BJ10" s="2">
+        <f t="shared" si="14"/>
+        <v>3.8</v>
+      </c>
+      <c r="BK10" s="2">
+        <f t="shared" si="14"/>
+        <v>3.8</v>
+      </c>
+      <c r="BL10" s="2">
+        <f t="shared" si="14"/>
+        <v>3.75</v>
+      </c>
+      <c r="BM10" s="2">
+        <f t="shared" si="14"/>
+        <v>3.7</v>
+      </c>
+      <c r="BN10" s="2">
+        <f t="shared" si="14"/>
+        <v>3.7</v>
+      </c>
+      <c r="BO10" s="2">
+        <f t="shared" si="14"/>
+        <v>3.65</v>
+      </c>
+      <c r="BP10" s="2">
+        <f t="shared" ref="BP10:EA10" si="15">BP4*5</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="BQ10" s="2">
+        <f t="shared" si="15"/>
+        <v>3.55</v>
+      </c>
+      <c r="BR10" s="2">
+        <f t="shared" si="15"/>
+        <v>3.5</v>
+      </c>
+      <c r="BS10" s="2">
+        <f t="shared" si="15"/>
+        <v>3.5</v>
+      </c>
+      <c r="BT10" s="2">
+        <f t="shared" si="15"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="BU10" s="2">
+        <f t="shared" si="15"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="BV10" s="2">
+        <f t="shared" si="15"/>
+        <v>3.35</v>
+      </c>
+      <c r="BW10" s="2">
+        <f t="shared" si="15"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="BX10" s="2">
+        <f t="shared" si="15"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="BY10" s="2">
+        <f t="shared" si="15"/>
+        <v>3.25</v>
+      </c>
+      <c r="BZ10" s="2">
+        <f t="shared" si="15"/>
+        <v>3.2</v>
+      </c>
+      <c r="CA10" s="2">
+        <f t="shared" si="15"/>
+        <v>3.15</v>
+      </c>
+      <c r="CB10" s="2">
+        <f t="shared" si="15"/>
+        <v>3.1</v>
+      </c>
+      <c r="CC10" s="2">
+        <f t="shared" si="15"/>
+        <v>3.1</v>
+      </c>
+      <c r="CD10" s="2">
+        <f t="shared" si="15"/>
+        <v>3.05</v>
+      </c>
+      <c r="CE10" s="2">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="CF10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.9499999999999997</v>
+      </c>
+      <c r="CG10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.9</v>
+      </c>
+      <c r="CH10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="CI10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="CJ10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="CK10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.75</v>
+      </c>
+      <c r="CL10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.7</v>
+      </c>
+      <c r="CM10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="CN10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.6</v>
+      </c>
+      <c r="CO10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="CP10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="CQ10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.5</v>
+      </c>
+      <c r="CR10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="CS10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.4</v>
+      </c>
+      <c r="CT10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="CU10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="CV10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.25</v>
+      </c>
+      <c r="CW10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.25</v>
+      </c>
+      <c r="CX10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CY10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.15</v>
+      </c>
+      <c r="CZ10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="DA10" s="2">
+        <f t="shared" si="15"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="DB10" s="2">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="DC10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="DD10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="DE10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.9</v>
+      </c>
+      <c r="DF10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.85</v>
+      </c>
+      <c r="DG10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="DH10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.75</v>
+      </c>
+      <c r="DI10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.75</v>
+      </c>
+      <c r="DJ10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="DK10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="DL10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.6</v>
+      </c>
+      <c r="DM10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.55</v>
+      </c>
+      <c r="DN10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.55</v>
+      </c>
+      <c r="DO10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="DP10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.45</v>
+      </c>
+      <c r="DQ10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="DR10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.35</v>
+      </c>
+      <c r="DS10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.35</v>
+      </c>
+      <c r="DT10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.3</v>
+      </c>
+      <c r="DU10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.25</v>
+      </c>
+      <c r="DV10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.25</v>
+      </c>
+      <c r="DW10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.2</v>
+      </c>
+      <c r="DX10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="DY10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="DZ10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="EA10" s="2">
+        <f t="shared" si="15"/>
+        <v>1.05</v>
+      </c>
+      <c r="EB10" s="2">
+        <f t="shared" ref="EB10:GM10" si="16">EB4*5</f>
+        <v>1</v>
+      </c>
+      <c r="EC10" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="ED10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.95</v>
+      </c>
+      <c r="EE10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="EF10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="EG10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="EH10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.8</v>
+      </c>
+      <c r="EI10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.8</v>
+      </c>
+      <c r="EJ10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="EK10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="EL10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="EM10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.65</v>
+      </c>
+      <c r="EN10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.65</v>
+      </c>
+      <c r="EO10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="EP10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="EQ10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="ER10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="ES10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="ET10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="EU10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="EV10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="EW10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="EX10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="EY10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="EZ10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="FA10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="FB10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.3</v>
+      </c>
+      <c r="FC10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.3</v>
+      </c>
+      <c r="FD10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.3</v>
+      </c>
+      <c r="FE10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.25</v>
+      </c>
+      <c r="FF10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.25</v>
+      </c>
+      <c r="FG10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.25</v>
+      </c>
+      <c r="FH10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.2</v>
+      </c>
+      <c r="FI10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.2</v>
+      </c>
+      <c r="FJ10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.2</v>
+      </c>
+      <c r="FK10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.15</v>
+      </c>
+      <c r="FL10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.15</v>
+      </c>
+      <c r="FM10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.15</v>
+      </c>
+      <c r="FN10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.15</v>
+      </c>
+      <c r="FO10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="FP10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="FQ10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="FR10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="FS10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="FT10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="FU10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="FV10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="FW10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="FX10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="FY10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="FZ10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="GA10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="GB10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="GC10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="GD10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="GE10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="GF10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="GG10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="GH10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="GI10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="GJ10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="GK10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="GL10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="GM10" s="2">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="GN10" s="2">
+        <f t="shared" ref="GN10:IY10" si="17">GN4*5</f>
+        <v>0.1</v>
+      </c>
+      <c r="GO10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+      <c r="GP10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+      <c r="GQ10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+      <c r="GR10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.15</v>
+      </c>
+      <c r="GS10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.15</v>
+      </c>
+      <c r="GT10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.15</v>
+      </c>
+      <c r="GU10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.15</v>
+      </c>
+      <c r="GV10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="GW10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="GX10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="GY10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.25</v>
+      </c>
+      <c r="GZ10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.25</v>
+      </c>
+      <c r="HA10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.25</v>
+      </c>
+      <c r="HB10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.3</v>
+      </c>
+      <c r="HC10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.3</v>
+      </c>
+      <c r="HD10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.3</v>
+      </c>
+      <c r="HE10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="HF10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="HG10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="HH10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="HI10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="HJ10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="HK10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="HL10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="HM10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="HN10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="HO10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="HP10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="HQ10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="HR10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.65</v>
+      </c>
+      <c r="HS10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.65</v>
+      </c>
+      <c r="HT10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="HU10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.75</v>
+      </c>
+      <c r="HV10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.75</v>
+      </c>
+      <c r="HW10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="HX10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="HY10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="HZ10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="IA10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="IB10" s="2">
+        <f t="shared" si="17"/>
+        <v>0.95</v>
+      </c>
+      <c r="IC10" s="2">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="ID10" s="2">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="IE10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.05</v>
+      </c>
+      <c r="IF10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="IG10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="IH10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="II10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.2</v>
+      </c>
+      <c r="IJ10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="IK10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="IL10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.3</v>
+      </c>
+      <c r="IM10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.35</v>
+      </c>
+      <c r="IN10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.35</v>
+      </c>
+      <c r="IO10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="IP10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.45</v>
+      </c>
+      <c r="IQ10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="IR10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.55</v>
+      </c>
+      <c r="IS10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.55</v>
+      </c>
+      <c r="IT10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="IU10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="IV10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="IW10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="IX10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="IY10" s="2">
+        <f t="shared" si="17"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="IZ10" s="2">
+        <f t="shared" ref="IZ10:LK10" si="18">IZ4*5</f>
+        <v>1.85</v>
+      </c>
+      <c r="JA10" s="2">
+        <f t="shared" si="18"/>
+        <v>1.9</v>
+      </c>
+      <c r="JB10" s="2">
+        <f t="shared" si="18"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="JC10" s="2">
+        <f t="shared" si="18"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="JD10" s="2">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="JE10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="JF10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.1</v>
+      </c>
+      <c r="JG10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.15</v>
+      </c>
+      <c r="JH10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="JI10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.25</v>
+      </c>
+      <c r="JJ10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.25</v>
+      </c>
+      <c r="JK10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="JL10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="JM10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.4</v>
+      </c>
+      <c r="JN10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="JO10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+      <c r="JP10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="JQ10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="JR10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.6</v>
+      </c>
+      <c r="JS10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="JT10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.7</v>
+      </c>
+      <c r="JU10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.75</v>
+      </c>
+      <c r="JV10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="JW10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="JX10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="JY10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.9</v>
+      </c>
+      <c r="JZ10" s="2">
+        <f t="shared" si="18"/>
+        <v>2.9499999999999997</v>
+      </c>
+      <c r="KA10" s="2">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="KB10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.05</v>
+      </c>
+      <c r="KC10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.1</v>
+      </c>
+      <c r="KD10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.1</v>
+      </c>
+      <c r="KE10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.15</v>
+      </c>
+      <c r="KF10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.2</v>
+      </c>
+      <c r="KG10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.25</v>
+      </c>
+      <c r="KH10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="KI10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="KJ10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.35</v>
+      </c>
+      <c r="KK10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="KL10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="KM10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5</v>
+      </c>
+      <c r="KN10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5</v>
+      </c>
+      <c r="KO10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.55</v>
+      </c>
+      <c r="KP10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="KQ10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.65</v>
+      </c>
+      <c r="KR10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.7</v>
+      </c>
+      <c r="KS10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.7</v>
+      </c>
+      <c r="KT10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.75</v>
+      </c>
+      <c r="KU10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.8</v>
+      </c>
+      <c r="KV10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.8</v>
+      </c>
+      <c r="KW10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.85</v>
+      </c>
+      <c r="KX10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="KY10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.95</v>
+      </c>
+      <c r="KZ10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.95</v>
+      </c>
+      <c r="LA10" s="2">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="LB10" s="2">
+        <f t="shared" si="18"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="LC10" s="2">
+        <f t="shared" si="18"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="LD10" s="2">
+        <f t="shared" si="18"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="LE10" s="2">
+        <f t="shared" si="18"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="LF10" s="2">
+        <f t="shared" si="18"/>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="LG10" s="2">
+        <f t="shared" si="18"/>
+        <v>4.2</v>
+      </c>
+      <c r="LH10" s="2">
+        <f t="shared" si="18"/>
+        <v>4.25</v>
+      </c>
+      <c r="LI10" s="2">
+        <f t="shared" si="18"/>
+        <v>4.25</v>
+      </c>
+      <c r="LJ10" s="2">
+        <f t="shared" si="18"/>
+        <v>4.3</v>
+      </c>
+      <c r="LK10" s="2">
+        <f t="shared" si="18"/>
+        <v>4.3</v>
+      </c>
+      <c r="LL10" s="2">
+        <f t="shared" ref="LL10:NC10" si="19">LL4*5</f>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="LM10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="LN10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="LO10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.45</v>
+      </c>
+      <c r="LP10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.45</v>
+      </c>
+      <c r="LQ10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="LR10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="LS10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.55</v>
+      </c>
+      <c r="LT10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.55</v>
+      </c>
+      <c r="LU10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="LV10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="LW10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="LX10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="LY10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="LZ10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="MA10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="MB10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.75</v>
+      </c>
+      <c r="MC10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.75</v>
+      </c>
+      <c r="MD10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.75</v>
+      </c>
+      <c r="ME10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.8</v>
+      </c>
+      <c r="MF10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.8</v>
+      </c>
+      <c r="MG10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.8</v>
+      </c>
+      <c r="MH10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="MI10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="MJ10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="MK10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="ML10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="MM10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="MN10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="MO10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.95</v>
+      </c>
+      <c r="MP10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.95</v>
+      </c>
+      <c r="MQ10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.95</v>
+      </c>
+      <c r="MR10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.95</v>
+      </c>
+      <c r="MS10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.95</v>
+      </c>
+      <c r="MT10" s="2">
+        <f t="shared" si="19"/>
+        <v>4.95</v>
+      </c>
+      <c r="MU10" s="2">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="MV10" s="2">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="MW10" s="2">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="MX10" s="2">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="MY10" s="2">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="MZ10" s="2">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="NA10" s="2">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="NB10" s="2">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="NC10" s="2">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:367" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -6537,7 +9840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:CX10">
+  <conditionalFormatting sqref="C8:NC10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
